--- a/src/public/webtoon-list.xlsx
+++ b/src/public/webtoon-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/T7/Repository/Webtoon-Moa/src/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493CA645-62F9-6E4C-9BA3-81EB811E216A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758A27A7-918F-BE4A-A2A7-DC6E0E03EA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" xr2:uid="{27B2FBE9-60ED-114E-A79F-6B760E1B2EB2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4353" uniqueCount="2530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5558" uniqueCount="2608">
   <si>
     <t>id</t>
   </si>
@@ -7625,13 +7625,248 @@
   </si>
   <si>
     <t>https://page.kakao.com/home?seriesId=58925157</t>
+  </si>
+  <si>
+    <t>바니와 오빠들</t>
+  </si>
+  <si>
+    <t>https://kr-a.kakaopagecdn.com/P/C/1781/c2/2x/70170577-d321-4c16-aca9-000c9dc07b50.png</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/바니와-오빠들/1781</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kakaowebtoon</t>
+  </si>
+  <si>
+    <t>무지개다리 파수꾼</t>
+  </si>
+  <si>
+    <t>https://kr-a.kakaopagecdn.com/P/C/2043/c2/2x/58591695-c884-48b4-a46b-57cecb8f6d81.png</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/무지개다리-파수꾼/2043</t>
+  </si>
+  <si>
+    <t>뱀파이어님의 대리식사</t>
+  </si>
+  <si>
+    <t>https://kr-a.kakaopagecdn.com/P/C/1959/c2/2x/86a0bc84-bed3-4ed5-9209-01231d977f32.png</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/뱀파이어님의-대리식사/1959</t>
+  </si>
+  <si>
+    <t>대사형 선유</t>
+  </si>
+  <si>
+    <t>https://kr-a.kakaopagecdn.com/P/C/2589/c2/2x/1ce1458a-ac09-441a-af04-aae97035e71a.png</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/대사형-선유/2589</t>
+  </si>
+  <si>
+    <t>L.A.G</t>
+  </si>
+  <si>
+    <t>https://kr-a.kakaopagecdn.com/P/C/2715/c2/2x/ba083e18-3cf6-40ce-8993-b820621fc39b.png</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/L.A.G/2715</t>
+  </si>
+  <si>
+    <t>우정으로 결혼한 소꿉친구</t>
+  </si>
+  <si>
+    <t>https://kr-a.kakaopagecdn.com/P/C/1437/c2/2x/13e8fb0d-cf3d-4e9c-b086-6f9eecd5c177.png</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/우정으로-결혼한-소꿉친구/1437</t>
+  </si>
+  <si>
+    <t>강호표사</t>
+  </si>
+  <si>
+    <t>https://kr-a.kakaopagecdn.com/P/C/1931/c2/2x/04424488-b2ce-4933-8275-96b5f33c63dc.png</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/강호표사/1931</t>
+  </si>
+  <si>
+    <t>스위치</t>
+  </si>
+  <si>
+    <t>https://kr-a.kakaopagecdn.com/P/C/2683/c2/2x/638a45d1-9568-4f85-b846-35c64f52d841.png</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/스위치/2683</t>
+  </si>
+  <si>
+    <t>https://kr-a.kakaopagecdn.com/P/C/2592/c2/2x/e33a9ab9-a998-4b10-b777-19080ed87059.png</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/사장님의-특별지시/2592</t>
+  </si>
+  <si>
+    <t>나도 있어! 근육</t>
+  </si>
+  <si>
+    <t>https://kr-a.kakaopagecdn.com/P/C/2797/c2/2x/85b4f2cd-0784-4e3e-b207-553faf1231ed.png</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/나도-있어-근육/2797</t>
+  </si>
+  <si>
+    <t>이대로 멈출 순 없다</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/이대로-멈출-순-없다/1703</t>
+  </si>
+  <si>
+    <t>환율이 바뀌었나요?</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/환율이-바뀌었나요/2086</t>
+  </si>
+  <si>
+    <t>그라티아</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/그라티아/1621</t>
+  </si>
+  <si>
+    <t>타원을 그리는 법</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/타원을-그리는-법/1768</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/롱리브더킹/2302</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/환골탈태/2329</t>
+  </si>
+  <si>
+    <t>복마전</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/복마전/2805</t>
+  </si>
+  <si>
+    <t>나의 꼬마 선생님</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/나의-꼬마-선생님/2841</t>
+  </si>
+  <si>
+    <t>이계막차</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/이계막차/2772</t>
+  </si>
+  <si>
+    <t>안젤리카</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/안젤리카/2851</t>
+  </si>
+  <si>
+    <t>가비왕</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/가비왕/2598</t>
+  </si>
+  <si>
+    <t>연애 ㄴㄴ</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/연애-ㄴㄴ/2771</t>
+  </si>
+  <si>
+    <t>천인의 신부</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/천인의-신부/2423</t>
+  </si>
+  <si>
+    <t>월요일이 사라졌다</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/월요일이-사라졌다/2929</t>
+  </si>
+  <si>
+    <t>취접냉월</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/취접냉월/2803</t>
+  </si>
+  <si>
+    <t>조류공포증</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/조류공포증/1716</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/뒤끝작렬/2666</t>
+  </si>
+  <si>
+    <t>오무라이스 잼잼</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/오무라이스-잼잼/198</t>
+  </si>
+  <si>
+    <t>액괴</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/액괴/2147</t>
+  </si>
+  <si>
+    <t>쓰레기 머학생</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/쓰레기-머학생/1903</t>
+  </si>
+  <si>
+    <t>그 책에 마음을 주지 마세요</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/그-책에-마음을-주지-마세요/2143</t>
+  </si>
+  <si>
+    <t>일단 질러! 질렐루야</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/일단-질러-질렐루야/1140</t>
+  </si>
+  <si>
+    <t>유부녀의 탄생</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/유부녀의-탄생/1078</t>
+  </si>
+  <si>
+    <t>종말 후 라이브</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/종말-후-라이브/2763</t>
+  </si>
+  <si>
+    <t>아싸가 알아버렸다</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/아싸가-알아버렸다/1847</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/바니와-오빠들/1781</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7646,6 +7881,28 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="나눔명조"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -7665,20 +7922,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7990,10 +8257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288D9886-854C-CE4C-9662-F1FEE0402E1E}">
-  <dimension ref="A1:I725"/>
+  <dimension ref="A1:I1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -29023,8 +29290,6415 @@
         <v>0</v>
       </c>
     </row>
+    <row r="726" spans="1:9">
+      <c r="A726">
+        <v>1781</v>
+      </c>
+      <c r="B726" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C726" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D726" t="s">
+        <v>2531</v>
+      </c>
+      <c r="E726" s="3" t="s">
+        <v>2532</v>
+      </c>
+      <c r="F726" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G726" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H726" s="4">
+        <v>1</v>
+      </c>
+      <c r="I726" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="1:9">
+      <c r="A727">
+        <v>2043</v>
+      </c>
+      <c r="B727" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C727" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D727" t="s">
+        <v>2535</v>
+      </c>
+      <c r="E727" t="s">
+        <v>2536</v>
+      </c>
+      <c r="F727" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G727" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H727">
+        <v>1</v>
+      </c>
+      <c r="I727" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="1:9">
+      <c r="A728">
+        <v>1959</v>
+      </c>
+      <c r="B728" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C728" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D728" t="s">
+        <v>2538</v>
+      </c>
+      <c r="E728" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F728" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G728" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H728">
+        <v>1</v>
+      </c>
+      <c r="I728" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:9">
+      <c r="A729">
+        <v>2589</v>
+      </c>
+      <c r="B729" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C729" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D729" t="s">
+        <v>2541</v>
+      </c>
+      <c r="E729" t="s">
+        <v>2542</v>
+      </c>
+      <c r="F729" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G729" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H729">
+        <v>1</v>
+      </c>
+      <c r="I729" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="1:9">
+      <c r="A730">
+        <v>2715</v>
+      </c>
+      <c r="B730" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C730" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D730" t="s">
+        <v>2544</v>
+      </c>
+      <c r="E730" t="s">
+        <v>2545</v>
+      </c>
+      <c r="F730" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G730" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H730">
+        <v>1</v>
+      </c>
+      <c r="I730" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="1:9">
+      <c r="A731">
+        <v>1437</v>
+      </c>
+      <c r="B731" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C731" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D731" t="s">
+        <v>2547</v>
+      </c>
+      <c r="E731" t="s">
+        <v>2548</v>
+      </c>
+      <c r="F731" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G731" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H731">
+        <v>1</v>
+      </c>
+      <c r="I731" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="1:9">
+      <c r="A732">
+        <v>1931</v>
+      </c>
+      <c r="B732" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D732" t="s">
+        <v>2550</v>
+      </c>
+      <c r="E732" t="s">
+        <v>2551</v>
+      </c>
+      <c r="F732" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G732" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H732">
+        <v>1</v>
+      </c>
+      <c r="I732" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="1:9">
+      <c r="A733">
+        <v>2683</v>
+      </c>
+      <c r="B733" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C733" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D733" t="s">
+        <v>2553</v>
+      </c>
+      <c r="E733" t="s">
+        <v>2554</v>
+      </c>
+      <c r="F733" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G733" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H733">
+        <v>1</v>
+      </c>
+      <c r="I733" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:9">
+      <c r="A734">
+        <v>2592</v>
+      </c>
+      <c r="B734" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C734" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D734" t="s">
+        <v>2555</v>
+      </c>
+      <c r="E734" t="s">
+        <v>2556</v>
+      </c>
+      <c r="F734" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G734" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H734">
+        <v>1</v>
+      </c>
+      <c r="I734" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="1:9">
+      <c r="A735">
+        <v>2797</v>
+      </c>
+      <c r="B735" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C735" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D735" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E735" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F735" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G735" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H735">
+        <v>1</v>
+      </c>
+      <c r="I735" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:9">
+      <c r="A736">
+        <v>1703</v>
+      </c>
+      <c r="B736" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C736" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E736" t="s">
+        <v>2561</v>
+      </c>
+      <c r="F736" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G736" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H736">
+        <v>1</v>
+      </c>
+      <c r="I736" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:9">
+      <c r="A737">
+        <v>2086</v>
+      </c>
+      <c r="B737" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C737" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E737" t="s">
+        <v>2563</v>
+      </c>
+      <c r="F737" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G737" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H737">
+        <v>1</v>
+      </c>
+      <c r="I737" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="1:9">
+      <c r="A738">
+        <v>1621</v>
+      </c>
+      <c r="B738" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C738" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E738" t="s">
+        <v>2565</v>
+      </c>
+      <c r="F738" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G738" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H738">
+        <v>1</v>
+      </c>
+      <c r="I738" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="1:9">
+      <c r="A739">
+        <v>1768</v>
+      </c>
+      <c r="B739" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C739" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E739" t="s">
+        <v>2567</v>
+      </c>
+      <c r="F739" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G739" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H739">
+        <v>1</v>
+      </c>
+      <c r="I739" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="1:9">
+      <c r="A740">
+        <v>2302</v>
+      </c>
+      <c r="B740" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C740" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E740" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F740" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G740" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H740">
+        <v>1</v>
+      </c>
+      <c r="I740" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:9">
+      <c r="A741">
+        <v>2329</v>
+      </c>
+      <c r="B741" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C741" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E741" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F741" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G741" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H741">
+        <v>1</v>
+      </c>
+      <c r="I741" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="1:9">
+      <c r="A742">
+        <v>2805</v>
+      </c>
+      <c r="B742" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C742" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E742" t="s">
+        <v>2571</v>
+      </c>
+      <c r="F742" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G742" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H742">
+        <v>1</v>
+      </c>
+      <c r="I742" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:9">
+      <c r="A743">
+        <v>2841</v>
+      </c>
+      <c r="B743" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C743" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E743" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F743" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G743" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H743">
+        <v>1</v>
+      </c>
+      <c r="I743" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="1:9">
+      <c r="A744">
+        <v>2772</v>
+      </c>
+      <c r="B744" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C744" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E744" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F744" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G744" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H744">
+        <v>1</v>
+      </c>
+      <c r="I744" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:9">
+      <c r="A745">
+        <v>2851</v>
+      </c>
+      <c r="B745" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C745" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E745" t="s">
+        <v>2577</v>
+      </c>
+      <c r="F745" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G745" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H745">
+        <v>1</v>
+      </c>
+      <c r="I745" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="1:9">
+      <c r="A746">
+        <v>2598</v>
+      </c>
+      <c r="B746" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C746" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E746" t="s">
+        <v>2579</v>
+      </c>
+      <c r="F746" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G746" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H746">
+        <v>1</v>
+      </c>
+      <c r="I746" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="1:9">
+      <c r="A747">
+        <v>2771</v>
+      </c>
+      <c r="B747" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C747" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E747" t="s">
+        <v>2581</v>
+      </c>
+      <c r="F747" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G747" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H747">
+        <v>1</v>
+      </c>
+      <c r="I747" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="1:9">
+      <c r="A748">
+        <v>2423</v>
+      </c>
+      <c r="B748" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C748" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E748" t="s">
+        <v>2583</v>
+      </c>
+      <c r="F748" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G748" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H748">
+        <v>1</v>
+      </c>
+      <c r="I748" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:9">
+      <c r="A749">
+        <v>2929</v>
+      </c>
+      <c r="B749" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C749" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E749" t="s">
+        <v>2585</v>
+      </c>
+      <c r="F749" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G749" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H749">
+        <v>1</v>
+      </c>
+      <c r="I749" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:9">
+      <c r="A750">
+        <v>2803</v>
+      </c>
+      <c r="B750" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C750" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E750" t="s">
+        <v>2587</v>
+      </c>
+      <c r="F750" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G750" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H750">
+        <v>1</v>
+      </c>
+      <c r="I750" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="1:9">
+      <c r="A751">
+        <v>1716</v>
+      </c>
+      <c r="B751" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C751" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E751" t="s">
+        <v>2589</v>
+      </c>
+      <c r="F751" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G751" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H751">
+        <v>1</v>
+      </c>
+      <c r="I751" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:9">
+      <c r="A752">
+        <v>2666</v>
+      </c>
+      <c r="B752" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C752" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E752" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F752" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G752" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H752">
+        <v>1</v>
+      </c>
+      <c r="I752" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="1:9">
+      <c r="A753">
+        <v>198</v>
+      </c>
+      <c r="B753" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C753" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E753" t="s">
+        <v>2592</v>
+      </c>
+      <c r="F753" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G753" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H753">
+        <v>1</v>
+      </c>
+      <c r="I753" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="1:9">
+      <c r="A754">
+        <v>2147</v>
+      </c>
+      <c r="B754" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C754" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E754" t="s">
+        <v>2594</v>
+      </c>
+      <c r="F754" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G754" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H754">
+        <v>1</v>
+      </c>
+      <c r="I754" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="1:9">
+      <c r="A755">
+        <v>1903</v>
+      </c>
+      <c r="B755" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C755" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E755" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F755" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G755" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H755">
+        <v>1</v>
+      </c>
+      <c r="I755" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="1:9">
+      <c r="A756">
+        <v>2143</v>
+      </c>
+      <c r="B756" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C756" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E756" t="s">
+        <v>2598</v>
+      </c>
+      <c r="F756" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G756" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H756">
+        <v>1</v>
+      </c>
+      <c r="I756" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="1:9">
+      <c r="A757">
+        <v>1140</v>
+      </c>
+      <c r="B757" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C757" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E757" t="s">
+        <v>2600</v>
+      </c>
+      <c r="F757" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G757" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H757">
+        <v>1</v>
+      </c>
+      <c r="I757" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:9">
+      <c r="A758">
+        <v>1078</v>
+      </c>
+      <c r="B758" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C758" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E758" t="s">
+        <v>2602</v>
+      </c>
+      <c r="F758" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G758" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H758">
+        <v>1</v>
+      </c>
+      <c r="I758" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="1:9">
+      <c r="A759">
+        <v>2763</v>
+      </c>
+      <c r="B759" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C759" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E759" t="s">
+        <v>2604</v>
+      </c>
+      <c r="F759" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G759" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H759">
+        <v>1</v>
+      </c>
+      <c r="I759" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="1:9">
+      <c r="A760">
+        <v>1847</v>
+      </c>
+      <c r="B760" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C760" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E760" t="s">
+        <v>2606</v>
+      </c>
+      <c r="F760" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G760" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H760">
+        <v>1</v>
+      </c>
+      <c r="I760" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="1:9">
+      <c r="A761">
+        <v>1781</v>
+      </c>
+      <c r="B761" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C761" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E761" t="s">
+        <v>2607</v>
+      </c>
+      <c r="F761" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G761" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H761">
+        <v>2</v>
+      </c>
+      <c r="I761" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="1:9">
+      <c r="A762">
+        <v>2043</v>
+      </c>
+      <c r="B762" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C762" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E762" t="s">
+        <v>2536</v>
+      </c>
+      <c r="F762" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G762" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H762">
+        <v>2</v>
+      </c>
+      <c r="I762" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:9">
+      <c r="A763">
+        <v>1959</v>
+      </c>
+      <c r="B763" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C763" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E763" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F763" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G763" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H763">
+        <v>2</v>
+      </c>
+      <c r="I763" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:9">
+      <c r="A764">
+        <v>2589</v>
+      </c>
+      <c r="B764" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C764" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E764" t="s">
+        <v>2542</v>
+      </c>
+      <c r="F764" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G764" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H764">
+        <v>2</v>
+      </c>
+      <c r="I764" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="1:9">
+      <c r="A765">
+        <v>2715</v>
+      </c>
+      <c r="B765" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C765" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E765" t="s">
+        <v>2545</v>
+      </c>
+      <c r="F765" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G765" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H765">
+        <v>2</v>
+      </c>
+      <c r="I765" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:9">
+      <c r="A766">
+        <v>1437</v>
+      </c>
+      <c r="B766" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C766" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E766" t="s">
+        <v>2548</v>
+      </c>
+      <c r="F766" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G766" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H766">
+        <v>2</v>
+      </c>
+      <c r="I766" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="1:9">
+      <c r="A767">
+        <v>1931</v>
+      </c>
+      <c r="B767" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C767" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E767" t="s">
+        <v>2551</v>
+      </c>
+      <c r="F767" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G767" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H767">
+        <v>2</v>
+      </c>
+      <c r="I767" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:9">
+      <c r="A768">
+        <v>2683</v>
+      </c>
+      <c r="B768" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C768" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E768" t="s">
+        <v>2554</v>
+      </c>
+      <c r="F768" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G768" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H768">
+        <v>2</v>
+      </c>
+      <c r="I768" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:9">
+      <c r="A769">
+        <v>2592</v>
+      </c>
+      <c r="B769" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C769" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E769" t="s">
+        <v>2556</v>
+      </c>
+      <c r="F769" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G769" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H769">
+        <v>2</v>
+      </c>
+      <c r="I769" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:9">
+      <c r="A770">
+        <v>2797</v>
+      </c>
+      <c r="B770" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C770" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E770" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F770" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G770" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H770">
+        <v>2</v>
+      </c>
+      <c r="I770" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="1:9">
+      <c r="A771">
+        <v>1703</v>
+      </c>
+      <c r="B771" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C771" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E771" t="s">
+        <v>2561</v>
+      </c>
+      <c r="F771" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G771" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H771">
+        <v>2</v>
+      </c>
+      <c r="I771" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="1:9">
+      <c r="A772">
+        <v>2086</v>
+      </c>
+      <c r="B772" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C772" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E772" t="s">
+        <v>2563</v>
+      </c>
+      <c r="F772" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G772" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H772">
+        <v>2</v>
+      </c>
+      <c r="I772" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="1:9">
+      <c r="A773">
+        <v>1621</v>
+      </c>
+      <c r="B773" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C773" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E773" t="s">
+        <v>2565</v>
+      </c>
+      <c r="F773" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G773" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H773">
+        <v>2</v>
+      </c>
+      <c r="I773" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="1:9">
+      <c r="A774">
+        <v>1768</v>
+      </c>
+      <c r="B774" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C774" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E774" t="s">
+        <v>2567</v>
+      </c>
+      <c r="F774" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G774" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H774">
+        <v>2</v>
+      </c>
+      <c r="I774" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="1:9">
+      <c r="A775">
+        <v>2302</v>
+      </c>
+      <c r="B775" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C775" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E775" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F775" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G775" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H775">
+        <v>2</v>
+      </c>
+      <c r="I775" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:9">
+      <c r="A776">
+        <v>2329</v>
+      </c>
+      <c r="B776" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C776" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E776" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F776" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G776" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H776">
+        <v>2</v>
+      </c>
+      <c r="I776" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="1:9">
+      <c r="A777">
+        <v>2805</v>
+      </c>
+      <c r="B777" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C777" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E777" t="s">
+        <v>2571</v>
+      </c>
+      <c r="F777" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G777" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H777">
+        <v>2</v>
+      </c>
+      <c r="I777" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="1:9">
+      <c r="A778">
+        <v>2841</v>
+      </c>
+      <c r="B778" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C778" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E778" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F778" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G778" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H778">
+        <v>2</v>
+      </c>
+      <c r="I778" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="1:9">
+      <c r="A779">
+        <v>2772</v>
+      </c>
+      <c r="B779" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C779" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E779" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F779" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G779" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H779">
+        <v>2</v>
+      </c>
+      <c r="I779" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="1:9">
+      <c r="A780">
+        <v>2851</v>
+      </c>
+      <c r="B780" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C780" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E780" t="s">
+        <v>2577</v>
+      </c>
+      <c r="F780" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G780" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H780">
+        <v>2</v>
+      </c>
+      <c r="I780" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="1:9">
+      <c r="A781">
+        <v>2598</v>
+      </c>
+      <c r="B781" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C781" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E781" t="s">
+        <v>2579</v>
+      </c>
+      <c r="F781" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G781" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H781">
+        <v>2</v>
+      </c>
+      <c r="I781" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="1:9">
+      <c r="A782">
+        <v>2771</v>
+      </c>
+      <c r="B782" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C782" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E782" t="s">
+        <v>2581</v>
+      </c>
+      <c r="F782" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G782" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H782">
+        <v>2</v>
+      </c>
+      <c r="I782" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783" spans="1:9">
+      <c r="A783">
+        <v>2423</v>
+      </c>
+      <c r="B783" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C783" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E783" t="s">
+        <v>2583</v>
+      </c>
+      <c r="F783" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G783" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H783">
+        <v>2</v>
+      </c>
+      <c r="I783" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:9">
+      <c r="A784">
+        <v>2929</v>
+      </c>
+      <c r="B784" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C784" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E784" t="s">
+        <v>2585</v>
+      </c>
+      <c r="F784" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G784" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H784">
+        <v>2</v>
+      </c>
+      <c r="I784" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="1:9">
+      <c r="A785">
+        <v>2803</v>
+      </c>
+      <c r="B785" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C785" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E785" t="s">
+        <v>2587</v>
+      </c>
+      <c r="F785" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G785" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H785">
+        <v>2</v>
+      </c>
+      <c r="I785" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:9">
+      <c r="A786">
+        <v>1716</v>
+      </c>
+      <c r="B786" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C786" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E786" t="s">
+        <v>2589</v>
+      </c>
+      <c r="F786" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G786" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H786">
+        <v>2</v>
+      </c>
+      <c r="I786" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="1:9">
+      <c r="A787">
+        <v>2666</v>
+      </c>
+      <c r="B787" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C787" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E787" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F787" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G787" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H787">
+        <v>2</v>
+      </c>
+      <c r="I787" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="1:9">
+      <c r="A788">
+        <v>2147</v>
+      </c>
+      <c r="B788" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C788" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E788" t="s">
+        <v>2594</v>
+      </c>
+      <c r="F788" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G788" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H788">
+        <v>2</v>
+      </c>
+      <c r="I788" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="1:9">
+      <c r="A789">
+        <v>1903</v>
+      </c>
+      <c r="B789" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C789" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E789" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F789" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G789" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H789">
+        <v>2</v>
+      </c>
+      <c r="I789" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="1:9">
+      <c r="A790">
+        <v>2143</v>
+      </c>
+      <c r="B790" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C790" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E790" t="s">
+        <v>2598</v>
+      </c>
+      <c r="F790" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G790" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H790">
+        <v>2</v>
+      </c>
+      <c r="I790" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="1:9">
+      <c r="A791">
+        <v>1140</v>
+      </c>
+      <c r="B791" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C791" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E791" t="s">
+        <v>2600</v>
+      </c>
+      <c r="F791" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G791" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H791">
+        <v>2</v>
+      </c>
+      <c r="I791" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="1:9">
+      <c r="A792">
+        <v>1078</v>
+      </c>
+      <c r="B792" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C792" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E792" t="s">
+        <v>2602</v>
+      </c>
+      <c r="F792" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G792" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H792">
+        <v>2</v>
+      </c>
+      <c r="I792" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="1:9">
+      <c r="A793">
+        <v>2763</v>
+      </c>
+      <c r="B793" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C793" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E793" t="s">
+        <v>2604</v>
+      </c>
+      <c r="F793" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G793" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H793">
+        <v>2</v>
+      </c>
+      <c r="I793" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="1:9">
+      <c r="A794">
+        <v>1847</v>
+      </c>
+      <c r="B794" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C794" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E794" t="s">
+        <v>2606</v>
+      </c>
+      <c r="F794" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G794" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H794">
+        <v>2</v>
+      </c>
+      <c r="I794" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="1:9">
+      <c r="A795">
+        <v>1781</v>
+      </c>
+      <c r="B795" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C795" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E795" t="s">
+        <v>2607</v>
+      </c>
+      <c r="F795" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G795" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H795">
+        <v>3</v>
+      </c>
+      <c r="I795" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="1:9">
+      <c r="A796">
+        <v>2043</v>
+      </c>
+      <c r="B796" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C796" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E796" t="s">
+        <v>2536</v>
+      </c>
+      <c r="F796" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G796" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H796">
+        <v>3</v>
+      </c>
+      <c r="I796" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:9">
+      <c r="A797">
+        <v>1959</v>
+      </c>
+      <c r="B797" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C797" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E797" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F797" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G797" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H797">
+        <v>3</v>
+      </c>
+      <c r="I797" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="1:9">
+      <c r="A798">
+        <v>2589</v>
+      </c>
+      <c r="B798" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C798" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E798" t="s">
+        <v>2542</v>
+      </c>
+      <c r="F798" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G798" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H798">
+        <v>3</v>
+      </c>
+      <c r="I798" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:9">
+      <c r="A799">
+        <v>2715</v>
+      </c>
+      <c r="B799" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C799" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E799" t="s">
+        <v>2545</v>
+      </c>
+      <c r="F799" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G799" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H799">
+        <v>3</v>
+      </c>
+      <c r="I799" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="1:9">
+      <c r="A800">
+        <v>1437</v>
+      </c>
+      <c r="B800" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C800" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E800" t="s">
+        <v>2548</v>
+      </c>
+      <c r="F800" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G800" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H800">
+        <v>3</v>
+      </c>
+      <c r="I800" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="1:9">
+      <c r="A801">
+        <v>1931</v>
+      </c>
+      <c r="B801" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C801" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E801" t="s">
+        <v>2551</v>
+      </c>
+      <c r="F801" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G801" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H801">
+        <v>3</v>
+      </c>
+      <c r="I801" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" spans="1:9">
+      <c r="A802">
+        <v>2683</v>
+      </c>
+      <c r="B802" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C802" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E802" t="s">
+        <v>2554</v>
+      </c>
+      <c r="F802" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G802" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H802">
+        <v>3</v>
+      </c>
+      <c r="I802" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="1:9">
+      <c r="A803">
+        <v>2592</v>
+      </c>
+      <c r="B803" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C803" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E803" t="s">
+        <v>2556</v>
+      </c>
+      <c r="F803" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G803" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H803">
+        <v>3</v>
+      </c>
+      <c r="I803" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="1:9">
+      <c r="A804">
+        <v>2797</v>
+      </c>
+      <c r="B804" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C804" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E804" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F804" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G804" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H804">
+        <v>3</v>
+      </c>
+      <c r="I804" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="1:9">
+      <c r="A805">
+        <v>1703</v>
+      </c>
+      <c r="B805" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C805" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E805" t="s">
+        <v>2561</v>
+      </c>
+      <c r="F805" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G805" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H805">
+        <v>3</v>
+      </c>
+      <c r="I805" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="1:9">
+      <c r="A806">
+        <v>2086</v>
+      </c>
+      <c r="B806" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C806" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E806" t="s">
+        <v>2563</v>
+      </c>
+      <c r="F806" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G806" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H806">
+        <v>3</v>
+      </c>
+      <c r="I806" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="1:9">
+      <c r="A807">
+        <v>1621</v>
+      </c>
+      <c r="B807" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C807" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E807" t="s">
+        <v>2565</v>
+      </c>
+      <c r="F807" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G807" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H807">
+        <v>3</v>
+      </c>
+      <c r="I807" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="1:9">
+      <c r="A808">
+        <v>1768</v>
+      </c>
+      <c r="B808" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C808" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E808" t="s">
+        <v>2567</v>
+      </c>
+      <c r="F808" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G808" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H808">
+        <v>3</v>
+      </c>
+      <c r="I808" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="1:9">
+      <c r="A809">
+        <v>2302</v>
+      </c>
+      <c r="B809" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C809" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E809" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F809" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G809" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H809">
+        <v>3</v>
+      </c>
+      <c r="I809" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" spans="1:9">
+      <c r="A810">
+        <v>2329</v>
+      </c>
+      <c r="B810" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C810" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E810" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F810" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G810" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H810">
+        <v>3</v>
+      </c>
+      <c r="I810" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="1:9">
+      <c r="A811">
+        <v>2805</v>
+      </c>
+      <c r="B811" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C811" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E811" t="s">
+        <v>2571</v>
+      </c>
+      <c r="F811" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G811" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H811">
+        <v>3</v>
+      </c>
+      <c r="I811" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="1:9">
+      <c r="A812">
+        <v>2841</v>
+      </c>
+      <c r="B812" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C812" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E812" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F812" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G812" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H812">
+        <v>3</v>
+      </c>
+      <c r="I812" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" spans="1:9">
+      <c r="A813">
+        <v>2772</v>
+      </c>
+      <c r="B813" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C813" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E813" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F813" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G813" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H813">
+        <v>3</v>
+      </c>
+      <c r="I813" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:9">
+      <c r="A814">
+        <v>2851</v>
+      </c>
+      <c r="B814" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C814" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E814" t="s">
+        <v>2577</v>
+      </c>
+      <c r="F814" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G814" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H814">
+        <v>3</v>
+      </c>
+      <c r="I814" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" spans="1:9">
+      <c r="A815">
+        <v>2598</v>
+      </c>
+      <c r="B815" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C815" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E815" t="s">
+        <v>2579</v>
+      </c>
+      <c r="F815" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G815" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H815">
+        <v>3</v>
+      </c>
+      <c r="I815" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="1:9">
+      <c r="A816">
+        <v>2771</v>
+      </c>
+      <c r="B816" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C816" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E816" t="s">
+        <v>2581</v>
+      </c>
+      <c r="F816" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G816" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H816">
+        <v>3</v>
+      </c>
+      <c r="I816" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="1:9">
+      <c r="A817">
+        <v>2423</v>
+      </c>
+      <c r="B817" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C817" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E817" t="s">
+        <v>2583</v>
+      </c>
+      <c r="F817" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G817" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H817">
+        <v>3</v>
+      </c>
+      <c r="I817" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="1:9">
+      <c r="A818">
+        <v>2929</v>
+      </c>
+      <c r="B818" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C818" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E818" t="s">
+        <v>2585</v>
+      </c>
+      <c r="F818" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G818" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H818">
+        <v>3</v>
+      </c>
+      <c r="I818" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" spans="1:9">
+      <c r="A819">
+        <v>2803</v>
+      </c>
+      <c r="B819" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C819" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E819" t="s">
+        <v>2587</v>
+      </c>
+      <c r="F819" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G819" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H819">
+        <v>3</v>
+      </c>
+      <c r="I819" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="1:9">
+      <c r="A820">
+        <v>1716</v>
+      </c>
+      <c r="B820" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C820" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E820" t="s">
+        <v>2589</v>
+      </c>
+      <c r="F820" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G820" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H820">
+        <v>3</v>
+      </c>
+      <c r="I820" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="1:9">
+      <c r="A821">
+        <v>2666</v>
+      </c>
+      <c r="B821" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C821" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E821" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F821" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G821" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H821">
+        <v>3</v>
+      </c>
+      <c r="I821" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="1:9">
+      <c r="A822">
+        <v>2147</v>
+      </c>
+      <c r="B822" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C822" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E822" t="s">
+        <v>2594</v>
+      </c>
+      <c r="F822" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G822" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H822">
+        <v>3</v>
+      </c>
+      <c r="I822" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="1:9">
+      <c r="A823">
+        <v>1903</v>
+      </c>
+      <c r="B823" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C823" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E823" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F823" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G823" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H823">
+        <v>3</v>
+      </c>
+      <c r="I823" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="1:9">
+      <c r="A824">
+        <v>2143</v>
+      </c>
+      <c r="B824" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C824" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E824" t="s">
+        <v>2598</v>
+      </c>
+      <c r="F824" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G824" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H824">
+        <v>3</v>
+      </c>
+      <c r="I824" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="1:9">
+      <c r="A825">
+        <v>1140</v>
+      </c>
+      <c r="B825" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C825" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E825" t="s">
+        <v>2600</v>
+      </c>
+      <c r="F825" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G825" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H825">
+        <v>3</v>
+      </c>
+      <c r="I825" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="1:9">
+      <c r="A826">
+        <v>1078</v>
+      </c>
+      <c r="B826" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C826" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E826" t="s">
+        <v>2602</v>
+      </c>
+      <c r="F826" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G826" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H826">
+        <v>3</v>
+      </c>
+      <c r="I826" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="1:9">
+      <c r="A827">
+        <v>2763</v>
+      </c>
+      <c r="B827" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C827" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E827" t="s">
+        <v>2604</v>
+      </c>
+      <c r="F827" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G827" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H827">
+        <v>3</v>
+      </c>
+      <c r="I827" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="1:9">
+      <c r="A828">
+        <v>1847</v>
+      </c>
+      <c r="B828" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C828" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E828" t="s">
+        <v>2606</v>
+      </c>
+      <c r="F828" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G828" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H828">
+        <v>3</v>
+      </c>
+      <c r="I828" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="1:9">
+      <c r="A829">
+        <v>1781</v>
+      </c>
+      <c r="B829" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C829" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E829" t="s">
+        <v>2607</v>
+      </c>
+      <c r="F829" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G829" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H829">
+        <v>4</v>
+      </c>
+      <c r="I829" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="1:9">
+      <c r="A830">
+        <v>2043</v>
+      </c>
+      <c r="B830" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C830" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E830" t="s">
+        <v>2536</v>
+      </c>
+      <c r="F830" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G830" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H830">
+        <v>4</v>
+      </c>
+      <c r="I830" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="1:9">
+      <c r="A831">
+        <v>1959</v>
+      </c>
+      <c r="B831" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C831" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E831" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F831" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G831" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H831">
+        <v>4</v>
+      </c>
+      <c r="I831" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="1:9">
+      <c r="A832">
+        <v>2589</v>
+      </c>
+      <c r="B832" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C832" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E832" t="s">
+        <v>2542</v>
+      </c>
+      <c r="F832" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G832" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H832">
+        <v>4</v>
+      </c>
+      <c r="I832" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="1:9">
+      <c r="A833">
+        <v>2715</v>
+      </c>
+      <c r="B833" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C833" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E833" t="s">
+        <v>2545</v>
+      </c>
+      <c r="F833" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G833" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H833">
+        <v>4</v>
+      </c>
+      <c r="I833" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="1:9">
+      <c r="A834">
+        <v>1437</v>
+      </c>
+      <c r="B834" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C834" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E834" t="s">
+        <v>2548</v>
+      </c>
+      <c r="F834" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G834" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H834">
+        <v>4</v>
+      </c>
+      <c r="I834" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="1:9">
+      <c r="A835">
+        <v>1931</v>
+      </c>
+      <c r="B835" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C835" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E835" t="s">
+        <v>2551</v>
+      </c>
+      <c r="F835" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G835" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H835">
+        <v>4</v>
+      </c>
+      <c r="I835" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="1:9">
+      <c r="A836">
+        <v>2683</v>
+      </c>
+      <c r="B836" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C836" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E836" t="s">
+        <v>2554</v>
+      </c>
+      <c r="F836" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G836" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H836">
+        <v>4</v>
+      </c>
+      <c r="I836" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="1:9">
+      <c r="A837">
+        <v>2592</v>
+      </c>
+      <c r="B837" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C837" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E837" t="s">
+        <v>2556</v>
+      </c>
+      <c r="F837" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G837" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H837">
+        <v>4</v>
+      </c>
+      <c r="I837" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="1:9">
+      <c r="A838">
+        <v>2797</v>
+      </c>
+      <c r="B838" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C838" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E838" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F838" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G838" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H838">
+        <v>4</v>
+      </c>
+      <c r="I838" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839" spans="1:9">
+      <c r="A839">
+        <v>1703</v>
+      </c>
+      <c r="B839" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C839" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E839" t="s">
+        <v>2561</v>
+      </c>
+      <c r="F839" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G839" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H839">
+        <v>4</v>
+      </c>
+      <c r="I839" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="1:9">
+      <c r="A840">
+        <v>2086</v>
+      </c>
+      <c r="B840" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C840" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E840" t="s">
+        <v>2563</v>
+      </c>
+      <c r="F840" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G840" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H840">
+        <v>4</v>
+      </c>
+      <c r="I840" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841" spans="1:9">
+      <c r="A841">
+        <v>1621</v>
+      </c>
+      <c r="B841" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C841" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E841" t="s">
+        <v>2565</v>
+      </c>
+      <c r="F841" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G841" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H841">
+        <v>4</v>
+      </c>
+      <c r="I841" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="1:9">
+      <c r="A842">
+        <v>1768</v>
+      </c>
+      <c r="B842" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C842" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E842" t="s">
+        <v>2567</v>
+      </c>
+      <c r="F842" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G842" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H842">
+        <v>4</v>
+      </c>
+      <c r="I842" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="1:9">
+      <c r="A843">
+        <v>2302</v>
+      </c>
+      <c r="B843" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C843" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E843" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F843" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G843" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H843">
+        <v>4</v>
+      </c>
+      <c r="I843" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="1:9">
+      <c r="A844">
+        <v>2329</v>
+      </c>
+      <c r="B844" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C844" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E844" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F844" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G844" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H844">
+        <v>4</v>
+      </c>
+      <c r="I844" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="1:9">
+      <c r="A845">
+        <v>2805</v>
+      </c>
+      <c r="B845" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C845" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E845" t="s">
+        <v>2571</v>
+      </c>
+      <c r="F845" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G845" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H845">
+        <v>4</v>
+      </c>
+      <c r="I845" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="1:9">
+      <c r="A846">
+        <v>2841</v>
+      </c>
+      <c r="B846" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C846" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E846" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F846" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G846" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H846">
+        <v>4</v>
+      </c>
+      <c r="I846" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="1:9">
+      <c r="A847">
+        <v>2772</v>
+      </c>
+      <c r="B847" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C847" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E847" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F847" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G847" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H847">
+        <v>4</v>
+      </c>
+      <c r="I847" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="1:9">
+      <c r="A848">
+        <v>2851</v>
+      </c>
+      <c r="B848" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C848" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E848" t="s">
+        <v>2577</v>
+      </c>
+      <c r="F848" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G848" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H848">
+        <v>4</v>
+      </c>
+      <c r="I848" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849" spans="1:9">
+      <c r="A849">
+        <v>2598</v>
+      </c>
+      <c r="B849" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C849" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E849" t="s">
+        <v>2579</v>
+      </c>
+      <c r="F849" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G849" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H849">
+        <v>4</v>
+      </c>
+      <c r="I849" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" spans="1:9">
+      <c r="A850">
+        <v>2771</v>
+      </c>
+      <c r="B850" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C850" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E850" t="s">
+        <v>2581</v>
+      </c>
+      <c r="F850" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G850" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H850">
+        <v>4</v>
+      </c>
+      <c r="I850" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851" spans="1:9">
+      <c r="A851">
+        <v>2423</v>
+      </c>
+      <c r="B851" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C851" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E851" t="s">
+        <v>2583</v>
+      </c>
+      <c r="F851" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G851" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H851">
+        <v>4</v>
+      </c>
+      <c r="I851" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="1:9">
+      <c r="A852">
+        <v>2929</v>
+      </c>
+      <c r="B852" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C852" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E852" t="s">
+        <v>2585</v>
+      </c>
+      <c r="F852" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G852" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H852">
+        <v>4</v>
+      </c>
+      <c r="I852" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="1:9">
+      <c r="A853">
+        <v>2803</v>
+      </c>
+      <c r="B853" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C853" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E853" t="s">
+        <v>2587</v>
+      </c>
+      <c r="F853" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G853" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H853">
+        <v>4</v>
+      </c>
+      <c r="I853" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854" spans="1:9">
+      <c r="A854">
+        <v>1716</v>
+      </c>
+      <c r="B854" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C854" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E854" t="s">
+        <v>2589</v>
+      </c>
+      <c r="F854" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G854" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H854">
+        <v>4</v>
+      </c>
+      <c r="I854" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855" spans="1:9">
+      <c r="A855">
+        <v>2666</v>
+      </c>
+      <c r="B855" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C855" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E855" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F855" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G855" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H855">
+        <v>4</v>
+      </c>
+      <c r="I855" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="1:9">
+      <c r="A856">
+        <v>2147</v>
+      </c>
+      <c r="B856" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C856" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E856" t="s">
+        <v>2594</v>
+      </c>
+      <c r="F856" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G856" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H856">
+        <v>4</v>
+      </c>
+      <c r="I856" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="1:9">
+      <c r="A857">
+        <v>1903</v>
+      </c>
+      <c r="B857" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C857" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E857" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F857" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G857" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H857">
+        <v>4</v>
+      </c>
+      <c r="I857" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858" spans="1:9">
+      <c r="A858">
+        <v>2143</v>
+      </c>
+      <c r="B858" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C858" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E858" t="s">
+        <v>2598</v>
+      </c>
+      <c r="F858" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G858" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H858">
+        <v>4</v>
+      </c>
+      <c r="I858" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="1:9">
+      <c r="A859">
+        <v>1140</v>
+      </c>
+      <c r="B859" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C859" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E859" t="s">
+        <v>2600</v>
+      </c>
+      <c r="F859" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G859" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H859">
+        <v>4</v>
+      </c>
+      <c r="I859" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="1:9">
+      <c r="A860">
+        <v>1078</v>
+      </c>
+      <c r="B860" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C860" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E860" t="s">
+        <v>2602</v>
+      </c>
+      <c r="F860" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G860" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H860">
+        <v>4</v>
+      </c>
+      <c r="I860" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="1:9">
+      <c r="A861">
+        <v>2763</v>
+      </c>
+      <c r="B861" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C861" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E861" t="s">
+        <v>2604</v>
+      </c>
+      <c r="F861" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G861" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H861">
+        <v>4</v>
+      </c>
+      <c r="I861" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862" spans="1:9">
+      <c r="A862">
+        <v>1847</v>
+      </c>
+      <c r="B862" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C862" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E862" t="s">
+        <v>2606</v>
+      </c>
+      <c r="F862" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G862" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H862">
+        <v>4</v>
+      </c>
+      <c r="I862" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="1:9">
+      <c r="A863">
+        <v>1781</v>
+      </c>
+      <c r="B863" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C863" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E863" t="s">
+        <v>2607</v>
+      </c>
+      <c r="F863" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G863" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H863">
+        <v>5</v>
+      </c>
+      <c r="I863" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="1:9">
+      <c r="A864">
+        <v>2043</v>
+      </c>
+      <c r="B864" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C864" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E864" t="s">
+        <v>2536</v>
+      </c>
+      <c r="F864" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G864" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H864">
+        <v>5</v>
+      </c>
+      <c r="I864" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="1:9">
+      <c r="A865">
+        <v>1959</v>
+      </c>
+      <c r="B865" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C865" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E865" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F865" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G865" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H865">
+        <v>5</v>
+      </c>
+      <c r="I865" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" spans="1:9">
+      <c r="A866">
+        <v>2589</v>
+      </c>
+      <c r="B866" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C866" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E866" t="s">
+        <v>2542</v>
+      </c>
+      <c r="F866" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G866" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H866">
+        <v>5</v>
+      </c>
+      <c r="I866" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="1:9">
+      <c r="A867">
+        <v>2715</v>
+      </c>
+      <c r="B867" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C867" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E867" t="s">
+        <v>2545</v>
+      </c>
+      <c r="F867" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G867" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H867">
+        <v>5</v>
+      </c>
+      <c r="I867" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="1:9">
+      <c r="A868">
+        <v>1437</v>
+      </c>
+      <c r="B868" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C868" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E868" t="s">
+        <v>2548</v>
+      </c>
+      <c r="F868" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G868" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H868">
+        <v>5</v>
+      </c>
+      <c r="I868" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="1:9">
+      <c r="A869">
+        <v>1931</v>
+      </c>
+      <c r="B869" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C869" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E869" t="s">
+        <v>2551</v>
+      </c>
+      <c r="F869" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G869" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H869">
+        <v>5</v>
+      </c>
+      <c r="I869" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" spans="1:9">
+      <c r="A870">
+        <v>2683</v>
+      </c>
+      <c r="B870" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C870" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E870" t="s">
+        <v>2554</v>
+      </c>
+      <c r="F870" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G870" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H870">
+        <v>5</v>
+      </c>
+      <c r="I870" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871" spans="1:9">
+      <c r="A871">
+        <v>2592</v>
+      </c>
+      <c r="B871" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C871" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E871" t="s">
+        <v>2556</v>
+      </c>
+      <c r="F871" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G871" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H871">
+        <v>5</v>
+      </c>
+      <c r="I871" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="1:9">
+      <c r="A872">
+        <v>2797</v>
+      </c>
+      <c r="B872" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C872" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E872" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F872" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G872" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H872">
+        <v>5</v>
+      </c>
+      <c r="I872" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="1:9">
+      <c r="A873">
+        <v>1703</v>
+      </c>
+      <c r="B873" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C873" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E873" t="s">
+        <v>2561</v>
+      </c>
+      <c r="F873" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G873" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H873">
+        <v>5</v>
+      </c>
+      <c r="I873" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="1:9">
+      <c r="A874">
+        <v>2086</v>
+      </c>
+      <c r="B874" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C874" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E874" t="s">
+        <v>2563</v>
+      </c>
+      <c r="F874" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G874" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H874">
+        <v>5</v>
+      </c>
+      <c r="I874" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="1:9">
+      <c r="A875">
+        <v>1621</v>
+      </c>
+      <c r="B875" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C875" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E875" t="s">
+        <v>2565</v>
+      </c>
+      <c r="F875" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G875" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H875">
+        <v>5</v>
+      </c>
+      <c r="I875" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="1:9">
+      <c r="A876">
+        <v>1768</v>
+      </c>
+      <c r="B876" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C876" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E876" t="s">
+        <v>2567</v>
+      </c>
+      <c r="F876" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G876" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H876">
+        <v>5</v>
+      </c>
+      <c r="I876" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877" spans="1:9">
+      <c r="A877">
+        <v>2302</v>
+      </c>
+      <c r="B877" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C877" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E877" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F877" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G877" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H877">
+        <v>5</v>
+      </c>
+      <c r="I877" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="1:9">
+      <c r="A878">
+        <v>2329</v>
+      </c>
+      <c r="B878" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C878" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E878" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F878" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G878" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H878">
+        <v>5</v>
+      </c>
+      <c r="I878" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="1:9">
+      <c r="A879">
+        <v>2805</v>
+      </c>
+      <c r="B879" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C879" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E879" t="s">
+        <v>2571</v>
+      </c>
+      <c r="F879" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G879" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H879">
+        <v>5</v>
+      </c>
+      <c r="I879" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" spans="1:9">
+      <c r="A880">
+        <v>2841</v>
+      </c>
+      <c r="B880" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C880" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E880" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F880" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G880" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H880">
+        <v>5</v>
+      </c>
+      <c r="I880" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="1:9">
+      <c r="A881">
+        <v>2772</v>
+      </c>
+      <c r="B881" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C881" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E881" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F881" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G881" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H881">
+        <v>5</v>
+      </c>
+      <c r="I881" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882" spans="1:9">
+      <c r="A882">
+        <v>2851</v>
+      </c>
+      <c r="B882" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C882" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E882" t="s">
+        <v>2577</v>
+      </c>
+      <c r="F882" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G882" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H882">
+        <v>5</v>
+      </c>
+      <c r="I882" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883" spans="1:9">
+      <c r="A883">
+        <v>2598</v>
+      </c>
+      <c r="B883" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C883" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E883" t="s">
+        <v>2579</v>
+      </c>
+      <c r="F883" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G883" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H883">
+        <v>5</v>
+      </c>
+      <c r="I883" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" spans="1:9">
+      <c r="A884">
+        <v>2771</v>
+      </c>
+      <c r="B884" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C884" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E884" t="s">
+        <v>2581</v>
+      </c>
+      <c r="F884" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G884" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H884">
+        <v>5</v>
+      </c>
+      <c r="I884" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" spans="1:9">
+      <c r="A885">
+        <v>2423</v>
+      </c>
+      <c r="B885" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C885" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E885" t="s">
+        <v>2583</v>
+      </c>
+      <c r="F885" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G885" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H885">
+        <v>5</v>
+      </c>
+      <c r="I885" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886" spans="1:9">
+      <c r="A886">
+        <v>2929</v>
+      </c>
+      <c r="B886" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C886" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E886" t="s">
+        <v>2585</v>
+      </c>
+      <c r="F886" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G886" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H886">
+        <v>5</v>
+      </c>
+      <c r="I886" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887" spans="1:9">
+      <c r="A887">
+        <v>2803</v>
+      </c>
+      <c r="B887" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C887" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E887" t="s">
+        <v>2587</v>
+      </c>
+      <c r="F887" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G887" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H887">
+        <v>5</v>
+      </c>
+      <c r="I887" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888" spans="1:9">
+      <c r="A888">
+        <v>1716</v>
+      </c>
+      <c r="B888" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C888" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E888" t="s">
+        <v>2589</v>
+      </c>
+      <c r="F888" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G888" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H888">
+        <v>5</v>
+      </c>
+      <c r="I888" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" spans="1:9">
+      <c r="A889">
+        <v>2666</v>
+      </c>
+      <c r="B889" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C889" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E889" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F889" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G889" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H889">
+        <v>5</v>
+      </c>
+      <c r="I889" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="1:9">
+      <c r="A890">
+        <v>2147</v>
+      </c>
+      <c r="B890" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C890" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E890" t="s">
+        <v>2594</v>
+      </c>
+      <c r="F890" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G890" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H890">
+        <v>5</v>
+      </c>
+      <c r="I890" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891" spans="1:9">
+      <c r="A891">
+        <v>1903</v>
+      </c>
+      <c r="B891" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C891" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E891" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F891" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G891" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H891">
+        <v>5</v>
+      </c>
+      <c r="I891" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="1:9">
+      <c r="A892">
+        <v>2143</v>
+      </c>
+      <c r="B892" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C892" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E892" t="s">
+        <v>2598</v>
+      </c>
+      <c r="F892" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G892" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H892">
+        <v>5</v>
+      </c>
+      <c r="I892" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="1:9">
+      <c r="A893">
+        <v>1140</v>
+      </c>
+      <c r="B893" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C893" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E893" t="s">
+        <v>2600</v>
+      </c>
+      <c r="F893" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G893" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H893">
+        <v>5</v>
+      </c>
+      <c r="I893" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="1:9">
+      <c r="A894">
+        <v>1078</v>
+      </c>
+      <c r="B894" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C894" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E894" t="s">
+        <v>2602</v>
+      </c>
+      <c r="F894" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G894" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H894">
+        <v>5</v>
+      </c>
+      <c r="I894" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" spans="1:9">
+      <c r="A895">
+        <v>2763</v>
+      </c>
+      <c r="B895" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C895" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E895" t="s">
+        <v>2604</v>
+      </c>
+      <c r="F895" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G895" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H895">
+        <v>5</v>
+      </c>
+      <c r="I895" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="1:9">
+      <c r="A896">
+        <v>1847</v>
+      </c>
+      <c r="B896" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C896" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E896" t="s">
+        <v>2606</v>
+      </c>
+      <c r="F896" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G896" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H896">
+        <v>5</v>
+      </c>
+      <c r="I896" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897" spans="1:9">
+      <c r="A897">
+        <v>1781</v>
+      </c>
+      <c r="B897" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C897" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E897" t="s">
+        <v>2607</v>
+      </c>
+      <c r="F897" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G897" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H897">
+        <v>6</v>
+      </c>
+      <c r="I897" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898" spans="1:9">
+      <c r="A898">
+        <v>2043</v>
+      </c>
+      <c r="B898" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C898" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E898" t="s">
+        <v>2536</v>
+      </c>
+      <c r="F898" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G898" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H898">
+        <v>6</v>
+      </c>
+      <c r="I898" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" spans="1:9">
+      <c r="A899">
+        <v>1959</v>
+      </c>
+      <c r="B899" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C899" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E899" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F899" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G899" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H899">
+        <v>6</v>
+      </c>
+      <c r="I899" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" spans="1:9">
+      <c r="A900">
+        <v>2589</v>
+      </c>
+      <c r="B900" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C900" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E900" t="s">
+        <v>2542</v>
+      </c>
+      <c r="F900" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G900" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H900">
+        <v>6</v>
+      </c>
+      <c r="I900" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" spans="1:9">
+      <c r="A901">
+        <v>2715</v>
+      </c>
+      <c r="B901" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C901" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E901" t="s">
+        <v>2545</v>
+      </c>
+      <c r="F901" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G901" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H901">
+        <v>6</v>
+      </c>
+      <c r="I901" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902" spans="1:9">
+      <c r="A902">
+        <v>1437</v>
+      </c>
+      <c r="B902" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C902" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E902" t="s">
+        <v>2548</v>
+      </c>
+      <c r="F902" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G902" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H902">
+        <v>6</v>
+      </c>
+      <c r="I902" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903" spans="1:9">
+      <c r="A903">
+        <v>1931</v>
+      </c>
+      <c r="B903" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C903" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E903" t="s">
+        <v>2551</v>
+      </c>
+      <c r="F903" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G903" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H903">
+        <v>6</v>
+      </c>
+      <c r="I903" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904" spans="1:9">
+      <c r="A904">
+        <v>2683</v>
+      </c>
+      <c r="B904" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C904" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E904" t="s">
+        <v>2554</v>
+      </c>
+      <c r="F904" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G904" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H904">
+        <v>6</v>
+      </c>
+      <c r="I904" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905" spans="1:9">
+      <c r="A905">
+        <v>2592</v>
+      </c>
+      <c r="B905" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C905" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E905" t="s">
+        <v>2556</v>
+      </c>
+      <c r="F905" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G905" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H905">
+        <v>6</v>
+      </c>
+      <c r="I905" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906" spans="1:9">
+      <c r="A906">
+        <v>2797</v>
+      </c>
+      <c r="B906" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C906" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E906" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F906" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G906" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H906">
+        <v>6</v>
+      </c>
+      <c r="I906" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907" spans="1:9">
+      <c r="A907">
+        <v>1703</v>
+      </c>
+      <c r="B907" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C907" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E907" t="s">
+        <v>2561</v>
+      </c>
+      <c r="F907" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G907" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H907">
+        <v>6</v>
+      </c>
+      <c r="I907" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908" spans="1:9">
+      <c r="A908">
+        <v>2086</v>
+      </c>
+      <c r="B908" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C908" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E908" t="s">
+        <v>2563</v>
+      </c>
+      <c r="F908" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G908" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H908">
+        <v>6</v>
+      </c>
+      <c r="I908" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909" spans="1:9">
+      <c r="A909">
+        <v>1621</v>
+      </c>
+      <c r="B909" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C909" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E909" t="s">
+        <v>2565</v>
+      </c>
+      <c r="F909" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G909" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H909">
+        <v>6</v>
+      </c>
+      <c r="I909" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910" spans="1:9">
+      <c r="A910">
+        <v>1768</v>
+      </c>
+      <c r="B910" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C910" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E910" t="s">
+        <v>2567</v>
+      </c>
+      <c r="F910" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G910" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H910">
+        <v>6</v>
+      </c>
+      <c r="I910" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911" spans="1:9">
+      <c r="A911">
+        <v>2302</v>
+      </c>
+      <c r="B911" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C911" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E911" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F911" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G911" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H911">
+        <v>6</v>
+      </c>
+      <c r="I911" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912" spans="1:9">
+      <c r="A912">
+        <v>2329</v>
+      </c>
+      <c r="B912" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C912" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E912" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F912" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G912" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H912">
+        <v>6</v>
+      </c>
+      <c r="I912" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913" spans="1:9">
+      <c r="A913">
+        <v>2805</v>
+      </c>
+      <c r="B913" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C913" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E913" t="s">
+        <v>2571</v>
+      </c>
+      <c r="F913" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G913" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H913">
+        <v>6</v>
+      </c>
+      <c r="I913" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914" spans="1:9">
+      <c r="A914">
+        <v>2841</v>
+      </c>
+      <c r="B914" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C914" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E914" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F914" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G914" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H914">
+        <v>6</v>
+      </c>
+      <c r="I914" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915" spans="1:9">
+      <c r="A915">
+        <v>2772</v>
+      </c>
+      <c r="B915" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C915" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E915" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F915" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G915" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H915">
+        <v>6</v>
+      </c>
+      <c r="I915" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="1:9">
+      <c r="A916">
+        <v>2851</v>
+      </c>
+      <c r="B916" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C916" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E916" t="s">
+        <v>2577</v>
+      </c>
+      <c r="F916" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G916" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H916">
+        <v>6</v>
+      </c>
+      <c r="I916" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917" spans="1:9">
+      <c r="A917">
+        <v>2598</v>
+      </c>
+      <c r="B917" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C917" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E917" t="s">
+        <v>2579</v>
+      </c>
+      <c r="F917" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G917" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H917">
+        <v>6</v>
+      </c>
+      <c r="I917" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918" spans="1:9">
+      <c r="A918">
+        <v>2771</v>
+      </c>
+      <c r="B918" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C918" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E918" t="s">
+        <v>2581</v>
+      </c>
+      <c r="F918" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G918" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H918">
+        <v>6</v>
+      </c>
+      <c r="I918" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="1:9">
+      <c r="A919">
+        <v>2423</v>
+      </c>
+      <c r="B919" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C919" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E919" t="s">
+        <v>2583</v>
+      </c>
+      <c r="F919" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G919" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H919">
+        <v>6</v>
+      </c>
+      <c r="I919" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" spans="1:9">
+      <c r="A920">
+        <v>2929</v>
+      </c>
+      <c r="B920" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C920" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E920" t="s">
+        <v>2585</v>
+      </c>
+      <c r="F920" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G920" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H920">
+        <v>6</v>
+      </c>
+      <c r="I920" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921" spans="1:9">
+      <c r="A921">
+        <v>2803</v>
+      </c>
+      <c r="B921" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C921" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E921" t="s">
+        <v>2587</v>
+      </c>
+      <c r="F921" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G921" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H921">
+        <v>6</v>
+      </c>
+      <c r="I921" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922" spans="1:9">
+      <c r="A922">
+        <v>1716</v>
+      </c>
+      <c r="B922" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C922" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E922" t="s">
+        <v>2589</v>
+      </c>
+      <c r="F922" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G922" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H922">
+        <v>6</v>
+      </c>
+      <c r="I922" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923" spans="1:9">
+      <c r="A923">
+        <v>2666</v>
+      </c>
+      <c r="B923" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C923" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E923" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F923" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G923" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H923">
+        <v>6</v>
+      </c>
+      <c r="I923" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924" spans="1:9">
+      <c r="A924">
+        <v>2147</v>
+      </c>
+      <c r="B924" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C924" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E924" t="s">
+        <v>2594</v>
+      </c>
+      <c r="F924" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G924" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H924">
+        <v>6</v>
+      </c>
+      <c r="I924" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925" spans="1:9">
+      <c r="A925">
+        <v>1903</v>
+      </c>
+      <c r="B925" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C925" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E925" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F925" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G925" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H925">
+        <v>6</v>
+      </c>
+      <c r="I925" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926" spans="1:9">
+      <c r="A926">
+        <v>2143</v>
+      </c>
+      <c r="B926" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C926" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E926" t="s">
+        <v>2598</v>
+      </c>
+      <c r="F926" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G926" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H926">
+        <v>6</v>
+      </c>
+      <c r="I926" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927" spans="1:9">
+      <c r="A927">
+        <v>1140</v>
+      </c>
+      <c r="B927" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C927" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E927" t="s">
+        <v>2600</v>
+      </c>
+      <c r="F927" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G927" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H927">
+        <v>6</v>
+      </c>
+      <c r="I927" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928" spans="1:9">
+      <c r="A928">
+        <v>1078</v>
+      </c>
+      <c r="B928" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C928" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E928" t="s">
+        <v>2602</v>
+      </c>
+      <c r="F928" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G928" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H928">
+        <v>6</v>
+      </c>
+      <c r="I928" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929" spans="1:9">
+      <c r="A929">
+        <v>2763</v>
+      </c>
+      <c r="B929" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C929" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E929" t="s">
+        <v>2604</v>
+      </c>
+      <c r="F929" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G929" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H929">
+        <v>6</v>
+      </c>
+      <c r="I929" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930" spans="1:9">
+      <c r="A930">
+        <v>1847</v>
+      </c>
+      <c r="B930" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C930" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E930" t="s">
+        <v>2606</v>
+      </c>
+      <c r="F930" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G930" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H930">
+        <v>6</v>
+      </c>
+      <c r="I930" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931" spans="1:9">
+      <c r="A931">
+        <v>1781</v>
+      </c>
+      <c r="B931" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C931" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E931" t="s">
+        <v>2607</v>
+      </c>
+      <c r="F931" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G931" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H931">
+        <v>7</v>
+      </c>
+      <c r="I931" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932" spans="1:9">
+      <c r="A932">
+        <v>2043</v>
+      </c>
+      <c r="B932" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C932" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E932" t="s">
+        <v>2536</v>
+      </c>
+      <c r="F932" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G932" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H932">
+        <v>7</v>
+      </c>
+      <c r="I932" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933" spans="1:9">
+      <c r="A933">
+        <v>1959</v>
+      </c>
+      <c r="B933" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C933" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E933" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F933" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G933" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H933">
+        <v>7</v>
+      </c>
+      <c r="I933" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934" spans="1:9">
+      <c r="A934">
+        <v>2589</v>
+      </c>
+      <c r="B934" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C934" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E934" t="s">
+        <v>2542</v>
+      </c>
+      <c r="F934" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G934" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H934">
+        <v>7</v>
+      </c>
+      <c r="I934" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935" spans="1:9">
+      <c r="A935">
+        <v>2715</v>
+      </c>
+      <c r="B935" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C935" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E935" t="s">
+        <v>2545</v>
+      </c>
+      <c r="F935" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G935" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H935">
+        <v>7</v>
+      </c>
+      <c r="I935" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936" spans="1:9">
+      <c r="A936">
+        <v>1437</v>
+      </c>
+      <c r="B936" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C936" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E936" t="s">
+        <v>2548</v>
+      </c>
+      <c r="F936" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G936" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H936">
+        <v>7</v>
+      </c>
+      <c r="I936" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937" spans="1:9">
+      <c r="A937">
+        <v>1931</v>
+      </c>
+      <c r="B937" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C937" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E937" t="s">
+        <v>2551</v>
+      </c>
+      <c r="F937" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G937" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H937">
+        <v>7</v>
+      </c>
+      <c r="I937" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938" spans="1:9">
+      <c r="A938">
+        <v>2683</v>
+      </c>
+      <c r="B938" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C938" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E938" t="s">
+        <v>2554</v>
+      </c>
+      <c r="F938" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G938" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H938">
+        <v>7</v>
+      </c>
+      <c r="I938" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939" spans="1:9">
+      <c r="A939">
+        <v>2592</v>
+      </c>
+      <c r="B939" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C939" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E939" t="s">
+        <v>2556</v>
+      </c>
+      <c r="F939" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G939" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H939">
+        <v>7</v>
+      </c>
+      <c r="I939" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" spans="1:9">
+      <c r="A940">
+        <v>2797</v>
+      </c>
+      <c r="B940" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C940" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E940" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F940" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G940" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H940">
+        <v>7</v>
+      </c>
+      <c r="I940" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941" spans="1:9">
+      <c r="A941">
+        <v>1703</v>
+      </c>
+      <c r="B941" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C941" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E941" t="s">
+        <v>2561</v>
+      </c>
+      <c r="F941" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G941" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H941">
+        <v>7</v>
+      </c>
+      <c r="I941" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942" spans="1:9">
+      <c r="A942">
+        <v>2086</v>
+      </c>
+      <c r="B942" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C942" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E942" t="s">
+        <v>2563</v>
+      </c>
+      <c r="F942" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G942" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H942">
+        <v>7</v>
+      </c>
+      <c r="I942" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943" spans="1:9">
+      <c r="A943">
+        <v>1621</v>
+      </c>
+      <c r="B943" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C943" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E943" t="s">
+        <v>2565</v>
+      </c>
+      <c r="F943" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G943" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H943">
+        <v>7</v>
+      </c>
+      <c r="I943" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944" spans="1:9">
+      <c r="A944">
+        <v>1768</v>
+      </c>
+      <c r="B944" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C944" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E944" t="s">
+        <v>2567</v>
+      </c>
+      <c r="F944" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G944" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H944">
+        <v>7</v>
+      </c>
+      <c r="I944" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945" spans="1:9">
+      <c r="A945">
+        <v>2302</v>
+      </c>
+      <c r="B945" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C945" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E945" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F945" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G945" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H945">
+        <v>7</v>
+      </c>
+      <c r="I945" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946" spans="1:9">
+      <c r="A946">
+        <v>2329</v>
+      </c>
+      <c r="B946" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C946" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E946" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F946" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G946" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H946">
+        <v>7</v>
+      </c>
+      <c r="I946" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947" spans="1:9">
+      <c r="A947">
+        <v>2805</v>
+      </c>
+      <c r="B947" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C947" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E947" t="s">
+        <v>2571</v>
+      </c>
+      <c r="F947" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G947" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H947">
+        <v>7</v>
+      </c>
+      <c r="I947" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948" spans="1:9">
+      <c r="A948">
+        <v>2841</v>
+      </c>
+      <c r="B948" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C948" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E948" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F948" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G948" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H948">
+        <v>7</v>
+      </c>
+      <c r="I948" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="1:9">
+      <c r="A949">
+        <v>2772</v>
+      </c>
+      <c r="B949" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C949" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E949" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F949" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G949" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H949">
+        <v>7</v>
+      </c>
+      <c r="I949" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" spans="1:9">
+      <c r="A950">
+        <v>2851</v>
+      </c>
+      <c r="B950" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C950" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E950" t="s">
+        <v>2577</v>
+      </c>
+      <c r="F950" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G950" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H950">
+        <v>7</v>
+      </c>
+      <c r="I950" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951" spans="1:9">
+      <c r="A951">
+        <v>2598</v>
+      </c>
+      <c r="B951" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C951" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E951" t="s">
+        <v>2579</v>
+      </c>
+      <c r="F951" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G951" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H951">
+        <v>7</v>
+      </c>
+      <c r="I951" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" spans="1:9">
+      <c r="A952">
+        <v>2771</v>
+      </c>
+      <c r="B952" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C952" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E952" t="s">
+        <v>2581</v>
+      </c>
+      <c r="F952" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G952" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H952">
+        <v>7</v>
+      </c>
+      <c r="I952" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953" spans="1:9">
+      <c r="A953">
+        <v>2423</v>
+      </c>
+      <c r="B953" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C953" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E953" t="s">
+        <v>2583</v>
+      </c>
+      <c r="F953" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G953" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H953">
+        <v>7</v>
+      </c>
+      <c r="I953" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954" spans="1:9">
+      <c r="A954">
+        <v>2929</v>
+      </c>
+      <c r="B954" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C954" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E954" t="s">
+        <v>2585</v>
+      </c>
+      <c r="F954" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G954" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H954">
+        <v>7</v>
+      </c>
+      <c r="I954" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955" spans="1:9">
+      <c r="A955">
+        <v>2803</v>
+      </c>
+      <c r="B955" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C955" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E955" t="s">
+        <v>2587</v>
+      </c>
+      <c r="F955" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G955" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H955">
+        <v>7</v>
+      </c>
+      <c r="I955" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956" spans="1:9">
+      <c r="A956">
+        <v>1716</v>
+      </c>
+      <c r="B956" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C956" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E956" t="s">
+        <v>2589</v>
+      </c>
+      <c r="F956" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G956" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H956">
+        <v>7</v>
+      </c>
+      <c r="I956" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957" spans="1:9">
+      <c r="A957">
+        <v>2666</v>
+      </c>
+      <c r="B957" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C957" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E957" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F957" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G957" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H957">
+        <v>7</v>
+      </c>
+      <c r="I957" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958" spans="1:9">
+      <c r="A958">
+        <v>2147</v>
+      </c>
+      <c r="B958" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C958" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E958" t="s">
+        <v>2594</v>
+      </c>
+      <c r="F958" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G958" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H958">
+        <v>7</v>
+      </c>
+      <c r="I958" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959" spans="1:9">
+      <c r="A959">
+        <v>1903</v>
+      </c>
+      <c r="B959" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C959" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E959" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F959" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G959" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H959">
+        <v>7</v>
+      </c>
+      <c r="I959" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960" spans="1:9">
+      <c r="A960">
+        <v>2143</v>
+      </c>
+      <c r="B960" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C960" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E960" t="s">
+        <v>2598</v>
+      </c>
+      <c r="F960" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G960" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H960">
+        <v>7</v>
+      </c>
+      <c r="I960" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961" spans="1:9">
+      <c r="A961">
+        <v>1140</v>
+      </c>
+      <c r="B961" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C961" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E961" t="s">
+        <v>2600</v>
+      </c>
+      <c r="F961" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G961" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H961">
+        <v>7</v>
+      </c>
+      <c r="I961" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962" spans="1:9">
+      <c r="A962">
+        <v>1078</v>
+      </c>
+      <c r="B962" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C962" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E962" t="s">
+        <v>2602</v>
+      </c>
+      <c r="F962" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G962" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H962">
+        <v>7</v>
+      </c>
+      <c r="I962" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963" spans="1:9">
+      <c r="A963">
+        <v>2763</v>
+      </c>
+      <c r="B963" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C963" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E963" t="s">
+        <v>2604</v>
+      </c>
+      <c r="F963" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G963" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H963">
+        <v>7</v>
+      </c>
+      <c r="I963" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964" spans="1:9">
+      <c r="A964">
+        <v>1847</v>
+      </c>
+      <c r="B964" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C964" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E964" t="s">
+        <v>2606</v>
+      </c>
+      <c r="F964" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G964" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H964">
+        <v>7</v>
+      </c>
+      <c r="I964" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965" spans="1:9">
+      <c r="C965" s="1"/>
+      <c r="G965" s="1"/>
+      <c r="I965" s="1"/>
+    </row>
+    <row r="966" spans="1:9">
+      <c r="C966" s="1"/>
+      <c r="G966" s="1"/>
+      <c r="I966" s="1"/>
+    </row>
+    <row r="967" spans="1:9">
+      <c r="C967" s="1"/>
+      <c r="G967" s="1"/>
+      <c r="I967" s="1"/>
+    </row>
+    <row r="968" spans="1:9">
+      <c r="C968" s="1"/>
+      <c r="G968" s="1"/>
+      <c r="I968" s="1"/>
+    </row>
+    <row r="969" spans="1:9">
+      <c r="C969" s="1"/>
+      <c r="G969" s="1"/>
+      <c r="I969" s="1"/>
+    </row>
+    <row r="970" spans="1:9">
+      <c r="C970" s="1"/>
+      <c r="G970" s="1"/>
+      <c r="I970" s="1"/>
+    </row>
+    <row r="971" spans="1:9">
+      <c r="C971" s="1"/>
+      <c r="G971" s="1"/>
+    </row>
+    <row r="972" spans="1:9">
+      <c r="C972" s="1"/>
+    </row>
+    <row r="973" spans="1:9">
+      <c r="C973" s="1"/>
+    </row>
+    <row r="974" spans="1:9">
+      <c r="C974" s="1"/>
+    </row>
+    <row r="975" spans="1:9">
+      <c r="C975" s="1"/>
+    </row>
+    <row r="976" spans="1:9">
+      <c r="C976" s="1"/>
+    </row>
+    <row r="977" spans="3:3">
+      <c r="C977" s="1"/>
+    </row>
+    <row r="978" spans="3:3">
+      <c r="C978" s="1"/>
+    </row>
+    <row r="979" spans="3:3">
+      <c r="C979" s="1"/>
+    </row>
+    <row r="980" spans="3:3">
+      <c r="C980" s="1"/>
+    </row>
+    <row r="981" spans="3:3">
+      <c r="C981" s="1"/>
+    </row>
+    <row r="982" spans="3:3">
+      <c r="C982" s="1"/>
+    </row>
+    <row r="983" spans="3:3">
+      <c r="C983" s="1"/>
+    </row>
+    <row r="984" spans="3:3">
+      <c r="C984" s="1"/>
+    </row>
+    <row r="985" spans="3:3">
+      <c r="C985" s="1"/>
+    </row>
+    <row r="986" spans="3:3">
+      <c r="C986" s="1"/>
+    </row>
+    <row r="987" spans="3:3">
+      <c r="C987" s="1"/>
+    </row>
+    <row r="988" spans="3:3">
+      <c r="C988" s="1"/>
+    </row>
+    <row r="989" spans="3:3">
+      <c r="C989" s="1"/>
+    </row>
+    <row r="990" spans="3:3">
+      <c r="C990" s="1"/>
+    </row>
+    <row r="991" spans="3:3">
+      <c r="C991" s="1"/>
+    </row>
+    <row r="992" spans="3:3">
+      <c r="C992" s="1"/>
+    </row>
+    <row r="993" spans="3:3">
+      <c r="C993" s="1"/>
+    </row>
+    <row r="994" spans="3:3">
+      <c r="C994" s="1"/>
+    </row>
+    <row r="995" spans="3:3">
+      <c r="C995" s="1"/>
+    </row>
+    <row r="996" spans="3:3">
+      <c r="C996" s="1"/>
+    </row>
+    <row r="997" spans="3:3">
+      <c r="C997" s="1"/>
+    </row>
+    <row r="998" spans="3:3">
+      <c r="C998" s="1"/>
+    </row>
+    <row r="999" spans="3:3">
+      <c r="C999" s="1"/>
+    </row>
+    <row r="1000" spans="3:3">
+      <c r="C1000" s="1"/>
+    </row>
+    <row r="1001" spans="3:3">
+      <c r="C1001" s="1"/>
+    </row>
+    <row r="1002" spans="3:3">
+      <c r="C1002" s="1"/>
+    </row>
+    <row r="1003" spans="3:3">
+      <c r="C1003" s="1"/>
+    </row>
+    <row r="1004" spans="3:3">
+      <c r="C1004" s="1"/>
+    </row>
+    <row r="1005" spans="3:3">
+      <c r="C1005" s="1"/>
+    </row>
+    <row r="1006" spans="3:3">
+      <c r="C1006" s="1"/>
+    </row>
+    <row r="1007" spans="3:3">
+      <c r="C1007" s="1"/>
+    </row>
+    <row r="1008" spans="3:3">
+      <c r="C1008" s="1"/>
+    </row>
+    <row r="1009" spans="3:3">
+      <c r="C1009" s="1"/>
+    </row>
+    <row r="1010" spans="3:3">
+      <c r="C1010" s="1"/>
+    </row>
+    <row r="1011" spans="3:3">
+      <c r="C1011" s="1"/>
+    </row>
+    <row r="1012" spans="3:3">
+      <c r="C1012" s="1"/>
+    </row>
+    <row r="1013" spans="3:3">
+      <c r="C1013" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E726" r:id="rId1" xr:uid="{9803BF20-3FA7-294C-85CB-D3B689754350}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/public/webtoon-list.xlsx
+++ b/src/public/webtoon-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/T7/Repository/Webtoon-Moa/src/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758A27A7-918F-BE4A-A2A7-DC6E0E03EA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE1D861-0349-AB4E-A46A-75238F9DCC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" xr2:uid="{27B2FBE9-60ED-114E-A79F-6B760E1B2EB2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5558" uniqueCount="2608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5787" uniqueCount="2609">
   <si>
     <t>id</t>
   </si>
@@ -7860,6 +7860,10 @@
   </si>
   <si>
     <t>https://webtoon.kakao.com/content/바니와-오빠들/1781</t>
+  </si>
+  <si>
+    <t>img_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8259,8 +8263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288D9886-854C-CE4C-9662-F1FEE0402E1E}">
   <dimension ref="A1:I1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A716" workbookViewId="0">
+      <selection activeCell="K732" sqref="K732"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -29590,6 +29594,9 @@
       <c r="C736" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D736" t="s">
+        <v>2608</v>
+      </c>
       <c r="E736" t="s">
         <v>2561</v>
       </c>
@@ -29616,6 +29623,9 @@
       <c r="C737" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D737" t="s">
+        <v>2608</v>
+      </c>
       <c r="E737" t="s">
         <v>2563</v>
       </c>
@@ -29642,6 +29652,9 @@
       <c r="C738" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D738" t="s">
+        <v>2608</v>
+      </c>
       <c r="E738" t="s">
         <v>2565</v>
       </c>
@@ -29668,6 +29681,9 @@
       <c r="C739" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D739" t="s">
+        <v>2608</v>
+      </c>
       <c r="E739" t="s">
         <v>2567</v>
       </c>
@@ -29694,6 +29710,9 @@
       <c r="C740" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D740" t="s">
+        <v>2608</v>
+      </c>
       <c r="E740" t="s">
         <v>2568</v>
       </c>
@@ -29720,6 +29739,9 @@
       <c r="C741" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D741" t="s">
+        <v>2608</v>
+      </c>
       <c r="E741" t="s">
         <v>2569</v>
       </c>
@@ -29746,6 +29768,9 @@
       <c r="C742" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D742" t="s">
+        <v>2608</v>
+      </c>
       <c r="E742" t="s">
         <v>2571</v>
       </c>
@@ -29772,6 +29797,9 @@
       <c r="C743" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D743" t="s">
+        <v>2608</v>
+      </c>
       <c r="E743" t="s">
         <v>2573</v>
       </c>
@@ -29798,6 +29826,9 @@
       <c r="C744" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D744" t="s">
+        <v>2608</v>
+      </c>
       <c r="E744" t="s">
         <v>2575</v>
       </c>
@@ -29824,6 +29855,9 @@
       <c r="C745" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D745" t="s">
+        <v>2608</v>
+      </c>
       <c r="E745" t="s">
         <v>2577</v>
       </c>
@@ -29850,6 +29884,9 @@
       <c r="C746" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D746" t="s">
+        <v>2608</v>
+      </c>
       <c r="E746" t="s">
         <v>2579</v>
       </c>
@@ -29876,6 +29913,9 @@
       <c r="C747" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D747" t="s">
+        <v>2608</v>
+      </c>
       <c r="E747" t="s">
         <v>2581</v>
       </c>
@@ -29902,6 +29942,9 @@
       <c r="C748" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D748" t="s">
+        <v>2608</v>
+      </c>
       <c r="E748" t="s">
         <v>2583</v>
       </c>
@@ -29928,6 +29971,9 @@
       <c r="C749" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D749" t="s">
+        <v>2608</v>
+      </c>
       <c r="E749" t="s">
         <v>2585</v>
       </c>
@@ -29954,6 +30000,9 @@
       <c r="C750" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D750" t="s">
+        <v>2608</v>
+      </c>
       <c r="E750" t="s">
         <v>2587</v>
       </c>
@@ -29980,6 +30029,9 @@
       <c r="C751" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D751" t="s">
+        <v>2608</v>
+      </c>
       <c r="E751" t="s">
         <v>2589</v>
       </c>
@@ -30006,6 +30058,9 @@
       <c r="C752" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D752" t="s">
+        <v>2608</v>
+      </c>
       <c r="E752" t="s">
         <v>2590</v>
       </c>
@@ -30032,6 +30087,9 @@
       <c r="C753" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D753" t="s">
+        <v>2608</v>
+      </c>
       <c r="E753" t="s">
         <v>2592</v>
       </c>
@@ -30058,6 +30116,9 @@
       <c r="C754" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D754" t="s">
+        <v>2608</v>
+      </c>
       <c r="E754" t="s">
         <v>2594</v>
       </c>
@@ -30084,6 +30145,9 @@
       <c r="C755" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D755" t="s">
+        <v>2608</v>
+      </c>
       <c r="E755" t="s">
         <v>2596</v>
       </c>
@@ -30110,6 +30174,9 @@
       <c r="C756" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D756" t="s">
+        <v>2608</v>
+      </c>
       <c r="E756" t="s">
         <v>2598</v>
       </c>
@@ -30136,6 +30203,9 @@
       <c r="C757" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D757" t="s">
+        <v>2608</v>
+      </c>
       <c r="E757" t="s">
         <v>2600</v>
       </c>
@@ -30162,6 +30232,9 @@
       <c r="C758" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D758" t="s">
+        <v>2608</v>
+      </c>
       <c r="E758" t="s">
         <v>2602</v>
       </c>
@@ -30188,6 +30261,9 @@
       <c r="C759" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D759" t="s">
+        <v>2608</v>
+      </c>
       <c r="E759" t="s">
         <v>2604</v>
       </c>
@@ -30214,6 +30290,9 @@
       <c r="C760" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D760" t="s">
+        <v>2608</v>
+      </c>
       <c r="E760" t="s">
         <v>2606</v>
       </c>
@@ -30240,6 +30319,9 @@
       <c r="C761" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D761" t="s">
+        <v>2608</v>
+      </c>
       <c r="E761" t="s">
         <v>2607</v>
       </c>
@@ -30266,6 +30348,9 @@
       <c r="C762" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D762" t="s">
+        <v>2608</v>
+      </c>
       <c r="E762" t="s">
         <v>2536</v>
       </c>
@@ -30292,6 +30377,9 @@
       <c r="C763" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D763" t="s">
+        <v>2608</v>
+      </c>
       <c r="E763" t="s">
         <v>2539</v>
       </c>
@@ -30318,6 +30406,9 @@
       <c r="C764" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D764" t="s">
+        <v>2608</v>
+      </c>
       <c r="E764" t="s">
         <v>2542</v>
       </c>
@@ -30344,6 +30435,9 @@
       <c r="C765" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D765" t="s">
+        <v>2608</v>
+      </c>
       <c r="E765" t="s">
         <v>2545</v>
       </c>
@@ -30370,6 +30464,9 @@
       <c r="C766" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D766" t="s">
+        <v>2608</v>
+      </c>
       <c r="E766" t="s">
         <v>2548</v>
       </c>
@@ -30396,6 +30493,9 @@
       <c r="C767" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D767" t="s">
+        <v>2608</v>
+      </c>
       <c r="E767" t="s">
         <v>2551</v>
       </c>
@@ -30422,6 +30522,9 @@
       <c r="C768" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D768" t="s">
+        <v>2608</v>
+      </c>
       <c r="E768" t="s">
         <v>2554</v>
       </c>
@@ -30448,6 +30551,9 @@
       <c r="C769" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D769" t="s">
+        <v>2608</v>
+      </c>
       <c r="E769" t="s">
         <v>2556</v>
       </c>
@@ -30474,6 +30580,9 @@
       <c r="C770" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D770" t="s">
+        <v>2608</v>
+      </c>
       <c r="E770" t="s">
         <v>2559</v>
       </c>
@@ -30500,6 +30609,9 @@
       <c r="C771" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D771" t="s">
+        <v>2608</v>
+      </c>
       <c r="E771" t="s">
         <v>2561</v>
       </c>
@@ -30526,6 +30638,9 @@
       <c r="C772" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D772" t="s">
+        <v>2608</v>
+      </c>
       <c r="E772" t="s">
         <v>2563</v>
       </c>
@@ -30552,6 +30667,9 @@
       <c r="C773" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D773" t="s">
+        <v>2608</v>
+      </c>
       <c r="E773" t="s">
         <v>2565</v>
       </c>
@@ -30578,6 +30696,9 @@
       <c r="C774" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D774" t="s">
+        <v>2608</v>
+      </c>
       <c r="E774" t="s">
         <v>2567</v>
       </c>
@@ -30604,6 +30725,9 @@
       <c r="C775" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D775" t="s">
+        <v>2608</v>
+      </c>
       <c r="E775" t="s">
         <v>2568</v>
       </c>
@@ -30630,6 +30754,9 @@
       <c r="C776" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D776" t="s">
+        <v>2608</v>
+      </c>
       <c r="E776" t="s">
         <v>2569</v>
       </c>
@@ -30656,6 +30783,9 @@
       <c r="C777" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D777" t="s">
+        <v>2608</v>
+      </c>
       <c r="E777" t="s">
         <v>2571</v>
       </c>
@@ -30682,6 +30812,9 @@
       <c r="C778" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D778" t="s">
+        <v>2608</v>
+      </c>
       <c r="E778" t="s">
         <v>2573</v>
       </c>
@@ -30708,6 +30841,9 @@
       <c r="C779" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D779" t="s">
+        <v>2608</v>
+      </c>
       <c r="E779" t="s">
         <v>2575</v>
       </c>
@@ -30734,6 +30870,9 @@
       <c r="C780" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D780" t="s">
+        <v>2608</v>
+      </c>
       <c r="E780" t="s">
         <v>2577</v>
       </c>
@@ -30760,6 +30899,9 @@
       <c r="C781" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D781" t="s">
+        <v>2608</v>
+      </c>
       <c r="E781" t="s">
         <v>2579</v>
       </c>
@@ -30786,6 +30928,9 @@
       <c r="C782" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D782" t="s">
+        <v>2608</v>
+      </c>
       <c r="E782" t="s">
         <v>2581</v>
       </c>
@@ -30812,6 +30957,9 @@
       <c r="C783" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D783" t="s">
+        <v>2608</v>
+      </c>
       <c r="E783" t="s">
         <v>2583</v>
       </c>
@@ -30838,6 +30986,9 @@
       <c r="C784" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D784" t="s">
+        <v>2608</v>
+      </c>
       <c r="E784" t="s">
         <v>2585</v>
       </c>
@@ -30864,6 +31015,9 @@
       <c r="C785" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D785" t="s">
+        <v>2608</v>
+      </c>
       <c r="E785" t="s">
         <v>2587</v>
       </c>
@@ -30890,6 +31044,9 @@
       <c r="C786" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D786" t="s">
+        <v>2608</v>
+      </c>
       <c r="E786" t="s">
         <v>2589</v>
       </c>
@@ -30916,6 +31073,9 @@
       <c r="C787" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D787" t="s">
+        <v>2608</v>
+      </c>
       <c r="E787" t="s">
         <v>2590</v>
       </c>
@@ -30942,6 +31102,9 @@
       <c r="C788" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D788" t="s">
+        <v>2608</v>
+      </c>
       <c r="E788" t="s">
         <v>2594</v>
       </c>
@@ -30968,6 +31131,9 @@
       <c r="C789" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D789" t="s">
+        <v>2608</v>
+      </c>
       <c r="E789" t="s">
         <v>2596</v>
       </c>
@@ -30994,6 +31160,9 @@
       <c r="C790" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D790" t="s">
+        <v>2608</v>
+      </c>
       <c r="E790" t="s">
         <v>2598</v>
       </c>
@@ -31020,6 +31189,9 @@
       <c r="C791" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D791" t="s">
+        <v>2608</v>
+      </c>
       <c r="E791" t="s">
         <v>2600</v>
       </c>
@@ -31046,6 +31218,9 @@
       <c r="C792" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D792" t="s">
+        <v>2608</v>
+      </c>
       <c r="E792" t="s">
         <v>2602</v>
       </c>
@@ -31072,6 +31247,9 @@
       <c r="C793" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D793" t="s">
+        <v>2608</v>
+      </c>
       <c r="E793" t="s">
         <v>2604</v>
       </c>
@@ -31098,6 +31276,9 @@
       <c r="C794" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D794" t="s">
+        <v>2608</v>
+      </c>
       <c r="E794" t="s">
         <v>2606</v>
       </c>
@@ -31124,6 +31305,9 @@
       <c r="C795" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D795" t="s">
+        <v>2608</v>
+      </c>
       <c r="E795" t="s">
         <v>2607</v>
       </c>
@@ -31150,6 +31334,9 @@
       <c r="C796" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D796" t="s">
+        <v>2608</v>
+      </c>
       <c r="E796" t="s">
         <v>2536</v>
       </c>
@@ -31176,6 +31363,9 @@
       <c r="C797" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D797" t="s">
+        <v>2608</v>
+      </c>
       <c r="E797" t="s">
         <v>2539</v>
       </c>
@@ -31202,6 +31392,9 @@
       <c r="C798" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D798" t="s">
+        <v>2608</v>
+      </c>
       <c r="E798" t="s">
         <v>2542</v>
       </c>
@@ -31228,6 +31421,9 @@
       <c r="C799" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D799" t="s">
+        <v>2608</v>
+      </c>
       <c r="E799" t="s">
         <v>2545</v>
       </c>
@@ -31254,6 +31450,9 @@
       <c r="C800" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D800" t="s">
+        <v>2608</v>
+      </c>
       <c r="E800" t="s">
         <v>2548</v>
       </c>
@@ -31280,6 +31479,9 @@
       <c r="C801" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D801" t="s">
+        <v>2608</v>
+      </c>
       <c r="E801" t="s">
         <v>2551</v>
       </c>
@@ -31306,6 +31508,9 @@
       <c r="C802" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D802" t="s">
+        <v>2608</v>
+      </c>
       <c r="E802" t="s">
         <v>2554</v>
       </c>
@@ -31332,6 +31537,9 @@
       <c r="C803" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D803" t="s">
+        <v>2608</v>
+      </c>
       <c r="E803" t="s">
         <v>2556</v>
       </c>
@@ -31358,6 +31566,9 @@
       <c r="C804" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D804" t="s">
+        <v>2608</v>
+      </c>
       <c r="E804" t="s">
         <v>2559</v>
       </c>
@@ -31384,6 +31595,9 @@
       <c r="C805" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D805" t="s">
+        <v>2608</v>
+      </c>
       <c r="E805" t="s">
         <v>2561</v>
       </c>
@@ -31410,6 +31624,9 @@
       <c r="C806" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D806" t="s">
+        <v>2608</v>
+      </c>
       <c r="E806" t="s">
         <v>2563</v>
       </c>
@@ -31436,6 +31653,9 @@
       <c r="C807" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D807" t="s">
+        <v>2608</v>
+      </c>
       <c r="E807" t="s">
         <v>2565</v>
       </c>
@@ -31462,6 +31682,9 @@
       <c r="C808" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D808" t="s">
+        <v>2608</v>
+      </c>
       <c r="E808" t="s">
         <v>2567</v>
       </c>
@@ -31488,6 +31711,9 @@
       <c r="C809" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D809" t="s">
+        <v>2608</v>
+      </c>
       <c r="E809" t="s">
         <v>2568</v>
       </c>
@@ -31514,6 +31740,9 @@
       <c r="C810" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D810" t="s">
+        <v>2608</v>
+      </c>
       <c r="E810" t="s">
         <v>2569</v>
       </c>
@@ -31540,6 +31769,9 @@
       <c r="C811" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D811" t="s">
+        <v>2608</v>
+      </c>
       <c r="E811" t="s">
         <v>2571</v>
       </c>
@@ -31566,6 +31798,9 @@
       <c r="C812" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D812" t="s">
+        <v>2608</v>
+      </c>
       <c r="E812" t="s">
         <v>2573</v>
       </c>
@@ -31592,6 +31827,9 @@
       <c r="C813" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D813" t="s">
+        <v>2608</v>
+      </c>
       <c r="E813" t="s">
         <v>2575</v>
       </c>
@@ -31618,6 +31856,9 @@
       <c r="C814" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D814" t="s">
+        <v>2608</v>
+      </c>
       <c r="E814" t="s">
         <v>2577</v>
       </c>
@@ -31644,6 +31885,9 @@
       <c r="C815" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D815" t="s">
+        <v>2608</v>
+      </c>
       <c r="E815" t="s">
         <v>2579</v>
       </c>
@@ -31670,6 +31914,9 @@
       <c r="C816" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D816" t="s">
+        <v>2608</v>
+      </c>
       <c r="E816" t="s">
         <v>2581</v>
       </c>
@@ -31696,6 +31943,9 @@
       <c r="C817" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D817" t="s">
+        <v>2608</v>
+      </c>
       <c r="E817" t="s">
         <v>2583</v>
       </c>
@@ -31722,6 +31972,9 @@
       <c r="C818" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D818" t="s">
+        <v>2608</v>
+      </c>
       <c r="E818" t="s">
         <v>2585</v>
       </c>
@@ -31748,6 +32001,9 @@
       <c r="C819" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D819" t="s">
+        <v>2608</v>
+      </c>
       <c r="E819" t="s">
         <v>2587</v>
       </c>
@@ -31774,6 +32030,9 @@
       <c r="C820" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D820" t="s">
+        <v>2608</v>
+      </c>
       <c r="E820" t="s">
         <v>2589</v>
       </c>
@@ -31800,6 +32059,9 @@
       <c r="C821" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D821" t="s">
+        <v>2608</v>
+      </c>
       <c r="E821" t="s">
         <v>2590</v>
       </c>
@@ -31826,6 +32088,9 @@
       <c r="C822" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D822" t="s">
+        <v>2608</v>
+      </c>
       <c r="E822" t="s">
         <v>2594</v>
       </c>
@@ -31852,6 +32117,9 @@
       <c r="C823" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D823" t="s">
+        <v>2608</v>
+      </c>
       <c r="E823" t="s">
         <v>2596</v>
       </c>
@@ -31878,6 +32146,9 @@
       <c r="C824" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D824" t="s">
+        <v>2608</v>
+      </c>
       <c r="E824" t="s">
         <v>2598</v>
       </c>
@@ -31904,6 +32175,9 @@
       <c r="C825" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D825" t="s">
+        <v>2608</v>
+      </c>
       <c r="E825" t="s">
         <v>2600</v>
       </c>
@@ -31930,6 +32204,9 @@
       <c r="C826" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D826" t="s">
+        <v>2608</v>
+      </c>
       <c r="E826" t="s">
         <v>2602</v>
       </c>
@@ -31956,6 +32233,9 @@
       <c r="C827" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D827" t="s">
+        <v>2608</v>
+      </c>
       <c r="E827" t="s">
         <v>2604</v>
       </c>
@@ -31982,6 +32262,9 @@
       <c r="C828" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D828" t="s">
+        <v>2608</v>
+      </c>
       <c r="E828" t="s">
         <v>2606</v>
       </c>
@@ -32008,6 +32291,9 @@
       <c r="C829" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D829" t="s">
+        <v>2608</v>
+      </c>
       <c r="E829" t="s">
         <v>2607</v>
       </c>
@@ -32034,6 +32320,9 @@
       <c r="C830" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D830" t="s">
+        <v>2608</v>
+      </c>
       <c r="E830" t="s">
         <v>2536</v>
       </c>
@@ -32060,6 +32349,9 @@
       <c r="C831" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D831" t="s">
+        <v>2608</v>
+      </c>
       <c r="E831" t="s">
         <v>2539</v>
       </c>
@@ -32086,6 +32378,9 @@
       <c r="C832" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D832" t="s">
+        <v>2608</v>
+      </c>
       <c r="E832" t="s">
         <v>2542</v>
       </c>
@@ -32112,6 +32407,9 @@
       <c r="C833" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D833" t="s">
+        <v>2608</v>
+      </c>
       <c r="E833" t="s">
         <v>2545</v>
       </c>
@@ -32138,6 +32436,9 @@
       <c r="C834" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D834" t="s">
+        <v>2608</v>
+      </c>
       <c r="E834" t="s">
         <v>2548</v>
       </c>
@@ -32164,6 +32465,9 @@
       <c r="C835" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D835" t="s">
+        <v>2608</v>
+      </c>
       <c r="E835" t="s">
         <v>2551</v>
       </c>
@@ -32190,6 +32494,9 @@
       <c r="C836" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D836" t="s">
+        <v>2608</v>
+      </c>
       <c r="E836" t="s">
         <v>2554</v>
       </c>
@@ -32216,6 +32523,9 @@
       <c r="C837" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D837" t="s">
+        <v>2608</v>
+      </c>
       <c r="E837" t="s">
         <v>2556</v>
       </c>
@@ -32242,6 +32552,9 @@
       <c r="C838" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D838" t="s">
+        <v>2608</v>
+      </c>
       <c r="E838" t="s">
         <v>2559</v>
       </c>
@@ -32268,6 +32581,9 @@
       <c r="C839" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D839" t="s">
+        <v>2608</v>
+      </c>
       <c r="E839" t="s">
         <v>2561</v>
       </c>
@@ -32294,6 +32610,9 @@
       <c r="C840" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D840" t="s">
+        <v>2608</v>
+      </c>
       <c r="E840" t="s">
         <v>2563</v>
       </c>
@@ -32320,6 +32639,9 @@
       <c r="C841" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D841" t="s">
+        <v>2608</v>
+      </c>
       <c r="E841" t="s">
         <v>2565</v>
       </c>
@@ -32346,6 +32668,9 @@
       <c r="C842" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D842" t="s">
+        <v>2608</v>
+      </c>
       <c r="E842" t="s">
         <v>2567</v>
       </c>
@@ -32372,6 +32697,9 @@
       <c r="C843" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D843" t="s">
+        <v>2608</v>
+      </c>
       <c r="E843" t="s">
         <v>2568</v>
       </c>
@@ -32398,6 +32726,9 @@
       <c r="C844" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D844" t="s">
+        <v>2608</v>
+      </c>
       <c r="E844" t="s">
         <v>2569</v>
       </c>
@@ -32424,6 +32755,9 @@
       <c r="C845" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D845" t="s">
+        <v>2608</v>
+      </c>
       <c r="E845" t="s">
         <v>2571</v>
       </c>
@@ -32450,6 +32784,9 @@
       <c r="C846" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D846" t="s">
+        <v>2608</v>
+      </c>
       <c r="E846" t="s">
         <v>2573</v>
       </c>
@@ -32476,6 +32813,9 @@
       <c r="C847" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D847" t="s">
+        <v>2608</v>
+      </c>
       <c r="E847" t="s">
         <v>2575</v>
       </c>
@@ -32502,6 +32842,9 @@
       <c r="C848" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D848" t="s">
+        <v>2608</v>
+      </c>
       <c r="E848" t="s">
         <v>2577</v>
       </c>
@@ -32528,6 +32871,9 @@
       <c r="C849" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D849" t="s">
+        <v>2608</v>
+      </c>
       <c r="E849" t="s">
         <v>2579</v>
       </c>
@@ -32554,6 +32900,9 @@
       <c r="C850" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D850" t="s">
+        <v>2608</v>
+      </c>
       <c r="E850" t="s">
         <v>2581</v>
       </c>
@@ -32580,6 +32929,9 @@
       <c r="C851" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D851" t="s">
+        <v>2608</v>
+      </c>
       <c r="E851" t="s">
         <v>2583</v>
       </c>
@@ -32606,6 +32958,9 @@
       <c r="C852" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D852" t="s">
+        <v>2608</v>
+      </c>
       <c r="E852" t="s">
         <v>2585</v>
       </c>
@@ -32632,6 +32987,9 @@
       <c r="C853" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D853" t="s">
+        <v>2608</v>
+      </c>
       <c r="E853" t="s">
         <v>2587</v>
       </c>
@@ -32658,6 +33016,9 @@
       <c r="C854" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D854" t="s">
+        <v>2608</v>
+      </c>
       <c r="E854" t="s">
         <v>2589</v>
       </c>
@@ -32684,6 +33045,9 @@
       <c r="C855" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D855" t="s">
+        <v>2608</v>
+      </c>
       <c r="E855" t="s">
         <v>2590</v>
       </c>
@@ -32710,6 +33074,9 @@
       <c r="C856" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D856" t="s">
+        <v>2608</v>
+      </c>
       <c r="E856" t="s">
         <v>2594</v>
       </c>
@@ -32736,6 +33103,9 @@
       <c r="C857" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D857" t="s">
+        <v>2608</v>
+      </c>
       <c r="E857" t="s">
         <v>2596</v>
       </c>
@@ -32762,6 +33132,9 @@
       <c r="C858" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D858" t="s">
+        <v>2608</v>
+      </c>
       <c r="E858" t="s">
         <v>2598</v>
       </c>
@@ -32788,6 +33161,9 @@
       <c r="C859" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D859" t="s">
+        <v>2608</v>
+      </c>
       <c r="E859" t="s">
         <v>2600</v>
       </c>
@@ -32814,6 +33190,9 @@
       <c r="C860" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D860" t="s">
+        <v>2608</v>
+      </c>
       <c r="E860" t="s">
         <v>2602</v>
       </c>
@@ -32840,6 +33219,9 @@
       <c r="C861" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D861" t="s">
+        <v>2608</v>
+      </c>
       <c r="E861" t="s">
         <v>2604</v>
       </c>
@@ -32866,6 +33248,9 @@
       <c r="C862" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D862" t="s">
+        <v>2608</v>
+      </c>
       <c r="E862" t="s">
         <v>2606</v>
       </c>
@@ -32892,6 +33277,9 @@
       <c r="C863" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D863" t="s">
+        <v>2608</v>
+      </c>
       <c r="E863" t="s">
         <v>2607</v>
       </c>
@@ -32918,6 +33306,9 @@
       <c r="C864" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D864" t="s">
+        <v>2608</v>
+      </c>
       <c r="E864" t="s">
         <v>2536</v>
       </c>
@@ -32944,6 +33335,9 @@
       <c r="C865" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D865" t="s">
+        <v>2608</v>
+      </c>
       <c r="E865" t="s">
         <v>2539</v>
       </c>
@@ -32970,6 +33364,9 @@
       <c r="C866" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D866" t="s">
+        <v>2608</v>
+      </c>
       <c r="E866" t="s">
         <v>2542</v>
       </c>
@@ -32996,6 +33393,9 @@
       <c r="C867" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D867" t="s">
+        <v>2608</v>
+      </c>
       <c r="E867" t="s">
         <v>2545</v>
       </c>
@@ -33022,6 +33422,9 @@
       <c r="C868" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D868" t="s">
+        <v>2608</v>
+      </c>
       <c r="E868" t="s">
         <v>2548</v>
       </c>
@@ -33048,6 +33451,9 @@
       <c r="C869" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D869" t="s">
+        <v>2608</v>
+      </c>
       <c r="E869" t="s">
         <v>2551</v>
       </c>
@@ -33074,6 +33480,9 @@
       <c r="C870" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D870" t="s">
+        <v>2608</v>
+      </c>
       <c r="E870" t="s">
         <v>2554</v>
       </c>
@@ -33100,6 +33509,9 @@
       <c r="C871" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D871" t="s">
+        <v>2608</v>
+      </c>
       <c r="E871" t="s">
         <v>2556</v>
       </c>
@@ -33126,6 +33538,9 @@
       <c r="C872" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D872" t="s">
+        <v>2608</v>
+      </c>
       <c r="E872" t="s">
         <v>2559</v>
       </c>
@@ -33152,6 +33567,9 @@
       <c r="C873" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D873" t="s">
+        <v>2608</v>
+      </c>
       <c r="E873" t="s">
         <v>2561</v>
       </c>
@@ -33178,6 +33596,9 @@
       <c r="C874" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D874" t="s">
+        <v>2608</v>
+      </c>
       <c r="E874" t="s">
         <v>2563</v>
       </c>
@@ -33204,6 +33625,9 @@
       <c r="C875" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D875" t="s">
+        <v>2608</v>
+      </c>
       <c r="E875" t="s">
         <v>2565</v>
       </c>
@@ -33230,6 +33654,9 @@
       <c r="C876" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D876" t="s">
+        <v>2608</v>
+      </c>
       <c r="E876" t="s">
         <v>2567</v>
       </c>
@@ -33256,6 +33683,9 @@
       <c r="C877" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D877" t="s">
+        <v>2608</v>
+      </c>
       <c r="E877" t="s">
         <v>2568</v>
       </c>
@@ -33282,6 +33712,9 @@
       <c r="C878" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D878" t="s">
+        <v>2608</v>
+      </c>
       <c r="E878" t="s">
         <v>2569</v>
       </c>
@@ -33308,6 +33741,9 @@
       <c r="C879" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D879" t="s">
+        <v>2608</v>
+      </c>
       <c r="E879" t="s">
         <v>2571</v>
       </c>
@@ -33334,6 +33770,9 @@
       <c r="C880" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D880" t="s">
+        <v>2608</v>
+      </c>
       <c r="E880" t="s">
         <v>2573</v>
       </c>
@@ -33360,6 +33799,9 @@
       <c r="C881" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D881" t="s">
+        <v>2608</v>
+      </c>
       <c r="E881" t="s">
         <v>2575</v>
       </c>
@@ -33386,6 +33828,9 @@
       <c r="C882" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D882" t="s">
+        <v>2608</v>
+      </c>
       <c r="E882" t="s">
         <v>2577</v>
       </c>
@@ -33412,6 +33857,9 @@
       <c r="C883" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D883" t="s">
+        <v>2608</v>
+      </c>
       <c r="E883" t="s">
         <v>2579</v>
       </c>
@@ -33438,6 +33886,9 @@
       <c r="C884" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D884" t="s">
+        <v>2608</v>
+      </c>
       <c r="E884" t="s">
         <v>2581</v>
       </c>
@@ -33464,6 +33915,9 @@
       <c r="C885" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D885" t="s">
+        <v>2608</v>
+      </c>
       <c r="E885" t="s">
         <v>2583</v>
       </c>
@@ -33490,6 +33944,9 @@
       <c r="C886" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D886" t="s">
+        <v>2608</v>
+      </c>
       <c r="E886" t="s">
         <v>2585</v>
       </c>
@@ -33516,6 +33973,9 @@
       <c r="C887" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D887" t="s">
+        <v>2608</v>
+      </c>
       <c r="E887" t="s">
         <v>2587</v>
       </c>
@@ -33542,6 +34002,9 @@
       <c r="C888" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D888" t="s">
+        <v>2608</v>
+      </c>
       <c r="E888" t="s">
         <v>2589</v>
       </c>
@@ -33568,6 +34031,9 @@
       <c r="C889" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D889" t="s">
+        <v>2608</v>
+      </c>
       <c r="E889" t="s">
         <v>2590</v>
       </c>
@@ -33594,6 +34060,9 @@
       <c r="C890" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D890" t="s">
+        <v>2608</v>
+      </c>
       <c r="E890" t="s">
         <v>2594</v>
       </c>
@@ -33620,6 +34089,9 @@
       <c r="C891" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D891" t="s">
+        <v>2608</v>
+      </c>
       <c r="E891" t="s">
         <v>2596</v>
       </c>
@@ -33646,6 +34118,9 @@
       <c r="C892" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D892" t="s">
+        <v>2608</v>
+      </c>
       <c r="E892" t="s">
         <v>2598</v>
       </c>
@@ -33672,6 +34147,9 @@
       <c r="C893" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D893" t="s">
+        <v>2608</v>
+      </c>
       <c r="E893" t="s">
         <v>2600</v>
       </c>
@@ -33698,6 +34176,9 @@
       <c r="C894" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D894" t="s">
+        <v>2608</v>
+      </c>
       <c r="E894" t="s">
         <v>2602</v>
       </c>
@@ -33724,6 +34205,9 @@
       <c r="C895" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D895" t="s">
+        <v>2608</v>
+      </c>
       <c r="E895" t="s">
         <v>2604</v>
       </c>
@@ -33750,6 +34234,9 @@
       <c r="C896" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D896" t="s">
+        <v>2608</v>
+      </c>
       <c r="E896" t="s">
         <v>2606</v>
       </c>
@@ -33776,6 +34263,9 @@
       <c r="C897" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D897" t="s">
+        <v>2608</v>
+      </c>
       <c r="E897" t="s">
         <v>2607</v>
       </c>
@@ -33802,6 +34292,9 @@
       <c r="C898" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D898" t="s">
+        <v>2608</v>
+      </c>
       <c r="E898" t="s">
         <v>2536</v>
       </c>
@@ -33828,6 +34321,9 @@
       <c r="C899" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D899" t="s">
+        <v>2608</v>
+      </c>
       <c r="E899" t="s">
         <v>2539</v>
       </c>
@@ -33854,6 +34350,9 @@
       <c r="C900" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D900" t="s">
+        <v>2608</v>
+      </c>
       <c r="E900" t="s">
         <v>2542</v>
       </c>
@@ -33880,6 +34379,9 @@
       <c r="C901" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D901" t="s">
+        <v>2608</v>
+      </c>
       <c r="E901" t="s">
         <v>2545</v>
       </c>
@@ -33906,6 +34408,9 @@
       <c r="C902" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D902" t="s">
+        <v>2608</v>
+      </c>
       <c r="E902" t="s">
         <v>2548</v>
       </c>
@@ -33932,6 +34437,9 @@
       <c r="C903" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D903" t="s">
+        <v>2608</v>
+      </c>
       <c r="E903" t="s">
         <v>2551</v>
       </c>
@@ -33958,6 +34466,9 @@
       <c r="C904" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D904" t="s">
+        <v>2608</v>
+      </c>
       <c r="E904" t="s">
         <v>2554</v>
       </c>
@@ -33984,6 +34495,9 @@
       <c r="C905" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D905" t="s">
+        <v>2608</v>
+      </c>
       <c r="E905" t="s">
         <v>2556</v>
       </c>
@@ -34010,6 +34524,9 @@
       <c r="C906" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D906" t="s">
+        <v>2608</v>
+      </c>
       <c r="E906" t="s">
         <v>2559</v>
       </c>
@@ -34036,6 +34553,9 @@
       <c r="C907" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D907" t="s">
+        <v>2608</v>
+      </c>
       <c r="E907" t="s">
         <v>2561</v>
       </c>
@@ -34062,6 +34582,9 @@
       <c r="C908" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D908" t="s">
+        <v>2608</v>
+      </c>
       <c r="E908" t="s">
         <v>2563</v>
       </c>
@@ -34088,6 +34611,9 @@
       <c r="C909" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D909" t="s">
+        <v>2608</v>
+      </c>
       <c r="E909" t="s">
         <v>2565</v>
       </c>
@@ -34114,6 +34640,9 @@
       <c r="C910" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D910" t="s">
+        <v>2608</v>
+      </c>
       <c r="E910" t="s">
         <v>2567</v>
       </c>
@@ -34140,6 +34669,9 @@
       <c r="C911" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D911" t="s">
+        <v>2608</v>
+      </c>
       <c r="E911" t="s">
         <v>2568</v>
       </c>
@@ -34166,6 +34698,9 @@
       <c r="C912" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D912" t="s">
+        <v>2608</v>
+      </c>
       <c r="E912" t="s">
         <v>2569</v>
       </c>
@@ -34192,6 +34727,9 @@
       <c r="C913" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D913" t="s">
+        <v>2608</v>
+      </c>
       <c r="E913" t="s">
         <v>2571</v>
       </c>
@@ -34218,6 +34756,9 @@
       <c r="C914" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D914" t="s">
+        <v>2608</v>
+      </c>
       <c r="E914" t="s">
         <v>2573</v>
       </c>
@@ -34244,6 +34785,9 @@
       <c r="C915" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D915" t="s">
+        <v>2608</v>
+      </c>
       <c r="E915" t="s">
         <v>2575</v>
       </c>
@@ -34270,6 +34814,9 @@
       <c r="C916" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D916" t="s">
+        <v>2608</v>
+      </c>
       <c r="E916" t="s">
         <v>2577</v>
       </c>
@@ -34296,6 +34843,9 @@
       <c r="C917" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D917" t="s">
+        <v>2608</v>
+      </c>
       <c r="E917" t="s">
         <v>2579</v>
       </c>
@@ -34322,6 +34872,9 @@
       <c r="C918" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D918" t="s">
+        <v>2608</v>
+      </c>
       <c r="E918" t="s">
         <v>2581</v>
       </c>
@@ -34348,6 +34901,9 @@
       <c r="C919" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D919" t="s">
+        <v>2608</v>
+      </c>
       <c r="E919" t="s">
         <v>2583</v>
       </c>
@@ -34374,6 +34930,9 @@
       <c r="C920" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D920" t="s">
+        <v>2608</v>
+      </c>
       <c r="E920" t="s">
         <v>2585</v>
       </c>
@@ -34400,6 +34959,9 @@
       <c r="C921" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D921" t="s">
+        <v>2608</v>
+      </c>
       <c r="E921" t="s">
         <v>2587</v>
       </c>
@@ -34426,6 +34988,9 @@
       <c r="C922" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D922" t="s">
+        <v>2608</v>
+      </c>
       <c r="E922" t="s">
         <v>2589</v>
       </c>
@@ -34452,6 +35017,9 @@
       <c r="C923" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D923" t="s">
+        <v>2608</v>
+      </c>
       <c r="E923" t="s">
         <v>2590</v>
       </c>
@@ -34478,6 +35046,9 @@
       <c r="C924" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D924" t="s">
+        <v>2608</v>
+      </c>
       <c r="E924" t="s">
         <v>2594</v>
       </c>
@@ -34504,6 +35075,9 @@
       <c r="C925" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D925" t="s">
+        <v>2608</v>
+      </c>
       <c r="E925" t="s">
         <v>2596</v>
       </c>
@@ -34530,6 +35104,9 @@
       <c r="C926" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D926" t="s">
+        <v>2608</v>
+      </c>
       <c r="E926" t="s">
         <v>2598</v>
       </c>
@@ -34556,6 +35133,9 @@
       <c r="C927" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D927" t="s">
+        <v>2608</v>
+      </c>
       <c r="E927" t="s">
         <v>2600</v>
       </c>
@@ -34582,6 +35162,9 @@
       <c r="C928" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D928" t="s">
+        <v>2608</v>
+      </c>
       <c r="E928" t="s">
         <v>2602</v>
       </c>
@@ -34608,6 +35191,9 @@
       <c r="C929" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D929" t="s">
+        <v>2608</v>
+      </c>
       <c r="E929" t="s">
         <v>2604</v>
       </c>
@@ -34634,6 +35220,9 @@
       <c r="C930" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D930" t="s">
+        <v>2608</v>
+      </c>
       <c r="E930" t="s">
         <v>2606</v>
       </c>
@@ -34660,6 +35249,9 @@
       <c r="C931" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D931" t="s">
+        <v>2608</v>
+      </c>
       <c r="E931" t="s">
         <v>2607</v>
       </c>
@@ -34686,6 +35278,9 @@
       <c r="C932" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D932" t="s">
+        <v>2608</v>
+      </c>
       <c r="E932" t="s">
         <v>2536</v>
       </c>
@@ -34712,6 +35307,9 @@
       <c r="C933" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D933" t="s">
+        <v>2608</v>
+      </c>
       <c r="E933" t="s">
         <v>2539</v>
       </c>
@@ -34738,6 +35336,9 @@
       <c r="C934" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D934" t="s">
+        <v>2608</v>
+      </c>
       <c r="E934" t="s">
         <v>2542</v>
       </c>
@@ -34764,6 +35365,9 @@
       <c r="C935" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D935" t="s">
+        <v>2608</v>
+      </c>
       <c r="E935" t="s">
         <v>2545</v>
       </c>
@@ -34790,6 +35394,9 @@
       <c r="C936" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D936" t="s">
+        <v>2608</v>
+      </c>
       <c r="E936" t="s">
         <v>2548</v>
       </c>
@@ -34816,6 +35423,9 @@
       <c r="C937" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D937" t="s">
+        <v>2608</v>
+      </c>
       <c r="E937" t="s">
         <v>2551</v>
       </c>
@@ -34842,6 +35452,9 @@
       <c r="C938" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D938" t="s">
+        <v>2608</v>
+      </c>
       <c r="E938" t="s">
         <v>2554</v>
       </c>
@@ -34868,6 +35481,9 @@
       <c r="C939" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D939" t="s">
+        <v>2608</v>
+      </c>
       <c r="E939" t="s">
         <v>2556</v>
       </c>
@@ -34894,6 +35510,9 @@
       <c r="C940" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D940" t="s">
+        <v>2608</v>
+      </c>
       <c r="E940" t="s">
         <v>2559</v>
       </c>
@@ -34920,6 +35539,9 @@
       <c r="C941" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D941" t="s">
+        <v>2608</v>
+      </c>
       <c r="E941" t="s">
         <v>2561</v>
       </c>
@@ -34946,6 +35568,9 @@
       <c r="C942" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D942" t="s">
+        <v>2608</v>
+      </c>
       <c r="E942" t="s">
         <v>2563</v>
       </c>
@@ -34972,6 +35597,9 @@
       <c r="C943" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D943" t="s">
+        <v>2608</v>
+      </c>
       <c r="E943" t="s">
         <v>2565</v>
       </c>
@@ -34998,6 +35626,9 @@
       <c r="C944" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D944" t="s">
+        <v>2608</v>
+      </c>
       <c r="E944" t="s">
         <v>2567</v>
       </c>
@@ -35024,6 +35655,9 @@
       <c r="C945" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D945" t="s">
+        <v>2608</v>
+      </c>
       <c r="E945" t="s">
         <v>2568</v>
       </c>
@@ -35050,6 +35684,9 @@
       <c r="C946" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D946" t="s">
+        <v>2608</v>
+      </c>
       <c r="E946" t="s">
         <v>2569</v>
       </c>
@@ -35076,6 +35713,9 @@
       <c r="C947" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D947" t="s">
+        <v>2608</v>
+      </c>
       <c r="E947" t="s">
         <v>2571</v>
       </c>
@@ -35102,6 +35742,9 @@
       <c r="C948" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D948" t="s">
+        <v>2608</v>
+      </c>
       <c r="E948" t="s">
         <v>2573</v>
       </c>
@@ -35128,6 +35771,9 @@
       <c r="C949" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D949" t="s">
+        <v>2608</v>
+      </c>
       <c r="E949" t="s">
         <v>2575</v>
       </c>
@@ -35154,6 +35800,9 @@
       <c r="C950" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D950" t="s">
+        <v>2608</v>
+      </c>
       <c r="E950" t="s">
         <v>2577</v>
       </c>
@@ -35180,6 +35829,9 @@
       <c r="C951" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D951" t="s">
+        <v>2608</v>
+      </c>
       <c r="E951" t="s">
         <v>2579</v>
       </c>
@@ -35206,6 +35858,9 @@
       <c r="C952" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D952" t="s">
+        <v>2608</v>
+      </c>
       <c r="E952" t="s">
         <v>2581</v>
       </c>
@@ -35232,6 +35887,9 @@
       <c r="C953" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D953" t="s">
+        <v>2608</v>
+      </c>
       <c r="E953" t="s">
         <v>2583</v>
       </c>
@@ -35258,6 +35916,9 @@
       <c r="C954" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D954" t="s">
+        <v>2608</v>
+      </c>
       <c r="E954" t="s">
         <v>2585</v>
       </c>
@@ -35284,6 +35945,9 @@
       <c r="C955" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D955" t="s">
+        <v>2608</v>
+      </c>
       <c r="E955" t="s">
         <v>2587</v>
       </c>
@@ -35310,6 +35974,9 @@
       <c r="C956" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D956" t="s">
+        <v>2608</v>
+      </c>
       <c r="E956" t="s">
         <v>2589</v>
       </c>
@@ -35336,6 +36003,9 @@
       <c r="C957" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D957" t="s">
+        <v>2608</v>
+      </c>
       <c r="E957" t="s">
         <v>2590</v>
       </c>
@@ -35362,6 +36032,9 @@
       <c r="C958" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D958" t="s">
+        <v>2608</v>
+      </c>
       <c r="E958" t="s">
         <v>2594</v>
       </c>
@@ -35388,6 +36061,9 @@
       <c r="C959" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D959" t="s">
+        <v>2608</v>
+      </c>
       <c r="E959" t="s">
         <v>2596</v>
       </c>
@@ -35414,6 +36090,9 @@
       <c r="C960" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D960" t="s">
+        <v>2608</v>
+      </c>
       <c r="E960" t="s">
         <v>2598</v>
       </c>
@@ -35440,6 +36119,9 @@
       <c r="C961" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D961" t="s">
+        <v>2608</v>
+      </c>
       <c r="E961" t="s">
         <v>2600</v>
       </c>
@@ -35466,6 +36148,9 @@
       <c r="C962" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D962" t="s">
+        <v>2608</v>
+      </c>
       <c r="E962" t="s">
         <v>2602</v>
       </c>
@@ -35492,6 +36177,9 @@
       <c r="C963" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D963" t="s">
+        <v>2608</v>
+      </c>
       <c r="E963" t="s">
         <v>2604</v>
       </c>
@@ -35517,6 +36205,9 @@
       </c>
       <c r="C964" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D964" t="s">
+        <v>2608</v>
       </c>
       <c r="E964" t="s">
         <v>2606</v>

--- a/src/public/webtoon-list.xlsx
+++ b/src/public/webtoon-list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/T7/Repository/Webtoon-Moa/src/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE1D861-0349-AB4E-A46A-75238F9DCC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623129BE-6856-404D-924B-AF8621AB69CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" xr2:uid="{27B2FBE9-60ED-114E-A79F-6B760E1B2EB2}"/>
+    <workbookView xWindow="-51200" yWindow="-3100" windowWidth="25600" windowHeight="19520" xr2:uid="{27B2FBE9-60ED-114E-A79F-6B760E1B2EB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5787" uniqueCount="2609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5738" uniqueCount="2970">
   <si>
     <t>id</t>
   </si>
@@ -7633,10 +7633,6 @@
     <t>https://kr-a.kakaopagecdn.com/P/C/1781/c2/2x/70170577-d321-4c16-aca9-000c9dc07b50.png</t>
   </si>
   <si>
-    <t>https://webtoon.kakao.com/content/바니와-오빠들/1781</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>kakaowebtoon</t>
   </si>
   <si>
@@ -7788,12 +7784,6 @@
   </si>
   <si>
     <t>https://webtoon.kakao.com/content/천인의-신부/2423</t>
-  </si>
-  <si>
-    <t>월요일이 사라졌다</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/월요일이-사라졌다/2929</t>
   </si>
   <si>
     <t>취접냉월</t>
@@ -7864,13 +7854,1106 @@
   <si>
     <t>img_url</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관계지침</t>
+  </si>
+  <si>
+    <t>아비무쌍</t>
+  </si>
+  <si>
+    <t>비밀 사이</t>
+  </si>
+  <si>
+    <t>화폐개혁</t>
+  </si>
+  <si>
+    <t>사랑하는 존재</t>
+  </si>
+  <si>
+    <t>너를 만나다</t>
+  </si>
+  <si>
+    <t>우리집이거든요!</t>
+  </si>
+  <si>
+    <t>트레이스</t>
+  </si>
+  <si>
+    <t>기프트</t>
+  </si>
+  <si>
+    <t>골드핸즈</t>
+  </si>
+  <si>
+    <t>용궁에서 온 손님</t>
+  </si>
+  <si>
+    <t>싸움귀</t>
+  </si>
+  <si>
+    <t>여름엔 비</t>
+  </si>
+  <si>
+    <t>불멸의 투귀</t>
+  </si>
+  <si>
+    <t>트리거</t>
+  </si>
+  <si>
+    <t>개목걸이</t>
+  </si>
+  <si>
+    <t>엑스텐</t>
+  </si>
+  <si>
+    <t>하드오피스</t>
+  </si>
+  <si>
+    <t>타락도시</t>
+  </si>
+  <si>
+    <t>우주를 삼킨 별</t>
+  </si>
+  <si>
+    <t>홈런의 공식</t>
+  </si>
+  <si>
+    <t>환상의 아이들</t>
+  </si>
+  <si>
+    <t>팬더댄스</t>
+  </si>
+  <si>
+    <t>집으로 돌려보내 주세요</t>
+  </si>
+  <si>
+    <t>네 곁에도 어쩌면</t>
+  </si>
+  <si>
+    <t>대선비쇼에 어서오세요!</t>
+  </si>
+  <si>
+    <t>단두 (斷頭)</t>
+  </si>
+  <si>
+    <t>신랑이 사라졌다</t>
+  </si>
+  <si>
+    <t>가어도</t>
+  </si>
+  <si>
+    <t>딩스뚱스</t>
+  </si>
+  <si>
+    <t>바다의 그림자</t>
+  </si>
+  <si>
+    <t>그녀의 앵무새</t>
+  </si>
+  <si>
+    <t>닥터 파인의 하루</t>
+  </si>
+  <si>
+    <t>2D 남친과 엔딩을 보는 법</t>
+  </si>
+  <si>
+    <t>수린당 -비늘 고치는 집-</t>
+  </si>
+  <si>
+    <t>천광명월</t>
+  </si>
+  <si>
+    <t>옆집 이방인</t>
+  </si>
+  <si>
+    <t>교환 남녀</t>
+  </si>
+  <si>
+    <t>안녕은하세요</t>
+  </si>
+  <si>
+    <t>도토리 문화센터</t>
+  </si>
+  <si>
+    <t>후크</t>
+  </si>
+  <si>
+    <t>곤</t>
+  </si>
+  <si>
+    <t>블랙 베히모스</t>
+  </si>
+  <si>
+    <t>금수친구들</t>
+  </si>
+  <si>
+    <t>아씨의 법정</t>
+  </si>
+  <si>
+    <t>버니 로즈</t>
+  </si>
+  <si>
+    <t>구원</t>
+  </si>
+  <si>
+    <t>지금부터 속편이 시작됩니다</t>
+  </si>
+  <si>
+    <t>악녀의 데뷔작</t>
+  </si>
+  <si>
+    <t>배신 주의 로맨스</t>
+  </si>
+  <si>
+    <t>뉴비 매니지먼트</t>
+  </si>
+  <si>
+    <t>동솔동 아이들</t>
+  </si>
+  <si>
+    <t>4명 중 1명은 죽는다</t>
+  </si>
+  <si>
+    <t>오적도</t>
+  </si>
+  <si>
+    <t>죽어도! 치우</t>
+  </si>
+  <si>
+    <t>나에게 온 달</t>
+  </si>
+  <si>
+    <t>뇌명의 하라</t>
+  </si>
+  <si>
+    <t>저승사자 온라인</t>
+  </si>
+  <si>
+    <t>이 소원은 취소</t>
+  </si>
+  <si>
+    <t>보지 마, 안 괜찮아, 불법이야!</t>
+  </si>
+  <si>
+    <t>유부녀 킬러</t>
+  </si>
+  <si>
+    <t>방구석 여포</t>
+  </si>
+  <si>
+    <t>칼집의 아이</t>
+  </si>
+  <si>
+    <t>러브샷</t>
+  </si>
+  <si>
+    <t>우리가 사랑하는 방법</t>
+  </si>
+  <si>
+    <t>남주와 그리는 로맨스</t>
+  </si>
+  <si>
+    <t>최강왕따</t>
+  </si>
+  <si>
+    <t>길동</t>
+  </si>
+  <si>
+    <t>관존 이강진</t>
+  </si>
+  <si>
+    <t>프레너미</t>
+  </si>
+  <si>
+    <t>매화꽃그늘</t>
+  </si>
+  <si>
+    <t>시간이 머문 집</t>
+  </si>
+  <si>
+    <t>재벌과의 인터뷰</t>
+  </si>
+  <si>
+    <t>살어리랏다</t>
+  </si>
+  <si>
+    <t>아오링 도쿄</t>
+  </si>
+  <si>
+    <t>우리 동네 삐-</t>
+  </si>
+  <si>
+    <t>내가 죄인이오</t>
+  </si>
+  <si>
+    <t>초상화</t>
+  </si>
+  <si>
+    <t>모텔 오아시스</t>
+  </si>
+  <si>
+    <t>당신과는 절대</t>
+  </si>
+  <si>
+    <t>나를 지켜줘</t>
+  </si>
+  <si>
+    <t>어쩌다 햄스터</t>
+  </si>
+  <si>
+    <t>눈이 나려 꽃</t>
+  </si>
+  <si>
+    <t>오! 나의 퀸</t>
+  </si>
+  <si>
+    <t>쑥</t>
+  </si>
+  <si>
+    <t>청소하는 대학동기</t>
+  </si>
+  <si>
+    <t>죽고 싶지만 떡볶이는 먹고 싶어</t>
+  </si>
+  <si>
+    <t>그리고 소녀가 검을 든다</t>
+  </si>
+  <si>
+    <t>업데이터</t>
+  </si>
+  <si>
+    <t>샤먼 트리트먼트</t>
+  </si>
+  <si>
+    <t>용병학교</t>
+  </si>
+  <si>
+    <t>Dr.브레인</t>
+  </si>
+  <si>
+    <t>사람이라호</t>
+  </si>
+  <si>
+    <t>도깨비언덕에 왜 왔니?</t>
+  </si>
+  <si>
+    <t>26번째 살인</t>
+  </si>
+  <si>
+    <t>24분의 1 로맨스</t>
+  </si>
+  <si>
+    <t>뽀짜툰</t>
+  </si>
+  <si>
+    <t>백로식당</t>
+  </si>
+  <si>
+    <t>늑대 대공의 반려인간</t>
+  </si>
+  <si>
+    <t>백의사자</t>
+  </si>
+  <si>
+    <t>이염移染</t>
+  </si>
+  <si>
+    <t>내게 볕이 닿지 않아도</t>
+  </si>
+  <si>
+    <t>바리공주</t>
+  </si>
+  <si>
+    <t>퀴퀴한 일기</t>
+  </si>
+  <si>
+    <t>열무와 알타리</t>
+  </si>
+  <si>
+    <t>적당한 온도</t>
+  </si>
+  <si>
+    <t>양아치의 스피치</t>
+  </si>
+  <si>
+    <t>더 챌린저</t>
+  </si>
+  <si>
+    <t>우리가 헤어진 사이에</t>
+  </si>
+  <si>
+    <t>우리 청춘의 사랑은</t>
+  </si>
+  <si>
+    <t>김탐정 사용설명서</t>
+  </si>
+  <si>
+    <t>키몽의 호구로운 생활</t>
+  </si>
+  <si>
+    <t>고스트 터미널</t>
+  </si>
+  <si>
+    <t>닭은 의외로 위대하다</t>
+  </si>
+  <si>
+    <t>로엘린은 미래를 걷는다</t>
+  </si>
+  <si>
+    <t>귀의하나이다</t>
+  </si>
+  <si>
+    <t>네가 죽은 세계의 나</t>
+  </si>
+  <si>
+    <t>파륜아이</t>
+  </si>
+  <si>
+    <t>금강야차</t>
+  </si>
+  <si>
+    <t>취향의 문제</t>
+  </si>
+  <si>
+    <t>케어시트</t>
+  </si>
+  <si>
+    <t>최경민 단편집</t>
+  </si>
+  <si>
+    <t>미스터리 록앤 시트러스</t>
+  </si>
+  <si>
+    <t>천 개의 달이 뜨면</t>
+  </si>
+  <si>
+    <t>드라코런</t>
+  </si>
+  <si>
+    <t>봄을 그린 화원</t>
+  </si>
+  <si>
+    <t>이별로 와요</t>
+  </si>
+  <si>
+    <t>크레센도</t>
+  </si>
+  <si>
+    <t>미완결</t>
+  </si>
+  <si>
+    <t>너를 죽이는 방법</t>
+  </si>
+  <si>
+    <t>통 속의 브레인</t>
+  </si>
+  <si>
+    <t>그때 우리가 조아한</t>
+  </si>
+  <si>
+    <t>백작가의 불청객들</t>
+  </si>
+  <si>
+    <t>허약선생</t>
+  </si>
+  <si>
+    <t>이토록 보통의</t>
+  </si>
+  <si>
+    <t>후궁공략</t>
+  </si>
+  <si>
+    <t>귀싸대기</t>
+  </si>
+  <si>
+    <t>반지하셋방</t>
+  </si>
+  <si>
+    <t>왕관 없는 여왕</t>
+  </si>
+  <si>
+    <t>며느라기</t>
+  </si>
+  <si>
+    <t>랑데부</t>
+  </si>
+  <si>
+    <t>이봐요, 아기 공작님 누나만 믿어!</t>
+  </si>
+  <si>
+    <t>샤크</t>
+  </si>
+  <si>
+    <t>한따까리</t>
+  </si>
+  <si>
+    <t>이렇게 바보일리 없어</t>
+  </si>
+  <si>
+    <t>풍검</t>
+  </si>
+  <si>
+    <t>레드라인</t>
+  </si>
+  <si>
+    <t>극락왕생</t>
+  </si>
+  <si>
+    <t>선택은 하나</t>
+  </si>
+  <si>
+    <t>번아웃쇼크</t>
+  </si>
+  <si>
+    <t>부기영화</t>
+  </si>
+  <si>
+    <t>나의 추락이 찬란하도록</t>
+  </si>
+  <si>
+    <t>순정 히포크라테스</t>
+  </si>
+  <si>
+    <t>우리반 숙경이</t>
+  </si>
+  <si>
+    <t>별똥별이 떨어지는 그 곳에서 기다려</t>
+  </si>
+  <si>
+    <t>샤먼</t>
+  </si>
+  <si>
+    <t>만년 소녀</t>
+  </si>
+  <si>
+    <t>슬프게도 이게 내 인생</t>
+  </si>
+  <si>
+    <t>하렘생존기</t>
+  </si>
+  <si>
+    <t>배고픈 킬러</t>
+  </si>
+  <si>
+    <t>계시록</t>
+  </si>
+  <si>
+    <t>퍼펙트 마인</t>
+  </si>
+  <si>
+    <t>그 아해</t>
+  </si>
+  <si>
+    <t>사랑의 순간</t>
+  </si>
+  <si>
+    <t>효정의 발화점</t>
+  </si>
+  <si>
+    <t>이상징후</t>
+  </si>
+  <si>
+    <t>계단</t>
+  </si>
+  <si>
+    <t>간지몬스터</t>
+  </si>
+  <si>
+    <t>D-30</t>
+  </si>
+  <si>
+    <t>복원가의 집</t>
+  </si>
+  <si>
+    <t>남산도서관 환생 북클럽</t>
+  </si>
+  <si>
+    <t>주문을 말해, 로즈!</t>
+  </si>
+  <si>
+    <t>미래의 사진</t>
+  </si>
+  <si>
+    <t>짝과 적</t>
+  </si>
+  <si>
+    <t>질투유발자들</t>
+  </si>
+  <si>
+    <t>내일도 출근!</t>
+  </si>
+  <si>
+    <t>언데드킹</t>
+  </si>
+  <si>
+    <t>크라우드</t>
+  </si>
+  <si>
+    <t>백의조각</t>
+  </si>
+  <si>
+    <t>무법대학</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/관계지침/2924</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/아비무쌍/1395</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/비밀-사이/1943</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/화폐개혁/1877</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/사랑하는-존재/1998</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/너를-만나다/1891</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/우리집이거든요/1673</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/트레이스/1047</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/기프트/2140</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/골드핸즈/2117</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/용궁에서-온-손님/2908</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/싸움귀/2849</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/여름엔-비/2868</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/불멸의-투귀/2796</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/트리거/2364</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/개목걸이/2046</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/엑스텐/2599</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/하드오피스/2623</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/타락도시/2915</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/106/2837</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/우주를-삼킨-별/2516</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/홈런의-공식/2794</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/환상의-아이들/2144</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/팬더댄스/93</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/집으로-돌려보내-주세요/2774</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/네-곁에도-어쩌면/2544</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/대선비쇼에-어서오세요/2017</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/단두-斷頭/1825</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/신랑이-사라졌다/2034</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/가어도/2773</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/딩스뚱스/760</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/바다의-그림자/2560</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/그녀의-앵무새/1863</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/닥터-파인의-하루/1827</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/2D-남친과-엔딩을-보는-법/2921</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/수린당-비늘-고치는-집/2074</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/천광명월/2153</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/옆집-이방인/2601</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/교환-남녀/2764</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/안녕은하세요/2819</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/도토리-문화센터/2557</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/후크/1381</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/곤/2843</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/블랙-베히모스/792</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/금수친구들/1909</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/아씨의-법정/2897</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/버니-로즈/2842</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/구원/2130</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/지금부터-속편이-시작됩니다/2856</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/악녀의-데뷔작/2588</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/배신-주의-로맨스/2889</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/뉴비-매니지먼트/2869</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/동솔동-아이들/2687</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/4명-중-1명은-죽는다/2815</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/오적도/2733</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/죽어도-치우/1923</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/나에게-온-달/2639</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/뇌명의-하라/2836</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/저승사자-온라인/2022</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/이-소원은-취소/2696</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/보지-마-안-괜찮아-불법이야/2820</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/유부녀-킬러/1963</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/방구석-여포/2118</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/칼집의-아이/2368</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/러브샷/2759</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/우리가-사랑하는-방법/1468</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/남주와-그리는-로맨스/2741</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/최강왕따/2942</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/길동/2934</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/관존-이강진/2155</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/프레너미/1361</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/매화꽃그늘/2789</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/징크스의-연인/1339</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/시간이-머문-집/2020</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/재벌과의-인터뷰/1861</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/살어리랏다/1939</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/아오링-도쿄/2720</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/우리-동네-삐-/2681</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/내가-죄인이오/2691</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/초상화/1456</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/모텔-오아시스/2597</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/당신과는-절대/2831</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/나를-지켜줘/2100</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/어쩌다-햄스터/2724</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/눈이-나려-꽃/2631</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/오-나의-퀸/2750</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/쑥/2119</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/청소하는-대학동기/2919</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/죽고-싶지만-떡볶이는-먹고-싶어/2792</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/그리고-소녀가-검을-든다/2874</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/업데이터/2742</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/샤먼-트리트먼트/1743</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/용병학교/2875</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/Dr.브레인/1315</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/사람이라호/2814</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/도깨비언덕에-왜-왔니/982</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/26번째-살인/2510</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/24분의-1-로맨스/2650</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/뽀짜툰/933</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/백로식당/2075</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/늑대-대공의-반려인간/2778</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/백의사자/2042</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/이염移染/2938</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/내게-볕이-닿지-않아도/2928</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/바리공주/1405</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/퀴퀴한-일기/1295</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/열무와-알타리/1855</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/적당한-온도/2112</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/양아치의-스피치/2788</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/더-챌린저/2536</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/우리가-헤어진-사이에/2004</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/우리-청춘의-사랑은/2600</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/김탐정-사용설명서/1298</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/키몽의-호구로운-생활/1577</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/고스트-터미널/2898</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/닭은-의외로-위대하다/1816</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/로엘린은-미래를-걷는다/2522</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/귀의하나이다/2712</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/네가-죽은-세계의-나/2920</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/파륜아이/1999</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/금강야차/2936</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/취향의-문제/2781</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/케어시트/2559</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/최경민-단편집/2882</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/미스터리-록앤-시트러스/2808</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/천-개의-달이-뜨면/2643</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/드라코런/2595</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/봄을-그린-화원/2855</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/이별로-와요/2887</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/크레센도/2097</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/미완결/1882</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/너를-죽이는-방법/2663</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/통-속의-브레인/2775</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/그때-우리가-조아한/2690</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/백작가의-불청객들/2141</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/허약선생/2080</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/이토록-보통의/1351</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/후궁공략/1986</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/귀싸대기/2626</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/반지하셋방/1347</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/왕관-없는-여왕/2753</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/며느라기/2714</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/랑데부/1836</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/이봐요-아기-공작님-누나만-믿어/2878</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/샤크/2308</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/한따까리/2806</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/이렇게-바보일리-없어/2534</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/풍검/1545</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/레드라인/2614</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/극락왕생/2680</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/선택은-하나/2131</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/번아웃쇼크/2743</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/부기영화/2343</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/나의-추락이-찬란하도록/2726</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/순정-히포크라테스/1689</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/우리반-숙경이/2068</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/별똥별이-떨어지는-그-곳에서-기다려/1531</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/샤먼/2703</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/만년-소녀/2777</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/슬프게도-이게-내-인생/1575</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/하렘생존기/1776</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/배고픈-킬러/2707</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/계시록/2838</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/퍼펙트-마인/2015</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/그-아해/2133</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/사랑의-순간/2744</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/효정의-발화점/2793</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/이상징후/2154</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/계단/2713</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/간지몬스터/2619</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/D-30/2722</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/복원가의-집/2611</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/남산도서관-환생-북클럽/2835</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/주문을-말해-로즈/2749</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/미래의-사진/1982</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/짝과-적/2756</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/질투유발자들/2024</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/내일도-출근/1873</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/언데드킹/2300</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/크라우드/2029</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/백의조각/2150</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/무법대학/2517</t>
+  </si>
+  <si>
+    <t>1이 사라졌다</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/1이-사라졌다/2929</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7901,13 +8984,6 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="돋움"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7934,16 +9010,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8263,8 +9336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288D9886-854C-CE4C-9662-F1FEE0402E1E}">
   <dimension ref="A1:I1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A716" workbookViewId="0">
-      <selection activeCell="K732" sqref="K732"/>
+    <sheetView tabSelected="1" topLeftCell="A925" workbookViewId="0">
+      <selection activeCell="J955" sqref="J955"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -29307,16 +30380,16 @@
       <c r="D726" t="s">
         <v>2531</v>
       </c>
-      <c r="E726" s="3" t="s">
+      <c r="E726" t="s">
+        <v>2604</v>
+      </c>
+      <c r="F726" t="s">
         <v>2532</v>
       </c>
-      <c r="F726" t="s">
-        <v>2533</v>
-      </c>
       <c r="G726" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H726" s="4">
+      <c r="H726">
         <v>1</v>
       </c>
       <c r="I726" s="1">
@@ -29328,19 +30401,19 @@
         <v>2043</v>
       </c>
       <c r="B727" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C727" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D727" t="s">
         <v>2534</v>
       </c>
-      <c r="C727" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D727" t="s">
+      <c r="E727" t="s">
         <v>2535</v>
       </c>
-      <c r="E727" t="s">
-        <v>2536</v>
-      </c>
       <c r="F727" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G727" s="1" t="s">
         <v>6</v>
@@ -29357,19 +30430,19 @@
         <v>1959</v>
       </c>
       <c r="B728" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C728" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D728" t="s">
         <v>2537</v>
       </c>
-      <c r="C728" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D728" t="s">
+      <c r="E728" t="s">
         <v>2538</v>
       </c>
-      <c r="E728" t="s">
-        <v>2539</v>
-      </c>
       <c r="F728" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G728" s="1" t="s">
         <v>6</v>
@@ -29386,19 +30459,19 @@
         <v>2589</v>
       </c>
       <c r="B729" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C729" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D729" t="s">
         <v>2540</v>
       </c>
-      <c r="C729" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D729" t="s">
+      <c r="E729" t="s">
         <v>2541</v>
       </c>
-      <c r="E729" t="s">
-        <v>2542</v>
-      </c>
       <c r="F729" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G729" s="1" t="s">
         <v>6</v>
@@ -29415,19 +30488,19 @@
         <v>2715</v>
       </c>
       <c r="B730" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C730" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D730" t="s">
         <v>2543</v>
       </c>
-      <c r="C730" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D730" t="s">
+      <c r="E730" t="s">
         <v>2544</v>
       </c>
-      <c r="E730" t="s">
-        <v>2545</v>
-      </c>
       <c r="F730" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G730" s="1" t="s">
         <v>6</v>
@@ -29444,19 +30517,19 @@
         <v>1437</v>
       </c>
       <c r="B731" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C731" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D731" t="s">
         <v>2546</v>
       </c>
-      <c r="C731" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D731" t="s">
+      <c r="E731" t="s">
         <v>2547</v>
       </c>
-      <c r="E731" t="s">
-        <v>2548</v>
-      </c>
       <c r="F731" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G731" s="1" t="s">
         <v>6</v>
@@ -29473,19 +30546,19 @@
         <v>1931</v>
       </c>
       <c r="B732" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D732" t="s">
         <v>2549</v>
       </c>
-      <c r="C732" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D732" t="s">
+      <c r="E732" t="s">
         <v>2550</v>
       </c>
-      <c r="E732" t="s">
-        <v>2551</v>
-      </c>
       <c r="F732" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G732" s="1" t="s">
         <v>6</v>
@@ -29502,19 +30575,19 @@
         <v>2683</v>
       </c>
       <c r="B733" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C733" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D733" t="s">
         <v>2552</v>
       </c>
-      <c r="C733" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D733" t="s">
+      <c r="E733" t="s">
         <v>2553</v>
       </c>
-      <c r="E733" t="s">
-        <v>2554</v>
-      </c>
       <c r="F733" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G733" s="1" t="s">
         <v>6</v>
@@ -29537,13 +30610,13 @@
         <v>2</v>
       </c>
       <c r="D734" t="s">
+        <v>2554</v>
+      </c>
+      <c r="E734" t="s">
         <v>2555</v>
       </c>
-      <c r="E734" t="s">
-        <v>2556</v>
-      </c>
       <c r="F734" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G734" s="1" t="s">
         <v>6</v>
@@ -29560,19 +30633,19 @@
         <v>2797</v>
       </c>
       <c r="B735" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C735" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D735" t="s">
         <v>2557</v>
       </c>
-      <c r="C735" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D735" t="s">
+      <c r="E735" t="s">
         <v>2558</v>
       </c>
-      <c r="E735" t="s">
-        <v>2559</v>
-      </c>
       <c r="F735" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G735" s="1" t="s">
         <v>6</v>
@@ -29589,19 +30662,19 @@
         <v>1703</v>
       </c>
       <c r="B736" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C736" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D736" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E736" t="s">
         <v>2560</v>
       </c>
-      <c r="C736" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D736" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E736" t="s">
-        <v>2561</v>
-      </c>
       <c r="F736" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G736" s="1" t="s">
         <v>6</v>
@@ -29618,19 +30691,19 @@
         <v>2086</v>
       </c>
       <c r="B737" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C737" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D737" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E737" t="s">
         <v>2562</v>
       </c>
-      <c r="C737" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D737" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E737" t="s">
-        <v>2563</v>
-      </c>
       <c r="F737" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G737" s="1" t="s">
         <v>6</v>
@@ -29647,19 +30720,19 @@
         <v>1621</v>
       </c>
       <c r="B738" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C738" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D738" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E738" t="s">
         <v>2564</v>
       </c>
-      <c r="C738" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D738" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E738" t="s">
-        <v>2565</v>
-      </c>
       <c r="F738" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G738" s="1" t="s">
         <v>6</v>
@@ -29676,19 +30749,19 @@
         <v>1768</v>
       </c>
       <c r="B739" t="s">
+        <v>2565</v>
+      </c>
+      <c r="C739" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D739" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E739" t="s">
         <v>2566</v>
       </c>
-      <c r="C739" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D739" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E739" t="s">
-        <v>2567</v>
-      </c>
       <c r="F739" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G739" s="1" t="s">
         <v>6</v>
@@ -29711,13 +30784,13 @@
         <v>2</v>
       </c>
       <c r="D740" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E740" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="F740" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G740" s="1" t="s">
         <v>6</v>
@@ -29740,13 +30813,13 @@
         <v>2</v>
       </c>
       <c r="D741" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E741" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="F741" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G741" s="1" t="s">
         <v>6</v>
@@ -29763,19 +30836,19 @@
         <v>2805</v>
       </c>
       <c r="B742" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C742" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D742" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E742" t="s">
         <v>2570</v>
       </c>
-      <c r="C742" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D742" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E742" t="s">
-        <v>2571</v>
-      </c>
       <c r="F742" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G742" s="1" t="s">
         <v>6</v>
@@ -29792,19 +30865,19 @@
         <v>2841</v>
       </c>
       <c r="B743" t="s">
+        <v>2571</v>
+      </c>
+      <c r="C743" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D743" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E743" t="s">
         <v>2572</v>
       </c>
-      <c r="C743" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D743" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E743" t="s">
-        <v>2573</v>
-      </c>
       <c r="F743" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G743" s="1" t="s">
         <v>6</v>
@@ -29821,19 +30894,19 @@
         <v>2772</v>
       </c>
       <c r="B744" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C744" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D744" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E744" t="s">
         <v>2574</v>
       </c>
-      <c r="C744" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D744" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E744" t="s">
-        <v>2575</v>
-      </c>
       <c r="F744" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G744" s="1" t="s">
         <v>6</v>
@@ -29850,19 +30923,19 @@
         <v>2851</v>
       </c>
       <c r="B745" t="s">
+        <v>2575</v>
+      </c>
+      <c r="C745" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D745" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E745" t="s">
         <v>2576</v>
       </c>
-      <c r="C745" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D745" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E745" t="s">
-        <v>2577</v>
-      </c>
       <c r="F745" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G745" s="1" t="s">
         <v>6</v>
@@ -29879,19 +30952,19 @@
         <v>2598</v>
       </c>
       <c r="B746" t="s">
+        <v>2577</v>
+      </c>
+      <c r="C746" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D746" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E746" t="s">
         <v>2578</v>
       </c>
-      <c r="C746" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D746" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E746" t="s">
-        <v>2579</v>
-      </c>
       <c r="F746" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G746" s="1" t="s">
         <v>6</v>
@@ -29908,19 +30981,19 @@
         <v>2771</v>
       </c>
       <c r="B747" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C747" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D747" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E747" t="s">
         <v>2580</v>
       </c>
-      <c r="C747" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D747" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E747" t="s">
-        <v>2581</v>
-      </c>
       <c r="F747" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G747" s="1" t="s">
         <v>6</v>
@@ -29937,19 +31010,19 @@
         <v>2423</v>
       </c>
       <c r="B748" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C748" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D748" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E748" t="s">
         <v>2582</v>
       </c>
-      <c r="C748" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D748" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E748" t="s">
-        <v>2583</v>
-      </c>
       <c r="F748" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G748" s="1" t="s">
         <v>6</v>
@@ -29966,19 +31039,19 @@
         <v>2929</v>
       </c>
       <c r="B749" t="s">
-        <v>2584</v>
+        <v>2968</v>
       </c>
       <c r="C749" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D749" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E749" t="s">
-        <v>2585</v>
+        <v>2969</v>
       </c>
       <c r="F749" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G749" s="1" t="s">
         <v>6</v>
@@ -29995,19 +31068,19 @@
         <v>2803</v>
       </c>
       <c r="B750" t="s">
-        <v>2586</v>
+        <v>2583</v>
       </c>
       <c r="C750" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D750" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E750" t="s">
-        <v>2587</v>
+        <v>2584</v>
       </c>
       <c r="F750" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G750" s="1" t="s">
         <v>6</v>
@@ -30024,19 +31097,19 @@
         <v>1716</v>
       </c>
       <c r="B751" t="s">
-        <v>2588</v>
+        <v>2585</v>
       </c>
       <c r="C751" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D751" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E751" t="s">
-        <v>2589</v>
+        <v>2586</v>
       </c>
       <c r="F751" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G751" s="1" t="s">
         <v>6</v>
@@ -30059,13 +31132,13 @@
         <v>2</v>
       </c>
       <c r="D752" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E752" t="s">
-        <v>2590</v>
+        <v>2587</v>
       </c>
       <c r="F752" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G752" s="1" t="s">
         <v>6</v>
@@ -30082,19 +31155,19 @@
         <v>198</v>
       </c>
       <c r="B753" t="s">
-        <v>2591</v>
+        <v>2588</v>
       </c>
       <c r="C753" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D753" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E753" t="s">
-        <v>2592</v>
+        <v>2589</v>
       </c>
       <c r="F753" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G753" s="1" t="s">
         <v>6</v>
@@ -30111,19 +31184,19 @@
         <v>2147</v>
       </c>
       <c r="B754" t="s">
-        <v>2593</v>
+        <v>2590</v>
       </c>
       <c r="C754" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D754" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E754" t="s">
-        <v>2594</v>
+        <v>2591</v>
       </c>
       <c r="F754" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G754" s="1" t="s">
         <v>6</v>
@@ -30140,19 +31213,19 @@
         <v>1903</v>
       </c>
       <c r="B755" t="s">
-        <v>2595</v>
+        <v>2592</v>
       </c>
       <c r="C755" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D755" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E755" t="s">
-        <v>2596</v>
+        <v>2593</v>
       </c>
       <c r="F755" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G755" s="1" t="s">
         <v>6</v>
@@ -30169,19 +31242,19 @@
         <v>2143</v>
       </c>
       <c r="B756" t="s">
-        <v>2597</v>
+        <v>2594</v>
       </c>
       <c r="C756" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D756" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E756" t="s">
-        <v>2598</v>
+        <v>2595</v>
       </c>
       <c r="F756" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G756" s="1" t="s">
         <v>6</v>
@@ -30198,19 +31271,19 @@
         <v>1140</v>
       </c>
       <c r="B757" t="s">
-        <v>2599</v>
+        <v>2596</v>
       </c>
       <c r="C757" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D757" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E757" t="s">
-        <v>2600</v>
+        <v>2597</v>
       </c>
       <c r="F757" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G757" s="1" t="s">
         <v>6</v>
@@ -30227,19 +31300,19 @@
         <v>1078</v>
       </c>
       <c r="B758" t="s">
-        <v>2601</v>
+        <v>2598</v>
       </c>
       <c r="C758" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D758" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E758" t="s">
-        <v>2602</v>
+        <v>2599</v>
       </c>
       <c r="F758" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G758" s="1" t="s">
         <v>6</v>
@@ -30256,19 +31329,19 @@
         <v>2763</v>
       </c>
       <c r="B759" t="s">
-        <v>2603</v>
+        <v>2600</v>
       </c>
       <c r="C759" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D759" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E759" t="s">
-        <v>2604</v>
+        <v>2601</v>
       </c>
       <c r="F759" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G759" s="1" t="s">
         <v>6</v>
@@ -30285,19 +31358,19 @@
         <v>1847</v>
       </c>
       <c r="B760" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C760" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D760" t="s">
         <v>2605</v>
       </c>
-      <c r="C760" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D760" t="s">
-        <v>2608</v>
-      </c>
       <c r="E760" t="s">
-        <v>2606</v>
+        <v>2603</v>
       </c>
       <c r="F760" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G760" s="1" t="s">
         <v>6</v>
@@ -30311,22 +31384,22 @@
     </row>
     <row r="761" spans="1:9">
       <c r="A761">
-        <v>1781</v>
+        <v>2924</v>
       </c>
       <c r="B761" t="s">
-        <v>2530</v>
+        <v>2606</v>
       </c>
       <c r="C761" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D761" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E761" t="s">
-        <v>2607</v>
+        <v>2786</v>
       </c>
       <c r="F761" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G761" s="1" t="s">
         <v>6</v>
@@ -30340,22 +31413,22 @@
     </row>
     <row r="762" spans="1:9">
       <c r="A762">
-        <v>2043</v>
+        <v>1395</v>
       </c>
       <c r="B762" t="s">
-        <v>2534</v>
+        <v>2607</v>
       </c>
       <c r="C762" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D762" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E762" t="s">
-        <v>2536</v>
+        <v>2787</v>
       </c>
       <c r="F762" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G762" s="1" t="s">
         <v>6</v>
@@ -30369,22 +31442,22 @@
     </row>
     <row r="763" spans="1:9">
       <c r="A763">
-        <v>1959</v>
+        <v>1943</v>
       </c>
       <c r="B763" t="s">
-        <v>2537</v>
+        <v>2608</v>
       </c>
       <c r="C763" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D763" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E763" t="s">
-        <v>2539</v>
+        <v>2788</v>
       </c>
       <c r="F763" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G763" s="1" t="s">
         <v>6</v>
@@ -30398,22 +31471,22 @@
     </row>
     <row r="764" spans="1:9">
       <c r="A764">
-        <v>2589</v>
+        <v>1877</v>
       </c>
       <c r="B764" t="s">
-        <v>2540</v>
+        <v>2609</v>
       </c>
       <c r="C764" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D764" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E764" t="s">
-        <v>2542</v>
+        <v>2789</v>
       </c>
       <c r="F764" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G764" s="1" t="s">
         <v>6</v>
@@ -30427,22 +31500,22 @@
     </row>
     <row r="765" spans="1:9">
       <c r="A765">
-        <v>2715</v>
+        <v>1998</v>
       </c>
       <c r="B765" t="s">
-        <v>2543</v>
+        <v>2610</v>
       </c>
       <c r="C765" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D765" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E765" t="s">
-        <v>2545</v>
+        <v>2790</v>
       </c>
       <c r="F765" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G765" s="1" t="s">
         <v>6</v>
@@ -30456,22 +31529,22 @@
     </row>
     <row r="766" spans="1:9">
       <c r="A766">
-        <v>1437</v>
+        <v>1891</v>
       </c>
       <c r="B766" t="s">
-        <v>2546</v>
+        <v>2611</v>
       </c>
       <c r="C766" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D766" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E766" t="s">
-        <v>2548</v>
+        <v>2791</v>
       </c>
       <c r="F766" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G766" s="1" t="s">
         <v>6</v>
@@ -30485,22 +31558,22 @@
     </row>
     <row r="767" spans="1:9">
       <c r="A767">
-        <v>1931</v>
+        <v>1673</v>
       </c>
       <c r="B767" t="s">
-        <v>2549</v>
+        <v>2612</v>
       </c>
       <c r="C767" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D767" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E767" t="s">
-        <v>2551</v>
+        <v>2792</v>
       </c>
       <c r="F767" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G767" s="1" t="s">
         <v>6</v>
@@ -30514,22 +31587,22 @@
     </row>
     <row r="768" spans="1:9">
       <c r="A768">
-        <v>2683</v>
+        <v>1047</v>
       </c>
       <c r="B768" t="s">
-        <v>2552</v>
+        <v>2613</v>
       </c>
       <c r="C768" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D768" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E768" t="s">
-        <v>2554</v>
+        <v>2793</v>
       </c>
       <c r="F768" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G768" s="1" t="s">
         <v>6</v>
@@ -30543,22 +31616,22 @@
     </row>
     <row r="769" spans="1:9">
       <c r="A769">
-        <v>2592</v>
+        <v>2140</v>
       </c>
       <c r="B769" t="s">
-        <v>2210</v>
+        <v>2614</v>
       </c>
       <c r="C769" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D769" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E769" t="s">
-        <v>2556</v>
+        <v>2794</v>
       </c>
       <c r="F769" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G769" s="1" t="s">
         <v>6</v>
@@ -30572,22 +31645,22 @@
     </row>
     <row r="770" spans="1:9">
       <c r="A770">
-        <v>2797</v>
+        <v>2117</v>
       </c>
       <c r="B770" t="s">
-        <v>2557</v>
+        <v>2615</v>
       </c>
       <c r="C770" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D770" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E770" t="s">
-        <v>2559</v>
+        <v>2795</v>
       </c>
       <c r="F770" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G770" s="1" t="s">
         <v>6</v>
@@ -30601,22 +31674,22 @@
     </row>
     <row r="771" spans="1:9">
       <c r="A771">
-        <v>1703</v>
+        <v>2908</v>
       </c>
       <c r="B771" t="s">
-        <v>2560</v>
+        <v>2616</v>
       </c>
       <c r="C771" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D771" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E771" t="s">
-        <v>2561</v>
+        <v>2796</v>
       </c>
       <c r="F771" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G771" s="1" t="s">
         <v>6</v>
@@ -30630,22 +31703,22 @@
     </row>
     <row r="772" spans="1:9">
       <c r="A772">
-        <v>2086</v>
+        <v>2849</v>
       </c>
       <c r="B772" t="s">
-        <v>2562</v>
+        <v>2617</v>
       </c>
       <c r="C772" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D772" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E772" t="s">
-        <v>2563</v>
+        <v>2797</v>
       </c>
       <c r="F772" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G772" s="1" t="s">
         <v>6</v>
@@ -30659,22 +31732,22 @@
     </row>
     <row r="773" spans="1:9">
       <c r="A773">
-        <v>1621</v>
+        <v>2868</v>
       </c>
       <c r="B773" t="s">
-        <v>2564</v>
+        <v>2618</v>
       </c>
       <c r="C773" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D773" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E773" t="s">
-        <v>2565</v>
+        <v>2798</v>
       </c>
       <c r="F773" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G773" s="1" t="s">
         <v>6</v>
@@ -30688,22 +31761,22 @@
     </row>
     <row r="774" spans="1:9">
       <c r="A774">
-        <v>1768</v>
+        <v>2796</v>
       </c>
       <c r="B774" t="s">
-        <v>2566</v>
+        <v>2619</v>
       </c>
       <c r="C774" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D774" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E774" t="s">
-        <v>2567</v>
+        <v>2799</v>
       </c>
       <c r="F774" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G774" s="1" t="s">
         <v>6</v>
@@ -30717,22 +31790,22 @@
     </row>
     <row r="775" spans="1:9">
       <c r="A775">
-        <v>2302</v>
+        <v>2364</v>
       </c>
       <c r="B775" t="s">
-        <v>2226</v>
+        <v>2620</v>
       </c>
       <c r="C775" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D775" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E775" t="s">
-        <v>2568</v>
+        <v>2800</v>
       </c>
       <c r="F775" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G775" s="1" t="s">
         <v>6</v>
@@ -30746,22 +31819,22 @@
     </row>
     <row r="776" spans="1:9">
       <c r="A776">
-        <v>2329</v>
+        <v>2046</v>
       </c>
       <c r="B776" t="s">
-        <v>2232</v>
+        <v>2621</v>
       </c>
       <c r="C776" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D776" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E776" t="s">
-        <v>2569</v>
+        <v>2801</v>
       </c>
       <c r="F776" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G776" s="1" t="s">
         <v>6</v>
@@ -30775,22 +31848,22 @@
     </row>
     <row r="777" spans="1:9">
       <c r="A777">
-        <v>2805</v>
+        <v>2599</v>
       </c>
       <c r="B777" t="s">
-        <v>2570</v>
+        <v>2622</v>
       </c>
       <c r="C777" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D777" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E777" t="s">
-        <v>2571</v>
+        <v>2802</v>
       </c>
       <c r="F777" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G777" s="1" t="s">
         <v>6</v>
@@ -30804,22 +31877,22 @@
     </row>
     <row r="778" spans="1:9">
       <c r="A778">
-        <v>2841</v>
+        <v>2623</v>
       </c>
       <c r="B778" t="s">
-        <v>2572</v>
+        <v>2623</v>
       </c>
       <c r="C778" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D778" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E778" t="s">
-        <v>2573</v>
+        <v>2803</v>
       </c>
       <c r="F778" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G778" s="1" t="s">
         <v>6</v>
@@ -30833,22 +31906,22 @@
     </row>
     <row r="779" spans="1:9">
       <c r="A779">
-        <v>2772</v>
+        <v>2915</v>
       </c>
       <c r="B779" t="s">
-        <v>2574</v>
+        <v>2624</v>
       </c>
       <c r="C779" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D779" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E779" t="s">
-        <v>2575</v>
+        <v>2804</v>
       </c>
       <c r="F779" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G779" s="1" t="s">
         <v>6</v>
@@ -30862,22 +31935,22 @@
     </row>
     <row r="780" spans="1:9">
       <c r="A780">
-        <v>2851</v>
-      </c>
-      <c r="B780" t="s">
-        <v>2576</v>
+        <v>2837</v>
+      </c>
+      <c r="B780">
+        <v>106</v>
       </c>
       <c r="C780" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D780" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E780" t="s">
-        <v>2577</v>
+        <v>2805</v>
       </c>
       <c r="F780" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G780" s="1" t="s">
         <v>6</v>
@@ -30891,22 +31964,22 @@
     </row>
     <row r="781" spans="1:9">
       <c r="A781">
-        <v>2598</v>
+        <v>2516</v>
       </c>
       <c r="B781" t="s">
-        <v>2578</v>
+        <v>2625</v>
       </c>
       <c r="C781" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D781" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E781" t="s">
-        <v>2579</v>
+        <v>2806</v>
       </c>
       <c r="F781" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G781" s="1" t="s">
         <v>6</v>
@@ -30920,22 +31993,22 @@
     </row>
     <row r="782" spans="1:9">
       <c r="A782">
-        <v>2771</v>
+        <v>2794</v>
       </c>
       <c r="B782" t="s">
-        <v>2580</v>
+        <v>2626</v>
       </c>
       <c r="C782" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D782" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E782" t="s">
-        <v>2581</v>
+        <v>2807</v>
       </c>
       <c r="F782" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G782" s="1" t="s">
         <v>6</v>
@@ -30949,22 +32022,22 @@
     </row>
     <row r="783" spans="1:9">
       <c r="A783">
-        <v>2423</v>
+        <v>2144</v>
       </c>
       <c r="B783" t="s">
-        <v>2582</v>
+        <v>2627</v>
       </c>
       <c r="C783" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D783" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E783" t="s">
-        <v>2583</v>
+        <v>2808</v>
       </c>
       <c r="F783" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G783" s="1" t="s">
         <v>6</v>
@@ -30978,22 +32051,22 @@
     </row>
     <row r="784" spans="1:9">
       <c r="A784">
-        <v>2929</v>
+        <v>93</v>
       </c>
       <c r="B784" t="s">
-        <v>2584</v>
+        <v>2628</v>
       </c>
       <c r="C784" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D784" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E784" t="s">
-        <v>2585</v>
+        <v>2809</v>
       </c>
       <c r="F784" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G784" s="1" t="s">
         <v>6</v>
@@ -31007,22 +32080,22 @@
     </row>
     <row r="785" spans="1:9">
       <c r="A785">
-        <v>2803</v>
+        <v>2774</v>
       </c>
       <c r="B785" t="s">
-        <v>2586</v>
+        <v>2629</v>
       </c>
       <c r="C785" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D785" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E785" t="s">
-        <v>2587</v>
+        <v>2810</v>
       </c>
       <c r="F785" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G785" s="1" t="s">
         <v>6</v>
@@ -31036,22 +32109,22 @@
     </row>
     <row r="786" spans="1:9">
       <c r="A786">
-        <v>1716</v>
+        <v>2544</v>
       </c>
       <c r="B786" t="s">
-        <v>2588</v>
+        <v>2630</v>
       </c>
       <c r="C786" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D786" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E786" t="s">
-        <v>2589</v>
+        <v>2811</v>
       </c>
       <c r="F786" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G786" s="1" t="s">
         <v>6</v>
@@ -31065,22 +32138,22 @@
     </row>
     <row r="787" spans="1:9">
       <c r="A787">
-        <v>2666</v>
+        <v>2017</v>
       </c>
       <c r="B787" t="s">
-        <v>2240</v>
+        <v>2631</v>
       </c>
       <c r="C787" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D787" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E787" t="s">
-        <v>2590</v>
+        <v>2812</v>
       </c>
       <c r="F787" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G787" s="1" t="s">
         <v>6</v>
@@ -31094,22 +32167,22 @@
     </row>
     <row r="788" spans="1:9">
       <c r="A788">
-        <v>2147</v>
+        <v>1825</v>
       </c>
       <c r="B788" t="s">
-        <v>2593</v>
+        <v>2632</v>
       </c>
       <c r="C788" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D788" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E788" t="s">
-        <v>2594</v>
+        <v>2813</v>
       </c>
       <c r="F788" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G788" s="1" t="s">
         <v>6</v>
@@ -31123,22 +32196,22 @@
     </row>
     <row r="789" spans="1:9">
       <c r="A789">
-        <v>1903</v>
+        <v>2034</v>
       </c>
       <c r="B789" t="s">
-        <v>2595</v>
+        <v>2633</v>
       </c>
       <c r="C789" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D789" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E789" t="s">
-        <v>2596</v>
+        <v>2814</v>
       </c>
       <c r="F789" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G789" s="1" t="s">
         <v>6</v>
@@ -31152,22 +32225,22 @@
     </row>
     <row r="790" spans="1:9">
       <c r="A790">
-        <v>2143</v>
+        <v>2773</v>
       </c>
       <c r="B790" t="s">
-        <v>2597</v>
+        <v>2634</v>
       </c>
       <c r="C790" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D790" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E790" t="s">
-        <v>2598</v>
+        <v>2815</v>
       </c>
       <c r="F790" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G790" s="1" t="s">
         <v>6</v>
@@ -31181,22 +32254,22 @@
     </row>
     <row r="791" spans="1:9">
       <c r="A791">
-        <v>1140</v>
+        <v>760</v>
       </c>
       <c r="B791" t="s">
-        <v>2599</v>
+        <v>2635</v>
       </c>
       <c r="C791" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D791" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E791" t="s">
-        <v>2600</v>
+        <v>2605</v>
+      </c>
+      <c r="E791" s="3" t="s">
+        <v>2816</v>
       </c>
       <c r="F791" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G791" s="1" t="s">
         <v>6</v>
@@ -31210,22 +32283,22 @@
     </row>
     <row r="792" spans="1:9">
       <c r="A792">
-        <v>1078</v>
+        <v>2560</v>
       </c>
       <c r="B792" t="s">
-        <v>2601</v>
+        <v>2636</v>
       </c>
       <c r="C792" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D792" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E792" t="s">
-        <v>2602</v>
+        <v>2817</v>
       </c>
       <c r="F792" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G792" s="1" t="s">
         <v>6</v>
@@ -31239,22 +32312,22 @@
     </row>
     <row r="793" spans="1:9">
       <c r="A793">
-        <v>2763</v>
+        <v>1863</v>
       </c>
       <c r="B793" t="s">
-        <v>2603</v>
+        <v>2637</v>
       </c>
       <c r="C793" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D793" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E793" t="s">
-        <v>2604</v>
+        <v>2818</v>
       </c>
       <c r="F793" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G793" s="1" t="s">
         <v>6</v>
@@ -31268,22 +32341,22 @@
     </row>
     <row r="794" spans="1:9">
       <c r="A794">
-        <v>1847</v>
+        <v>1827</v>
       </c>
       <c r="B794" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C794" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D794" t="s">
         <v>2605</v>
       </c>
-      <c r="C794" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D794" t="s">
-        <v>2608</v>
-      </c>
       <c r="E794" t="s">
-        <v>2606</v>
+        <v>2819</v>
       </c>
       <c r="F794" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G794" s="1" t="s">
         <v>6</v>
@@ -31297,22 +32370,22 @@
     </row>
     <row r="795" spans="1:9">
       <c r="A795">
-        <v>1781</v>
+        <v>2921</v>
       </c>
       <c r="B795" t="s">
-        <v>2530</v>
+        <v>2639</v>
       </c>
       <c r="C795" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D795" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E795" t="s">
-        <v>2607</v>
+        <v>2820</v>
       </c>
       <c r="F795" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G795" s="1" t="s">
         <v>6</v>
@@ -31326,22 +32399,22 @@
     </row>
     <row r="796" spans="1:9">
       <c r="A796">
-        <v>2043</v>
+        <v>2074</v>
       </c>
       <c r="B796" t="s">
-        <v>2534</v>
+        <v>2640</v>
       </c>
       <c r="C796" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D796" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E796" t="s">
-        <v>2536</v>
+        <v>2821</v>
       </c>
       <c r="F796" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G796" s="1" t="s">
         <v>6</v>
@@ -31355,22 +32428,22 @@
     </row>
     <row r="797" spans="1:9">
       <c r="A797">
-        <v>1959</v>
+        <v>2153</v>
       </c>
       <c r="B797" t="s">
-        <v>2537</v>
+        <v>2641</v>
       </c>
       <c r="C797" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D797" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E797" t="s">
-        <v>2539</v>
+        <v>2822</v>
       </c>
       <c r="F797" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G797" s="1" t="s">
         <v>6</v>
@@ -31384,22 +32457,22 @@
     </row>
     <row r="798" spans="1:9">
       <c r="A798">
-        <v>2589</v>
+        <v>2601</v>
       </c>
       <c r="B798" t="s">
-        <v>2540</v>
+        <v>2642</v>
       </c>
       <c r="C798" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D798" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E798" t="s">
-        <v>2542</v>
+        <v>2823</v>
       </c>
       <c r="F798" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G798" s="1" t="s">
         <v>6</v>
@@ -31413,22 +32486,22 @@
     </row>
     <row r="799" spans="1:9">
       <c r="A799">
-        <v>2715</v>
+        <v>2764</v>
       </c>
       <c r="B799" t="s">
-        <v>2543</v>
+        <v>2643</v>
       </c>
       <c r="C799" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D799" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E799" t="s">
-        <v>2545</v>
+        <v>2824</v>
       </c>
       <c r="F799" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G799" s="1" t="s">
         <v>6</v>
@@ -31442,22 +32515,22 @@
     </row>
     <row r="800" spans="1:9">
       <c r="A800">
-        <v>1437</v>
+        <v>2819</v>
       </c>
       <c r="B800" t="s">
-        <v>2546</v>
+        <v>2644</v>
       </c>
       <c r="C800" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D800" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E800" t="s">
-        <v>2548</v>
+        <v>2825</v>
       </c>
       <c r="F800" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G800" s="1" t="s">
         <v>6</v>
@@ -31471,22 +32544,22 @@
     </row>
     <row r="801" spans="1:9">
       <c r="A801">
-        <v>1931</v>
+        <v>2557</v>
       </c>
       <c r="B801" t="s">
-        <v>2549</v>
+        <v>2645</v>
       </c>
       <c r="C801" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D801" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E801" t="s">
-        <v>2551</v>
+        <v>2826</v>
       </c>
       <c r="F801" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G801" s="1" t="s">
         <v>6</v>
@@ -31500,22 +32573,22 @@
     </row>
     <row r="802" spans="1:9">
       <c r="A802">
-        <v>2683</v>
+        <v>1381</v>
       </c>
       <c r="B802" t="s">
-        <v>2552</v>
+        <v>2646</v>
       </c>
       <c r="C802" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D802" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E802" t="s">
-        <v>2554</v>
+        <v>2827</v>
       </c>
       <c r="F802" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G802" s="1" t="s">
         <v>6</v>
@@ -31529,22 +32602,22 @@
     </row>
     <row r="803" spans="1:9">
       <c r="A803">
-        <v>2592</v>
+        <v>2843</v>
       </c>
       <c r="B803" t="s">
-        <v>2210</v>
+        <v>2647</v>
       </c>
       <c r="C803" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D803" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E803" t="s">
-        <v>2556</v>
+        <v>2828</v>
       </c>
       <c r="F803" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G803" s="1" t="s">
         <v>6</v>
@@ -31558,22 +32631,22 @@
     </row>
     <row r="804" spans="1:9">
       <c r="A804">
-        <v>2797</v>
+        <v>792</v>
       </c>
       <c r="B804" t="s">
-        <v>2557</v>
+        <v>2648</v>
       </c>
       <c r="C804" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D804" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E804" t="s">
-        <v>2559</v>
+        <v>2829</v>
       </c>
       <c r="F804" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G804" s="1" t="s">
         <v>6</v>
@@ -31587,22 +32660,22 @@
     </row>
     <row r="805" spans="1:9">
       <c r="A805">
-        <v>1703</v>
+        <v>1909</v>
       </c>
       <c r="B805" t="s">
-        <v>2560</v>
+        <v>2649</v>
       </c>
       <c r="C805" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D805" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E805" t="s">
-        <v>2561</v>
+        <v>2830</v>
       </c>
       <c r="F805" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G805" s="1" t="s">
         <v>6</v>
@@ -31616,22 +32689,22 @@
     </row>
     <row r="806" spans="1:9">
       <c r="A806">
-        <v>2086</v>
+        <v>2897</v>
       </c>
       <c r="B806" t="s">
-        <v>2562</v>
+        <v>2650</v>
       </c>
       <c r="C806" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D806" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E806" t="s">
-        <v>2563</v>
+        <v>2831</v>
       </c>
       <c r="F806" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G806" s="1" t="s">
         <v>6</v>
@@ -31645,22 +32718,22 @@
     </row>
     <row r="807" spans="1:9">
       <c r="A807">
-        <v>1621</v>
+        <v>2842</v>
       </c>
       <c r="B807" t="s">
-        <v>2564</v>
+        <v>2651</v>
       </c>
       <c r="C807" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D807" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E807" t="s">
-        <v>2565</v>
+        <v>2832</v>
       </c>
       <c r="F807" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G807" s="1" t="s">
         <v>6</v>
@@ -31674,22 +32747,22 @@
     </row>
     <row r="808" spans="1:9">
       <c r="A808">
-        <v>1768</v>
+        <v>2130</v>
       </c>
       <c r="B808" t="s">
-        <v>2566</v>
+        <v>2652</v>
       </c>
       <c r="C808" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D808" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E808" t="s">
-        <v>2567</v>
+        <v>2833</v>
       </c>
       <c r="F808" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G808" s="1" t="s">
         <v>6</v>
@@ -31703,22 +32776,22 @@
     </row>
     <row r="809" spans="1:9">
       <c r="A809">
-        <v>2302</v>
+        <v>2856</v>
       </c>
       <c r="B809" t="s">
-        <v>2226</v>
+        <v>2653</v>
       </c>
       <c r="C809" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D809" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E809" t="s">
-        <v>2568</v>
+        <v>2834</v>
       </c>
       <c r="F809" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G809" s="1" t="s">
         <v>6</v>
@@ -31732,22 +32805,22 @@
     </row>
     <row r="810" spans="1:9">
       <c r="A810">
-        <v>2329</v>
+        <v>2588</v>
       </c>
       <c r="B810" t="s">
-        <v>2232</v>
+        <v>2654</v>
       </c>
       <c r="C810" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D810" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E810" t="s">
-        <v>2569</v>
+        <v>2835</v>
       </c>
       <c r="F810" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G810" s="1" t="s">
         <v>6</v>
@@ -31761,22 +32834,22 @@
     </row>
     <row r="811" spans="1:9">
       <c r="A811">
-        <v>2805</v>
+        <v>2889</v>
       </c>
       <c r="B811" t="s">
-        <v>2570</v>
+        <v>2655</v>
       </c>
       <c r="C811" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D811" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E811" t="s">
-        <v>2571</v>
+        <v>2836</v>
       </c>
       <c r="F811" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G811" s="1" t="s">
         <v>6</v>
@@ -31790,22 +32863,22 @@
     </row>
     <row r="812" spans="1:9">
       <c r="A812">
-        <v>2841</v>
+        <v>2869</v>
       </c>
       <c r="B812" t="s">
-        <v>2572</v>
+        <v>2656</v>
       </c>
       <c r="C812" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D812" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E812" t="s">
-        <v>2573</v>
+        <v>2837</v>
       </c>
       <c r="F812" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G812" s="1" t="s">
         <v>6</v>
@@ -31819,22 +32892,22 @@
     </row>
     <row r="813" spans="1:9">
       <c r="A813">
-        <v>2772</v>
+        <v>2687</v>
       </c>
       <c r="B813" t="s">
-        <v>2574</v>
+        <v>2657</v>
       </c>
       <c r="C813" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D813" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E813" t="s">
-        <v>2575</v>
+        <v>2838</v>
       </c>
       <c r="F813" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G813" s="1" t="s">
         <v>6</v>
@@ -31848,22 +32921,22 @@
     </row>
     <row r="814" spans="1:9">
       <c r="A814">
-        <v>2851</v>
+        <v>2815</v>
       </c>
       <c r="B814" t="s">
-        <v>2576</v>
+        <v>2658</v>
       </c>
       <c r="C814" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D814" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E814" t="s">
-        <v>2577</v>
+        <v>2839</v>
       </c>
       <c r="F814" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G814" s="1" t="s">
         <v>6</v>
@@ -31877,22 +32950,22 @@
     </row>
     <row r="815" spans="1:9">
       <c r="A815">
-        <v>2598</v>
+        <v>2733</v>
       </c>
       <c r="B815" t="s">
-        <v>2578</v>
+        <v>2659</v>
       </c>
       <c r="C815" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D815" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E815" t="s">
-        <v>2579</v>
+        <v>2840</v>
       </c>
       <c r="F815" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G815" s="1" t="s">
         <v>6</v>
@@ -31906,22 +32979,22 @@
     </row>
     <row r="816" spans="1:9">
       <c r="A816">
-        <v>2771</v>
+        <v>1923</v>
       </c>
       <c r="B816" t="s">
-        <v>2580</v>
+        <v>2660</v>
       </c>
       <c r="C816" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D816" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E816" t="s">
-        <v>2581</v>
+        <v>2841</v>
       </c>
       <c r="F816" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G816" s="1" t="s">
         <v>6</v>
@@ -31935,22 +33008,22 @@
     </row>
     <row r="817" spans="1:9">
       <c r="A817">
-        <v>2423</v>
+        <v>2598</v>
       </c>
       <c r="B817" t="s">
-        <v>2582</v>
+        <v>2577</v>
       </c>
       <c r="C817" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D817" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E817" t="s">
-        <v>2583</v>
+        <v>2578</v>
       </c>
       <c r="F817" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G817" s="1" t="s">
         <v>6</v>
@@ -31964,22 +33037,22 @@
     </row>
     <row r="818" spans="1:9">
       <c r="A818">
-        <v>2929</v>
+        <v>2639</v>
       </c>
       <c r="B818" t="s">
-        <v>2584</v>
+        <v>2661</v>
       </c>
       <c r="C818" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D818" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E818" t="s">
-        <v>2585</v>
+        <v>2842</v>
       </c>
       <c r="F818" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G818" s="1" t="s">
         <v>6</v>
@@ -31993,22 +33066,22 @@
     </row>
     <row r="819" spans="1:9">
       <c r="A819">
-        <v>2803</v>
+        <v>2836</v>
       </c>
       <c r="B819" t="s">
-        <v>2586</v>
+        <v>2662</v>
       </c>
       <c r="C819" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D819" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E819" t="s">
-        <v>2587</v>
+        <v>2843</v>
       </c>
       <c r="F819" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G819" s="1" t="s">
         <v>6</v>
@@ -32022,22 +33095,22 @@
     </row>
     <row r="820" spans="1:9">
       <c r="A820">
-        <v>1716</v>
+        <v>2022</v>
       </c>
       <c r="B820" t="s">
-        <v>2588</v>
+        <v>2663</v>
       </c>
       <c r="C820" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D820" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E820" t="s">
-        <v>2589</v>
+        <v>2844</v>
       </c>
       <c r="F820" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G820" s="1" t="s">
         <v>6</v>
@@ -32051,22 +33124,22 @@
     </row>
     <row r="821" spans="1:9">
       <c r="A821">
-        <v>2666</v>
+        <v>2696</v>
       </c>
       <c r="B821" t="s">
-        <v>2240</v>
+        <v>2664</v>
       </c>
       <c r="C821" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D821" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E821" t="s">
-        <v>2590</v>
+        <v>2845</v>
       </c>
       <c r="F821" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G821" s="1" t="s">
         <v>6</v>
@@ -32080,22 +33153,22 @@
     </row>
     <row r="822" spans="1:9">
       <c r="A822">
-        <v>2147</v>
+        <v>2820</v>
       </c>
       <c r="B822" t="s">
-        <v>2593</v>
+        <v>2665</v>
       </c>
       <c r="C822" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D822" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E822" t="s">
-        <v>2594</v>
+        <v>2846</v>
       </c>
       <c r="F822" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G822" s="1" t="s">
         <v>6</v>
@@ -32109,22 +33182,22 @@
     </row>
     <row r="823" spans="1:9">
       <c r="A823">
-        <v>1903</v>
+        <v>1963</v>
       </c>
       <c r="B823" t="s">
-        <v>2595</v>
+        <v>2666</v>
       </c>
       <c r="C823" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D823" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E823" t="s">
-        <v>2596</v>
+        <v>2847</v>
       </c>
       <c r="F823" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G823" s="1" t="s">
         <v>6</v>
@@ -32138,22 +33211,22 @@
     </row>
     <row r="824" spans="1:9">
       <c r="A824">
-        <v>2143</v>
+        <v>2118</v>
       </c>
       <c r="B824" t="s">
-        <v>2597</v>
+        <v>2667</v>
       </c>
       <c r="C824" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D824" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E824" t="s">
-        <v>2598</v>
+        <v>2848</v>
       </c>
       <c r="F824" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G824" s="1" t="s">
         <v>6</v>
@@ -32167,22 +33240,22 @@
     </row>
     <row r="825" spans="1:9">
       <c r="A825">
-        <v>1140</v>
+        <v>2368</v>
       </c>
       <c r="B825" t="s">
-        <v>2599</v>
+        <v>2668</v>
       </c>
       <c r="C825" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D825" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E825" t="s">
-        <v>2600</v>
+        <v>2849</v>
       </c>
       <c r="F825" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G825" s="1" t="s">
         <v>6</v>
@@ -32196,22 +33269,22 @@
     </row>
     <row r="826" spans="1:9">
       <c r="A826">
-        <v>1078</v>
+        <v>2759</v>
       </c>
       <c r="B826" t="s">
-        <v>2601</v>
+        <v>2669</v>
       </c>
       <c r="C826" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D826" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E826" t="s">
-        <v>2602</v>
+        <v>2850</v>
       </c>
       <c r="F826" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G826" s="1" t="s">
         <v>6</v>
@@ -32225,22 +33298,22 @@
     </row>
     <row r="827" spans="1:9">
       <c r="A827">
-        <v>2763</v>
+        <v>1468</v>
       </c>
       <c r="B827" t="s">
-        <v>2603</v>
+        <v>2670</v>
       </c>
       <c r="C827" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D827" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E827" t="s">
-        <v>2604</v>
+        <v>2851</v>
       </c>
       <c r="F827" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G827" s="1" t="s">
         <v>6</v>
@@ -32254,22 +33327,22 @@
     </row>
     <row r="828" spans="1:9">
       <c r="A828">
-        <v>1847</v>
+        <v>2741</v>
       </c>
       <c r="B828" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C828" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D828" t="s">
         <v>2605</v>
       </c>
-      <c r="C828" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D828" t="s">
-        <v>2608</v>
-      </c>
       <c r="E828" t="s">
-        <v>2606</v>
+        <v>2852</v>
       </c>
       <c r="F828" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G828" s="1" t="s">
         <v>6</v>
@@ -32283,22 +33356,22 @@
     </row>
     <row r="829" spans="1:9">
       <c r="A829">
-        <v>1781</v>
+        <v>2942</v>
       </c>
       <c r="B829" t="s">
-        <v>2530</v>
+        <v>2672</v>
       </c>
       <c r="C829" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D829" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E829" t="s">
-        <v>2607</v>
+        <v>2853</v>
       </c>
       <c r="F829" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G829" s="1" t="s">
         <v>6</v>
@@ -32312,22 +33385,22 @@
     </row>
     <row r="830" spans="1:9">
       <c r="A830">
-        <v>2043</v>
+        <v>2934</v>
       </c>
       <c r="B830" t="s">
-        <v>2534</v>
+        <v>2673</v>
       </c>
       <c r="C830" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D830" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E830" t="s">
-        <v>2536</v>
+        <v>2854</v>
       </c>
       <c r="F830" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G830" s="1" t="s">
         <v>6</v>
@@ -32341,22 +33414,22 @@
     </row>
     <row r="831" spans="1:9">
       <c r="A831">
-        <v>1959</v>
+        <v>2155</v>
       </c>
       <c r="B831" t="s">
-        <v>2537</v>
+        <v>2674</v>
       </c>
       <c r="C831" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D831" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E831" t="s">
-        <v>2539</v>
+        <v>2855</v>
       </c>
       <c r="F831" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G831" s="1" t="s">
         <v>6</v>
@@ -32370,22 +33443,22 @@
     </row>
     <row r="832" spans="1:9">
       <c r="A832">
-        <v>2589</v>
+        <v>1361</v>
       </c>
       <c r="B832" t="s">
-        <v>2540</v>
+        <v>2675</v>
       </c>
       <c r="C832" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D832" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E832" t="s">
-        <v>2542</v>
+        <v>2856</v>
       </c>
       <c r="F832" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G832" s="1" t="s">
         <v>6</v>
@@ -32399,22 +33472,22 @@
     </row>
     <row r="833" spans="1:9">
       <c r="A833">
-        <v>2715</v>
+        <v>2789</v>
       </c>
       <c r="B833" t="s">
-        <v>2543</v>
+        <v>2676</v>
       </c>
       <c r="C833" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D833" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E833" t="s">
-        <v>2545</v>
+        <v>2857</v>
       </c>
       <c r="F833" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G833" s="1" t="s">
         <v>6</v>
@@ -32428,22 +33501,22 @@
     </row>
     <row r="834" spans="1:9">
       <c r="A834">
-        <v>1437</v>
+        <v>1339</v>
       </c>
       <c r="B834" t="s">
-        <v>2546</v>
+        <v>2362</v>
       </c>
       <c r="C834" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D834" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E834" t="s">
-        <v>2548</v>
+        <v>2858</v>
       </c>
       <c r="F834" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G834" s="1" t="s">
         <v>6</v>
@@ -32457,22 +33530,22 @@
     </row>
     <row r="835" spans="1:9">
       <c r="A835">
-        <v>1931</v>
+        <v>2020</v>
       </c>
       <c r="B835" t="s">
-        <v>2549</v>
+        <v>2677</v>
       </c>
       <c r="C835" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D835" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E835" t="s">
-        <v>2551</v>
+        <v>2859</v>
       </c>
       <c r="F835" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G835" s="1" t="s">
         <v>6</v>
@@ -32486,22 +33559,22 @@
     </row>
     <row r="836" spans="1:9">
       <c r="A836">
-        <v>2683</v>
+        <v>1861</v>
       </c>
       <c r="B836" t="s">
-        <v>2552</v>
+        <v>2678</v>
       </c>
       <c r="C836" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D836" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E836" t="s">
-        <v>2554</v>
+        <v>2860</v>
       </c>
       <c r="F836" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G836" s="1" t="s">
         <v>6</v>
@@ -32515,22 +33588,22 @@
     </row>
     <row r="837" spans="1:9">
       <c r="A837">
-        <v>2592</v>
+        <v>1939</v>
       </c>
       <c r="B837" t="s">
-        <v>2210</v>
+        <v>2679</v>
       </c>
       <c r="C837" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D837" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E837" t="s">
-        <v>2556</v>
+        <v>2861</v>
       </c>
       <c r="F837" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G837" s="1" t="s">
         <v>6</v>
@@ -32544,22 +33617,22 @@
     </row>
     <row r="838" spans="1:9">
       <c r="A838">
-        <v>2797</v>
+        <v>2720</v>
       </c>
       <c r="B838" t="s">
-        <v>2557</v>
+        <v>2680</v>
       </c>
       <c r="C838" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D838" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E838" t="s">
-        <v>2559</v>
+        <v>2862</v>
       </c>
       <c r="F838" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G838" s="1" t="s">
         <v>6</v>
@@ -32573,22 +33646,22 @@
     </row>
     <row r="839" spans="1:9">
       <c r="A839">
-        <v>1703</v>
+        <v>2681</v>
       </c>
       <c r="B839" t="s">
-        <v>2560</v>
+        <v>2681</v>
       </c>
       <c r="C839" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D839" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E839" t="s">
-        <v>2561</v>
+        <v>2863</v>
       </c>
       <c r="F839" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G839" s="1" t="s">
         <v>6</v>
@@ -32602,22 +33675,22 @@
     </row>
     <row r="840" spans="1:9">
       <c r="A840">
-        <v>2086</v>
+        <v>2691</v>
       </c>
       <c r="B840" t="s">
-        <v>2562</v>
+        <v>2682</v>
       </c>
       <c r="C840" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D840" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E840" t="s">
-        <v>2563</v>
+        <v>2864</v>
       </c>
       <c r="F840" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G840" s="1" t="s">
         <v>6</v>
@@ -32631,22 +33704,22 @@
     </row>
     <row r="841" spans="1:9">
       <c r="A841">
-        <v>1621</v>
+        <v>1456</v>
       </c>
       <c r="B841" t="s">
-        <v>2564</v>
+        <v>2683</v>
       </c>
       <c r="C841" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D841" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E841" t="s">
-        <v>2565</v>
+        <v>2865</v>
       </c>
       <c r="F841" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G841" s="1" t="s">
         <v>6</v>
@@ -32660,22 +33733,22 @@
     </row>
     <row r="842" spans="1:9">
       <c r="A842">
-        <v>1768</v>
+        <v>2597</v>
       </c>
       <c r="B842" t="s">
-        <v>2566</v>
+        <v>2684</v>
       </c>
       <c r="C842" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D842" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E842" t="s">
-        <v>2567</v>
+        <v>2866</v>
       </c>
       <c r="F842" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G842" s="1" t="s">
         <v>6</v>
@@ -32689,22 +33762,22 @@
     </row>
     <row r="843" spans="1:9">
       <c r="A843">
-        <v>2302</v>
+        <v>2831</v>
       </c>
       <c r="B843" t="s">
-        <v>2226</v>
+        <v>2685</v>
       </c>
       <c r="C843" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D843" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E843" t="s">
-        <v>2568</v>
+        <v>2867</v>
       </c>
       <c r="F843" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G843" s="1" t="s">
         <v>6</v>
@@ -32718,22 +33791,22 @@
     </row>
     <row r="844" spans="1:9">
       <c r="A844">
-        <v>2329</v>
+        <v>2100</v>
       </c>
       <c r="B844" t="s">
-        <v>2232</v>
+        <v>2686</v>
       </c>
       <c r="C844" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D844" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E844" t="s">
-        <v>2569</v>
+        <v>2868</v>
       </c>
       <c r="F844" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G844" s="1" t="s">
         <v>6</v>
@@ -32747,22 +33820,22 @@
     </row>
     <row r="845" spans="1:9">
       <c r="A845">
-        <v>2805</v>
+        <v>2724</v>
       </c>
       <c r="B845" t="s">
-        <v>2570</v>
+        <v>2687</v>
       </c>
       <c r="C845" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D845" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E845" t="s">
-        <v>2571</v>
+        <v>2869</v>
       </c>
       <c r="F845" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G845" s="1" t="s">
         <v>6</v>
@@ -32776,22 +33849,22 @@
     </row>
     <row r="846" spans="1:9">
       <c r="A846">
-        <v>2841</v>
+        <v>2631</v>
       </c>
       <c r="B846" t="s">
-        <v>2572</v>
+        <v>2688</v>
       </c>
       <c r="C846" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D846" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E846" t="s">
-        <v>2573</v>
+        <v>2870</v>
       </c>
       <c r="F846" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G846" s="1" t="s">
         <v>6</v>
@@ -32805,22 +33878,22 @@
     </row>
     <row r="847" spans="1:9">
       <c r="A847">
-        <v>2772</v>
+        <v>2750</v>
       </c>
       <c r="B847" t="s">
-        <v>2574</v>
+        <v>2689</v>
       </c>
       <c r="C847" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D847" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E847" t="s">
-        <v>2575</v>
+        <v>2871</v>
       </c>
       <c r="F847" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G847" s="1" t="s">
         <v>6</v>
@@ -32834,22 +33907,22 @@
     </row>
     <row r="848" spans="1:9">
       <c r="A848">
-        <v>2851</v>
+        <v>2119</v>
       </c>
       <c r="B848" t="s">
-        <v>2576</v>
+        <v>2690</v>
       </c>
       <c r="C848" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D848" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E848" t="s">
-        <v>2577</v>
+        <v>2872</v>
       </c>
       <c r="F848" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G848" s="1" t="s">
         <v>6</v>
@@ -32863,22 +33936,22 @@
     </row>
     <row r="849" spans="1:9">
       <c r="A849">
-        <v>2598</v>
+        <v>2919</v>
       </c>
       <c r="B849" t="s">
-        <v>2578</v>
+        <v>2691</v>
       </c>
       <c r="C849" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D849" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E849" t="s">
-        <v>2579</v>
+        <v>2873</v>
       </c>
       <c r="F849" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G849" s="1" t="s">
         <v>6</v>
@@ -32892,22 +33965,22 @@
     </row>
     <row r="850" spans="1:9">
       <c r="A850">
-        <v>2771</v>
+        <v>2792</v>
       </c>
       <c r="B850" t="s">
-        <v>2580</v>
+        <v>2692</v>
       </c>
       <c r="C850" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D850" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E850" t="s">
-        <v>2581</v>
+        <v>2874</v>
       </c>
       <c r="F850" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G850" s="1" t="s">
         <v>6</v>
@@ -32921,22 +33994,22 @@
     </row>
     <row r="851" spans="1:9">
       <c r="A851">
-        <v>2423</v>
+        <v>2874</v>
       </c>
       <c r="B851" t="s">
-        <v>2582</v>
+        <v>2693</v>
       </c>
       <c r="C851" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D851" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E851" t="s">
-        <v>2583</v>
+        <v>2875</v>
       </c>
       <c r="F851" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G851" s="1" t="s">
         <v>6</v>
@@ -32950,22 +34023,22 @@
     </row>
     <row r="852" spans="1:9">
       <c r="A852">
-        <v>2929</v>
+        <v>2742</v>
       </c>
       <c r="B852" t="s">
-        <v>2584</v>
+        <v>2694</v>
       </c>
       <c r="C852" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D852" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E852" t="s">
-        <v>2585</v>
+        <v>2876</v>
       </c>
       <c r="F852" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G852" s="1" t="s">
         <v>6</v>
@@ -32979,22 +34052,22 @@
     </row>
     <row r="853" spans="1:9">
       <c r="A853">
-        <v>2803</v>
+        <v>1743</v>
       </c>
       <c r="B853" t="s">
-        <v>2586</v>
+        <v>2695</v>
       </c>
       <c r="C853" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D853" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E853" t="s">
-        <v>2587</v>
+        <v>2877</v>
       </c>
       <c r="F853" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G853" s="1" t="s">
         <v>6</v>
@@ -33008,22 +34081,22 @@
     </row>
     <row r="854" spans="1:9">
       <c r="A854">
-        <v>1716</v>
+        <v>2875</v>
       </c>
       <c r="B854" t="s">
-        <v>2588</v>
+        <v>2696</v>
       </c>
       <c r="C854" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D854" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E854" t="s">
-        <v>2589</v>
+        <v>2878</v>
       </c>
       <c r="F854" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G854" s="1" t="s">
         <v>6</v>
@@ -33037,22 +34110,22 @@
     </row>
     <row r="855" spans="1:9">
       <c r="A855">
-        <v>2666</v>
+        <v>1315</v>
       </c>
       <c r="B855" t="s">
-        <v>2240</v>
+        <v>2697</v>
       </c>
       <c r="C855" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D855" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E855" t="s">
-        <v>2590</v>
+        <v>2879</v>
       </c>
       <c r="F855" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G855" s="1" t="s">
         <v>6</v>
@@ -33066,22 +34139,22 @@
     </row>
     <row r="856" spans="1:9">
       <c r="A856">
-        <v>2147</v>
+        <v>2814</v>
       </c>
       <c r="B856" t="s">
-        <v>2593</v>
+        <v>2698</v>
       </c>
       <c r="C856" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D856" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E856" t="s">
-        <v>2594</v>
+        <v>2880</v>
       </c>
       <c r="F856" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G856" s="1" t="s">
         <v>6</v>
@@ -33095,22 +34168,22 @@
     </row>
     <row r="857" spans="1:9">
       <c r="A857">
-        <v>1903</v>
+        <v>982</v>
       </c>
       <c r="B857" t="s">
-        <v>2595</v>
+        <v>2699</v>
       </c>
       <c r="C857" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D857" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E857" t="s">
-        <v>2596</v>
+        <v>2881</v>
       </c>
       <c r="F857" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G857" s="1" t="s">
         <v>6</v>
@@ -33124,22 +34197,22 @@
     </row>
     <row r="858" spans="1:9">
       <c r="A858">
-        <v>2143</v>
+        <v>2510</v>
       </c>
       <c r="B858" t="s">
-        <v>2597</v>
+        <v>2700</v>
       </c>
       <c r="C858" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D858" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E858" t="s">
-        <v>2598</v>
+        <v>2882</v>
       </c>
       <c r="F858" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G858" s="1" t="s">
         <v>6</v>
@@ -33153,22 +34226,22 @@
     </row>
     <row r="859" spans="1:9">
       <c r="A859">
-        <v>1140</v>
+        <v>2650</v>
       </c>
       <c r="B859" t="s">
-        <v>2599</v>
+        <v>2701</v>
       </c>
       <c r="C859" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D859" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E859" t="s">
-        <v>2600</v>
+        <v>2883</v>
       </c>
       <c r="F859" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G859" s="1" t="s">
         <v>6</v>
@@ -33182,22 +34255,22 @@
     </row>
     <row r="860" spans="1:9">
       <c r="A860">
-        <v>1078</v>
+        <v>933</v>
       </c>
       <c r="B860" t="s">
-        <v>2601</v>
+        <v>2702</v>
       </c>
       <c r="C860" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D860" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E860" t="s">
-        <v>2602</v>
+        <v>2884</v>
       </c>
       <c r="F860" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G860" s="1" t="s">
         <v>6</v>
@@ -33211,22 +34284,22 @@
     </row>
     <row r="861" spans="1:9">
       <c r="A861">
-        <v>2763</v>
+        <v>2075</v>
       </c>
       <c r="B861" t="s">
-        <v>2603</v>
+        <v>2703</v>
       </c>
       <c r="C861" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D861" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E861" t="s">
-        <v>2604</v>
+        <v>2885</v>
       </c>
       <c r="F861" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G861" s="1" t="s">
         <v>6</v>
@@ -33240,22 +34313,22 @@
     </row>
     <row r="862" spans="1:9">
       <c r="A862">
-        <v>1847</v>
+        <v>2778</v>
       </c>
       <c r="B862" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C862" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D862" t="s">
         <v>2605</v>
       </c>
-      <c r="C862" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D862" t="s">
-        <v>2608</v>
-      </c>
       <c r="E862" t="s">
-        <v>2606</v>
+        <v>2886</v>
       </c>
       <c r="F862" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G862" s="1" t="s">
         <v>6</v>
@@ -33269,28 +34342,28 @@
     </row>
     <row r="863" spans="1:9">
       <c r="A863">
-        <v>1781</v>
+        <v>2042</v>
       </c>
       <c r="B863" t="s">
-        <v>2530</v>
+        <v>2705</v>
       </c>
       <c r="C863" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D863" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E863" t="s">
-        <v>2607</v>
+        <v>2887</v>
       </c>
       <c r="F863" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G863" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H863">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I863" s="1">
         <v>0</v>
@@ -33298,22 +34371,22 @@
     </row>
     <row r="864" spans="1:9">
       <c r="A864">
-        <v>2043</v>
+        <v>2938</v>
       </c>
       <c r="B864" t="s">
-        <v>2534</v>
+        <v>2706</v>
       </c>
       <c r="C864" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D864" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E864" t="s">
-        <v>2536</v>
+        <v>2888</v>
       </c>
       <c r="F864" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G864" s="1" t="s">
         <v>6</v>
@@ -33327,22 +34400,22 @@
     </row>
     <row r="865" spans="1:9">
       <c r="A865">
-        <v>1959</v>
+        <v>2928</v>
       </c>
       <c r="B865" t="s">
-        <v>2537</v>
+        <v>2707</v>
       </c>
       <c r="C865" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D865" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E865" t="s">
-        <v>2539</v>
+        <v>2889</v>
       </c>
       <c r="F865" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G865" s="1" t="s">
         <v>6</v>
@@ -33356,22 +34429,22 @@
     </row>
     <row r="866" spans="1:9">
       <c r="A866">
-        <v>2589</v>
+        <v>1405</v>
       </c>
       <c r="B866" t="s">
-        <v>2540</v>
+        <v>2708</v>
       </c>
       <c r="C866" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D866" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E866" t="s">
-        <v>2542</v>
+        <v>2890</v>
       </c>
       <c r="F866" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G866" s="1" t="s">
         <v>6</v>
@@ -33385,22 +34458,22 @@
     </row>
     <row r="867" spans="1:9">
       <c r="A867">
-        <v>2715</v>
+        <v>1295</v>
       </c>
       <c r="B867" t="s">
-        <v>2543</v>
+        <v>2709</v>
       </c>
       <c r="C867" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D867" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E867" t="s">
-        <v>2545</v>
+        <v>2891</v>
       </c>
       <c r="F867" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G867" s="1" t="s">
         <v>6</v>
@@ -33414,22 +34487,22 @@
     </row>
     <row r="868" spans="1:9">
       <c r="A868">
-        <v>1437</v>
+        <v>1855</v>
       </c>
       <c r="B868" t="s">
-        <v>2546</v>
+        <v>2710</v>
       </c>
       <c r="C868" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D868" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E868" t="s">
-        <v>2548</v>
+        <v>2892</v>
       </c>
       <c r="F868" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G868" s="1" t="s">
         <v>6</v>
@@ -33443,22 +34516,22 @@
     </row>
     <row r="869" spans="1:9">
       <c r="A869">
-        <v>1931</v>
+        <v>2112</v>
       </c>
       <c r="B869" t="s">
-        <v>2549</v>
+        <v>2711</v>
       </c>
       <c r="C869" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D869" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E869" t="s">
-        <v>2551</v>
+        <v>2893</v>
       </c>
       <c r="F869" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G869" s="1" t="s">
         <v>6</v>
@@ -33472,22 +34545,22 @@
     </row>
     <row r="870" spans="1:9">
       <c r="A870">
-        <v>2683</v>
+        <v>2788</v>
       </c>
       <c r="B870" t="s">
-        <v>2552</v>
+        <v>2712</v>
       </c>
       <c r="C870" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D870" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E870" t="s">
-        <v>2554</v>
+        <v>2894</v>
       </c>
       <c r="F870" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G870" s="1" t="s">
         <v>6</v>
@@ -33501,22 +34574,22 @@
     </row>
     <row r="871" spans="1:9">
       <c r="A871">
-        <v>2592</v>
+        <v>2536</v>
       </c>
       <c r="B871" t="s">
-        <v>2210</v>
+        <v>2713</v>
       </c>
       <c r="C871" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D871" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E871" t="s">
-        <v>2556</v>
+        <v>2895</v>
       </c>
       <c r="F871" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G871" s="1" t="s">
         <v>6</v>
@@ -33530,22 +34603,22 @@
     </row>
     <row r="872" spans="1:9">
       <c r="A872">
-        <v>2797</v>
+        <v>2004</v>
       </c>
       <c r="B872" t="s">
-        <v>2557</v>
+        <v>2714</v>
       </c>
       <c r="C872" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D872" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E872" t="s">
-        <v>2559</v>
+        <v>2896</v>
       </c>
       <c r="F872" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G872" s="1" t="s">
         <v>6</v>
@@ -33559,22 +34632,22 @@
     </row>
     <row r="873" spans="1:9">
       <c r="A873">
-        <v>1703</v>
+        <v>2849</v>
       </c>
       <c r="B873" t="s">
-        <v>2560</v>
+        <v>2617</v>
       </c>
       <c r="C873" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D873" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E873" t="s">
-        <v>2561</v>
+        <v>2797</v>
       </c>
       <c r="F873" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G873" s="1" t="s">
         <v>6</v>
@@ -33588,22 +34661,22 @@
     </row>
     <row r="874" spans="1:9">
       <c r="A874">
-        <v>2086</v>
+        <v>2924</v>
       </c>
       <c r="B874" t="s">
-        <v>2562</v>
+        <v>2606</v>
       </c>
       <c r="C874" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D874" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E874" t="s">
-        <v>2563</v>
+        <v>2786</v>
       </c>
       <c r="F874" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G874" s="1" t="s">
         <v>6</v>
@@ -33617,22 +34690,22 @@
     </row>
     <row r="875" spans="1:9">
       <c r="A875">
-        <v>1621</v>
+        <v>2600</v>
       </c>
       <c r="B875" t="s">
-        <v>2564</v>
+        <v>2715</v>
       </c>
       <c r="C875" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D875" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E875" t="s">
-        <v>2565</v>
+        <v>2897</v>
       </c>
       <c r="F875" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G875" s="1" t="s">
         <v>6</v>
@@ -33646,22 +34719,22 @@
     </row>
     <row r="876" spans="1:9">
       <c r="A876">
-        <v>1768</v>
+        <v>1298</v>
       </c>
       <c r="B876" t="s">
-        <v>2566</v>
+        <v>2716</v>
       </c>
       <c r="C876" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D876" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E876" t="s">
-        <v>2567</v>
+        <v>2898</v>
       </c>
       <c r="F876" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G876" s="1" t="s">
         <v>6</v>
@@ -33675,22 +34748,22 @@
     </row>
     <row r="877" spans="1:9">
       <c r="A877">
-        <v>2302</v>
+        <v>1577</v>
       </c>
       <c r="B877" t="s">
-        <v>2226</v>
+        <v>2717</v>
       </c>
       <c r="C877" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D877" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E877" t="s">
-        <v>2568</v>
+        <v>2899</v>
       </c>
       <c r="F877" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G877" s="1" t="s">
         <v>6</v>
@@ -33704,22 +34777,22 @@
     </row>
     <row r="878" spans="1:9">
       <c r="A878">
-        <v>2329</v>
+        <v>2898</v>
       </c>
       <c r="B878" t="s">
-        <v>2232</v>
+        <v>2718</v>
       </c>
       <c r="C878" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D878" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E878" t="s">
-        <v>2569</v>
+        <v>2900</v>
       </c>
       <c r="F878" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G878" s="1" t="s">
         <v>6</v>
@@ -33733,22 +34806,22 @@
     </row>
     <row r="879" spans="1:9">
       <c r="A879">
-        <v>2805</v>
+        <v>2842</v>
       </c>
       <c r="B879" t="s">
-        <v>2570</v>
+        <v>2651</v>
       </c>
       <c r="C879" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D879" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E879" t="s">
-        <v>2571</v>
+        <v>2832</v>
       </c>
       <c r="F879" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G879" s="1" t="s">
         <v>6</v>
@@ -33762,22 +34835,22 @@
     </row>
     <row r="880" spans="1:9">
       <c r="A880">
-        <v>2841</v>
+        <v>1816</v>
       </c>
       <c r="B880" t="s">
-        <v>2572</v>
+        <v>2719</v>
       </c>
       <c r="C880" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D880" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E880" t="s">
-        <v>2573</v>
+        <v>2901</v>
       </c>
       <c r="F880" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G880" s="1" t="s">
         <v>6</v>
@@ -33791,22 +34864,22 @@
     </row>
     <row r="881" spans="1:9">
       <c r="A881">
-        <v>2772</v>
+        <v>2522</v>
       </c>
       <c r="B881" t="s">
-        <v>2574</v>
+        <v>2720</v>
       </c>
       <c r="C881" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D881" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E881" t="s">
-        <v>2575</v>
+        <v>2902</v>
       </c>
       <c r="F881" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G881" s="1" t="s">
         <v>6</v>
@@ -33820,22 +34893,22 @@
     </row>
     <row r="882" spans="1:9">
       <c r="A882">
-        <v>2851</v>
+        <v>2712</v>
       </c>
       <c r="B882" t="s">
-        <v>2576</v>
+        <v>2721</v>
       </c>
       <c r="C882" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D882" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E882" t="s">
-        <v>2577</v>
+        <v>2903</v>
       </c>
       <c r="F882" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G882" s="1" t="s">
         <v>6</v>
@@ -33849,22 +34922,22 @@
     </row>
     <row r="883" spans="1:9">
       <c r="A883">
-        <v>2598</v>
+        <v>2920</v>
       </c>
       <c r="B883" t="s">
-        <v>2578</v>
+        <v>2722</v>
       </c>
       <c r="C883" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D883" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E883" t="s">
-        <v>2579</v>
+        <v>2904</v>
       </c>
       <c r="F883" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G883" s="1" t="s">
         <v>6</v>
@@ -33878,22 +34951,22 @@
     </row>
     <row r="884" spans="1:9">
       <c r="A884">
-        <v>2771</v>
+        <v>1999</v>
       </c>
       <c r="B884" t="s">
-        <v>2580</v>
+        <v>2723</v>
       </c>
       <c r="C884" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D884" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E884" t="s">
-        <v>2581</v>
+        <v>2905</v>
       </c>
       <c r="F884" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G884" s="1" t="s">
         <v>6</v>
@@ -33907,22 +34980,22 @@
     </row>
     <row r="885" spans="1:9">
       <c r="A885">
-        <v>2423</v>
+        <v>2936</v>
       </c>
       <c r="B885" t="s">
-        <v>2582</v>
+        <v>2724</v>
       </c>
       <c r="C885" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D885" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E885" t="s">
-        <v>2583</v>
+        <v>2906</v>
       </c>
       <c r="F885" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G885" s="1" t="s">
         <v>6</v>
@@ -33936,22 +35009,22 @@
     </row>
     <row r="886" spans="1:9">
       <c r="A886">
-        <v>2929</v>
+        <v>2781</v>
       </c>
       <c r="B886" t="s">
-        <v>2584</v>
+        <v>2725</v>
       </c>
       <c r="C886" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D886" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E886" t="s">
-        <v>2585</v>
+        <v>2907</v>
       </c>
       <c r="F886" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G886" s="1" t="s">
         <v>6</v>
@@ -33965,22 +35038,22 @@
     </row>
     <row r="887" spans="1:9">
       <c r="A887">
-        <v>2803</v>
+        <v>2559</v>
       </c>
       <c r="B887" t="s">
-        <v>2586</v>
+        <v>2726</v>
       </c>
       <c r="C887" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D887" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E887" t="s">
-        <v>2587</v>
+        <v>2908</v>
       </c>
       <c r="F887" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G887" s="1" t="s">
         <v>6</v>
@@ -33994,22 +35067,22 @@
     </row>
     <row r="888" spans="1:9">
       <c r="A888">
-        <v>1716</v>
+        <v>2882</v>
       </c>
       <c r="B888" t="s">
-        <v>2588</v>
+        <v>2727</v>
       </c>
       <c r="C888" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D888" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E888" t="s">
-        <v>2589</v>
+        <v>2909</v>
       </c>
       <c r="F888" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G888" s="1" t="s">
         <v>6</v>
@@ -34023,22 +35096,22 @@
     </row>
     <row r="889" spans="1:9">
       <c r="A889">
-        <v>2666</v>
+        <v>2808</v>
       </c>
       <c r="B889" t="s">
-        <v>2240</v>
+        <v>2728</v>
       </c>
       <c r="C889" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D889" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E889" t="s">
-        <v>2590</v>
+        <v>2910</v>
       </c>
       <c r="F889" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G889" s="1" t="s">
         <v>6</v>
@@ -34052,22 +35125,22 @@
     </row>
     <row r="890" spans="1:9">
       <c r="A890">
-        <v>2147</v>
+        <v>2643</v>
       </c>
       <c r="B890" t="s">
-        <v>2593</v>
+        <v>2729</v>
       </c>
       <c r="C890" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D890" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E890" t="s">
-        <v>2594</v>
+        <v>2911</v>
       </c>
       <c r="F890" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G890" s="1" t="s">
         <v>6</v>
@@ -34081,22 +35154,22 @@
     </row>
     <row r="891" spans="1:9">
       <c r="A891">
-        <v>1903</v>
+        <v>2595</v>
       </c>
       <c r="B891" t="s">
-        <v>2595</v>
+        <v>2730</v>
       </c>
       <c r="C891" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D891" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E891" t="s">
-        <v>2596</v>
+        <v>2912</v>
       </c>
       <c r="F891" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G891" s="1" t="s">
         <v>6</v>
@@ -34110,22 +35183,22 @@
     </row>
     <row r="892" spans="1:9">
       <c r="A892">
-        <v>2143</v>
+        <v>2855</v>
       </c>
       <c r="B892" t="s">
-        <v>2597</v>
+        <v>2731</v>
       </c>
       <c r="C892" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D892" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E892" t="s">
-        <v>2598</v>
+        <v>2913</v>
       </c>
       <c r="F892" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G892" s="1" t="s">
         <v>6</v>
@@ -34139,22 +35212,22 @@
     </row>
     <row r="893" spans="1:9">
       <c r="A893">
-        <v>1140</v>
+        <v>2887</v>
       </c>
       <c r="B893" t="s">
-        <v>2599</v>
+        <v>2732</v>
       </c>
       <c r="C893" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D893" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E893" t="s">
-        <v>2600</v>
+        <v>2914</v>
       </c>
       <c r="F893" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G893" s="1" t="s">
         <v>6</v>
@@ -34168,22 +35241,22 @@
     </row>
     <row r="894" spans="1:9">
       <c r="A894">
-        <v>1078</v>
+        <v>2097</v>
       </c>
       <c r="B894" t="s">
-        <v>2601</v>
+        <v>2733</v>
       </c>
       <c r="C894" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D894" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E894" t="s">
-        <v>2602</v>
+        <v>2915</v>
       </c>
       <c r="F894" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G894" s="1" t="s">
         <v>6</v>
@@ -34197,22 +35270,22 @@
     </row>
     <row r="895" spans="1:9">
       <c r="A895">
-        <v>2763</v>
+        <v>1882</v>
       </c>
       <c r="B895" t="s">
-        <v>2603</v>
+        <v>2734</v>
       </c>
       <c r="C895" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D895" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E895" t="s">
-        <v>2604</v>
+        <v>2916</v>
       </c>
       <c r="F895" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G895" s="1" t="s">
         <v>6</v>
@@ -34226,22 +35299,22 @@
     </row>
     <row r="896" spans="1:9">
       <c r="A896">
-        <v>1847</v>
+        <v>2663</v>
       </c>
       <c r="B896" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C896" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D896" t="s">
         <v>2605</v>
       </c>
-      <c r="C896" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D896" t="s">
-        <v>2608</v>
-      </c>
       <c r="E896" t="s">
-        <v>2606</v>
+        <v>2917</v>
       </c>
       <c r="F896" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G896" s="1" t="s">
         <v>6</v>
@@ -34255,28 +35328,28 @@
     </row>
     <row r="897" spans="1:9">
       <c r="A897">
-        <v>1781</v>
+        <v>2775</v>
       </c>
       <c r="B897" t="s">
-        <v>2530</v>
+        <v>2736</v>
       </c>
       <c r="C897" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D897" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E897" t="s">
-        <v>2607</v>
+        <v>2918</v>
       </c>
       <c r="F897" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G897" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H897">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I897" s="1">
         <v>0</v>
@@ -34284,22 +35357,22 @@
     </row>
     <row r="898" spans="1:9">
       <c r="A898">
-        <v>2043</v>
+        <v>2690</v>
       </c>
       <c r="B898" t="s">
-        <v>2534</v>
+        <v>2737</v>
       </c>
       <c r="C898" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D898" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E898" t="s">
-        <v>2536</v>
+        <v>2919</v>
       </c>
       <c r="F898" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G898" s="1" t="s">
         <v>6</v>
@@ -34313,22 +35386,22 @@
     </row>
     <row r="899" spans="1:9">
       <c r="A899">
-        <v>1959</v>
+        <v>2141</v>
       </c>
       <c r="B899" t="s">
-        <v>2537</v>
+        <v>2738</v>
       </c>
       <c r="C899" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D899" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E899" t="s">
-        <v>2539</v>
+        <v>2920</v>
       </c>
       <c r="F899" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G899" s="1" t="s">
         <v>6</v>
@@ -34342,22 +35415,22 @@
     </row>
     <row r="900" spans="1:9">
       <c r="A900">
-        <v>2589</v>
+        <v>2080</v>
       </c>
       <c r="B900" t="s">
-        <v>2540</v>
+        <v>2739</v>
       </c>
       <c r="C900" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D900" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E900" t="s">
-        <v>2542</v>
+        <v>2921</v>
       </c>
       <c r="F900" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G900" s="1" t="s">
         <v>6</v>
@@ -34371,22 +35444,22 @@
     </row>
     <row r="901" spans="1:9">
       <c r="A901">
-        <v>2715</v>
+        <v>1351</v>
       </c>
       <c r="B901" t="s">
-        <v>2543</v>
+        <v>2740</v>
       </c>
       <c r="C901" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D901" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E901" t="s">
-        <v>2545</v>
+        <v>2922</v>
       </c>
       <c r="F901" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G901" s="1" t="s">
         <v>6</v>
@@ -34400,22 +35473,22 @@
     </row>
     <row r="902" spans="1:9">
       <c r="A902">
-        <v>1437</v>
+        <v>1986</v>
       </c>
       <c r="B902" t="s">
-        <v>2546</v>
+        <v>2741</v>
       </c>
       <c r="C902" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D902" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E902" t="s">
-        <v>2548</v>
+        <v>2923</v>
       </c>
       <c r="F902" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G902" s="1" t="s">
         <v>6</v>
@@ -34429,22 +35502,22 @@
     </row>
     <row r="903" spans="1:9">
       <c r="A903">
-        <v>1931</v>
+        <v>2626</v>
       </c>
       <c r="B903" t="s">
-        <v>2549</v>
+        <v>2742</v>
       </c>
       <c r="C903" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D903" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E903" t="s">
-        <v>2551</v>
+        <v>2924</v>
       </c>
       <c r="F903" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G903" s="1" t="s">
         <v>6</v>
@@ -34458,22 +35531,22 @@
     </row>
     <row r="904" spans="1:9">
       <c r="A904">
-        <v>2683</v>
+        <v>1347</v>
       </c>
       <c r="B904" t="s">
-        <v>2552</v>
+        <v>2743</v>
       </c>
       <c r="C904" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D904" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E904" t="s">
-        <v>2554</v>
+        <v>2925</v>
       </c>
       <c r="F904" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G904" s="1" t="s">
         <v>6</v>
@@ -34487,22 +35560,22 @@
     </row>
     <row r="905" spans="1:9">
       <c r="A905">
-        <v>2592</v>
+        <v>2753</v>
       </c>
       <c r="B905" t="s">
-        <v>2210</v>
+        <v>2744</v>
       </c>
       <c r="C905" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D905" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E905" t="s">
-        <v>2556</v>
+        <v>2926</v>
       </c>
       <c r="F905" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G905" s="1" t="s">
         <v>6</v>
@@ -34516,22 +35589,22 @@
     </row>
     <row r="906" spans="1:9">
       <c r="A906">
-        <v>2797</v>
+        <v>2714</v>
       </c>
       <c r="B906" t="s">
-        <v>2557</v>
+        <v>2745</v>
       </c>
       <c r="C906" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D906" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E906" t="s">
-        <v>2559</v>
+        <v>2927</v>
       </c>
       <c r="F906" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G906" s="1" t="s">
         <v>6</v>
@@ -34545,22 +35618,22 @@
     </row>
     <row r="907" spans="1:9">
       <c r="A907">
-        <v>1703</v>
+        <v>1836</v>
       </c>
       <c r="B907" t="s">
-        <v>2560</v>
+        <v>2746</v>
       </c>
       <c r="C907" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D907" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E907" t="s">
-        <v>2561</v>
+        <v>2928</v>
       </c>
       <c r="F907" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G907" s="1" t="s">
         <v>6</v>
@@ -34574,22 +35647,22 @@
     </row>
     <row r="908" spans="1:9">
       <c r="A908">
-        <v>2086</v>
+        <v>2942</v>
       </c>
       <c r="B908" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="C908" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D908" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E908" t="s">
-        <v>2563</v>
+        <v>2853</v>
       </c>
       <c r="F908" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G908" s="1" t="s">
         <v>6</v>
@@ -34603,22 +35676,22 @@
     </row>
     <row r="909" spans="1:9">
       <c r="A909">
-        <v>1621</v>
+        <v>2878</v>
       </c>
       <c r="B909" t="s">
-        <v>2564</v>
+        <v>2747</v>
       </c>
       <c r="C909" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D909" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E909" t="s">
-        <v>2565</v>
+        <v>2929</v>
       </c>
       <c r="F909" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G909" s="1" t="s">
         <v>6</v>
@@ -34632,22 +35705,22 @@
     </row>
     <row r="910" spans="1:9">
       <c r="A910">
-        <v>1768</v>
+        <v>2308</v>
       </c>
       <c r="B910" t="s">
-        <v>2566</v>
+        <v>2748</v>
       </c>
       <c r="C910" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D910" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E910" t="s">
-        <v>2567</v>
+        <v>2930</v>
       </c>
       <c r="F910" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G910" s="1" t="s">
         <v>6</v>
@@ -34661,22 +35734,22 @@
     </row>
     <row r="911" spans="1:9">
       <c r="A911">
-        <v>2302</v>
+        <v>2806</v>
       </c>
       <c r="B911" t="s">
-        <v>2226</v>
+        <v>2749</v>
       </c>
       <c r="C911" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D911" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E911" t="s">
-        <v>2568</v>
+        <v>2931</v>
       </c>
       <c r="F911" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G911" s="1" t="s">
         <v>6</v>
@@ -34690,22 +35763,22 @@
     </row>
     <row r="912" spans="1:9">
       <c r="A912">
-        <v>2329</v>
+        <v>2534</v>
       </c>
       <c r="B912" t="s">
-        <v>2232</v>
+        <v>2750</v>
       </c>
       <c r="C912" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D912" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E912" t="s">
-        <v>2569</v>
+        <v>2932</v>
       </c>
       <c r="F912" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G912" s="1" t="s">
         <v>6</v>
@@ -34719,22 +35792,22 @@
     </row>
     <row r="913" spans="1:9">
       <c r="A913">
-        <v>2805</v>
+        <v>1545</v>
       </c>
       <c r="B913" t="s">
-        <v>2570</v>
+        <v>2751</v>
       </c>
       <c r="C913" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D913" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E913" t="s">
-        <v>2571</v>
+        <v>2933</v>
       </c>
       <c r="F913" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G913" s="1" t="s">
         <v>6</v>
@@ -34748,22 +35821,22 @@
     </row>
     <row r="914" spans="1:9">
       <c r="A914">
-        <v>2841</v>
+        <v>1743</v>
       </c>
       <c r="B914" t="s">
-        <v>2572</v>
+        <v>2695</v>
       </c>
       <c r="C914" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D914" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E914" t="s">
-        <v>2573</v>
+        <v>2877</v>
       </c>
       <c r="F914" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G914" s="1" t="s">
         <v>6</v>
@@ -34777,22 +35850,22 @@
     </row>
     <row r="915" spans="1:9">
       <c r="A915">
-        <v>2772</v>
+        <v>2614</v>
       </c>
       <c r="B915" t="s">
-        <v>2574</v>
+        <v>2752</v>
       </c>
       <c r="C915" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D915" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E915" t="s">
-        <v>2575</v>
+        <v>2934</v>
       </c>
       <c r="F915" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G915" s="1" t="s">
         <v>6</v>
@@ -34806,22 +35879,22 @@
     </row>
     <row r="916" spans="1:9">
       <c r="A916">
-        <v>2851</v>
+        <v>2680</v>
       </c>
       <c r="B916" t="s">
-        <v>2576</v>
+        <v>2753</v>
       </c>
       <c r="C916" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D916" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E916" t="s">
-        <v>2577</v>
+        <v>2935</v>
       </c>
       <c r="F916" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G916" s="1" t="s">
         <v>6</v>
@@ -34835,22 +35908,22 @@
     </row>
     <row r="917" spans="1:9">
       <c r="A917">
-        <v>2598</v>
+        <v>2131</v>
       </c>
       <c r="B917" t="s">
-        <v>2578</v>
+        <v>2754</v>
       </c>
       <c r="C917" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D917" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E917" t="s">
-        <v>2579</v>
+        <v>2936</v>
       </c>
       <c r="F917" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G917" s="1" t="s">
         <v>6</v>
@@ -34864,22 +35937,22 @@
     </row>
     <row r="918" spans="1:9">
       <c r="A918">
-        <v>2771</v>
+        <v>2743</v>
       </c>
       <c r="B918" t="s">
-        <v>2580</v>
+        <v>2755</v>
       </c>
       <c r="C918" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D918" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E918" t="s">
-        <v>2581</v>
+        <v>2937</v>
       </c>
       <c r="F918" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G918" s="1" t="s">
         <v>6</v>
@@ -34893,22 +35966,22 @@
     </row>
     <row r="919" spans="1:9">
       <c r="A919">
-        <v>2423</v>
+        <v>2343</v>
       </c>
       <c r="B919" t="s">
-        <v>2582</v>
+        <v>2756</v>
       </c>
       <c r="C919" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D919" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E919" t="s">
-        <v>2583</v>
+        <v>2938</v>
       </c>
       <c r="F919" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G919" s="1" t="s">
         <v>6</v>
@@ -34922,22 +35995,22 @@
     </row>
     <row r="920" spans="1:9">
       <c r="A920">
-        <v>2929</v>
+        <v>2726</v>
       </c>
       <c r="B920" t="s">
-        <v>2584</v>
+        <v>2757</v>
       </c>
       <c r="C920" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D920" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E920" t="s">
-        <v>2585</v>
+        <v>2939</v>
       </c>
       <c r="F920" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G920" s="1" t="s">
         <v>6</v>
@@ -34951,22 +36024,22 @@
     </row>
     <row r="921" spans="1:9">
       <c r="A921">
-        <v>2803</v>
+        <v>1689</v>
       </c>
       <c r="B921" t="s">
-        <v>2586</v>
+        <v>2758</v>
       </c>
       <c r="C921" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D921" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E921" t="s">
-        <v>2587</v>
+        <v>2940</v>
       </c>
       <c r="F921" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G921" s="1" t="s">
         <v>6</v>
@@ -34980,22 +36053,22 @@
     </row>
     <row r="922" spans="1:9">
       <c r="A922">
-        <v>1716</v>
+        <v>2068</v>
       </c>
       <c r="B922" t="s">
-        <v>2588</v>
+        <v>2759</v>
       </c>
       <c r="C922" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D922" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E922" t="s">
-        <v>2589</v>
+        <v>2941</v>
       </c>
       <c r="F922" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G922" s="1" t="s">
         <v>6</v>
@@ -35009,22 +36082,22 @@
     </row>
     <row r="923" spans="1:9">
       <c r="A923">
-        <v>2666</v>
+        <v>1531</v>
       </c>
       <c r="B923" t="s">
-        <v>2240</v>
+        <v>2760</v>
       </c>
       <c r="C923" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D923" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E923" t="s">
-        <v>2590</v>
+        <v>2942</v>
       </c>
       <c r="F923" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G923" s="1" t="s">
         <v>6</v>
@@ -35038,22 +36111,22 @@
     </row>
     <row r="924" spans="1:9">
       <c r="A924">
-        <v>2147</v>
+        <v>2703</v>
       </c>
       <c r="B924" t="s">
-        <v>2593</v>
+        <v>2761</v>
       </c>
       <c r="C924" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D924" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E924" t="s">
-        <v>2594</v>
+        <v>2943</v>
       </c>
       <c r="F924" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G924" s="1" t="s">
         <v>6</v>
@@ -35067,22 +36140,22 @@
     </row>
     <row r="925" spans="1:9">
       <c r="A925">
-        <v>1903</v>
+        <v>2777</v>
       </c>
       <c r="B925" t="s">
-        <v>2595</v>
+        <v>2762</v>
       </c>
       <c r="C925" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D925" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E925" t="s">
-        <v>2596</v>
+        <v>2944</v>
       </c>
       <c r="F925" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G925" s="1" t="s">
         <v>6</v>
@@ -35096,28 +36169,28 @@
     </row>
     <row r="926" spans="1:9">
       <c r="A926">
-        <v>2143</v>
+        <v>1575</v>
       </c>
       <c r="B926" t="s">
-        <v>2597</v>
+        <v>2763</v>
       </c>
       <c r="C926" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D926" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E926" t="s">
-        <v>2598</v>
+        <v>2945</v>
       </c>
       <c r="F926" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G926" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H926">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I926" s="1">
         <v>0</v>
@@ -35125,28 +36198,28 @@
     </row>
     <row r="927" spans="1:9">
       <c r="A927">
-        <v>1140</v>
+        <v>1776</v>
       </c>
       <c r="B927" t="s">
-        <v>2599</v>
+        <v>2764</v>
       </c>
       <c r="C927" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D927" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E927" t="s">
-        <v>2600</v>
+        <v>2946</v>
       </c>
       <c r="F927" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G927" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H927">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I927" s="1">
         <v>0</v>
@@ -35154,28 +36227,28 @@
     </row>
     <row r="928" spans="1:9">
       <c r="A928">
-        <v>1078</v>
+        <v>2707</v>
       </c>
       <c r="B928" t="s">
-        <v>2601</v>
+        <v>2765</v>
       </c>
       <c r="C928" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D928" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E928" t="s">
-        <v>2602</v>
+        <v>2947</v>
       </c>
       <c r="F928" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G928" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H928">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I928" s="1">
         <v>0</v>
@@ -35183,28 +36256,28 @@
     </row>
     <row r="929" spans="1:9">
       <c r="A929">
-        <v>2763</v>
+        <v>2838</v>
       </c>
       <c r="B929" t="s">
-        <v>2603</v>
+        <v>2766</v>
       </c>
       <c r="C929" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D929" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E929" t="s">
-        <v>2604</v>
+        <v>2948</v>
       </c>
       <c r="F929" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G929" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H929">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I929" s="1">
         <v>0</v>
@@ -35212,28 +36285,28 @@
     </row>
     <row r="930" spans="1:9">
       <c r="A930">
-        <v>1847</v>
+        <v>1295</v>
       </c>
       <c r="B930" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C930" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D930" t="s">
         <v>2605</v>
       </c>
-      <c r="C930" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D930" t="s">
-        <v>2608</v>
-      </c>
       <c r="E930" t="s">
-        <v>2606</v>
+        <v>2891</v>
       </c>
       <c r="F930" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G930" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H930">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I930" s="1">
         <v>0</v>
@@ -35241,22 +36314,22 @@
     </row>
     <row r="931" spans="1:9">
       <c r="A931">
-        <v>1781</v>
+        <v>1351</v>
       </c>
       <c r="B931" t="s">
-        <v>2530</v>
+        <v>2740</v>
       </c>
       <c r="C931" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D931" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E931" t="s">
-        <v>2607</v>
+        <v>2922</v>
       </c>
       <c r="F931" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G931" s="1" t="s">
         <v>6</v>
@@ -35270,22 +36343,22 @@
     </row>
     <row r="932" spans="1:9">
       <c r="A932">
-        <v>2043</v>
+        <v>1456</v>
       </c>
       <c r="B932" t="s">
-        <v>2534</v>
+        <v>2683</v>
       </c>
       <c r="C932" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D932" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E932" t="s">
-        <v>2536</v>
+        <v>2865</v>
       </c>
       <c r="F932" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G932" s="1" t="s">
         <v>6</v>
@@ -35299,22 +36372,22 @@
     </row>
     <row r="933" spans="1:9">
       <c r="A933">
-        <v>1959</v>
+        <v>2600</v>
       </c>
       <c r="B933" t="s">
-        <v>2537</v>
+        <v>2715</v>
       </c>
       <c r="C933" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D933" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E933" t="s">
-        <v>2539</v>
+        <v>2897</v>
       </c>
       <c r="F933" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G933" s="1" t="s">
         <v>6</v>
@@ -35328,22 +36401,22 @@
     </row>
     <row r="934" spans="1:9">
       <c r="A934">
-        <v>2589</v>
+        <v>2819</v>
       </c>
       <c r="B934" t="s">
-        <v>2540</v>
+        <v>2644</v>
       </c>
       <c r="C934" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D934" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E934" t="s">
-        <v>2542</v>
+        <v>2825</v>
       </c>
       <c r="F934" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G934" s="1" t="s">
         <v>6</v>
@@ -35357,22 +36430,22 @@
     </row>
     <row r="935" spans="1:9">
       <c r="A935">
-        <v>2715</v>
+        <v>2724</v>
       </c>
       <c r="B935" t="s">
-        <v>2543</v>
+        <v>2687</v>
       </c>
       <c r="C935" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D935" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E935" t="s">
-        <v>2545</v>
+        <v>2869</v>
       </c>
       <c r="F935" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G935" s="1" t="s">
         <v>6</v>
@@ -35386,22 +36459,22 @@
     </row>
     <row r="936" spans="1:9">
       <c r="A936">
-        <v>1437</v>
+        <v>2015</v>
       </c>
       <c r="B936" t="s">
-        <v>2546</v>
+        <v>2767</v>
       </c>
       <c r="C936" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D936" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E936" t="s">
-        <v>2548</v>
+        <v>2949</v>
       </c>
       <c r="F936" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G936" s="1" t="s">
         <v>6</v>
@@ -35415,22 +36488,22 @@
     </row>
     <row r="937" spans="1:9">
       <c r="A937">
-        <v>1931</v>
+        <v>2133</v>
       </c>
       <c r="B937" t="s">
-        <v>2549</v>
+        <v>2768</v>
       </c>
       <c r="C937" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D937" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E937" t="s">
-        <v>2551</v>
+        <v>2950</v>
       </c>
       <c r="F937" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G937" s="1" t="s">
         <v>6</v>
@@ -35444,22 +36517,22 @@
     </row>
     <row r="938" spans="1:9">
       <c r="A938">
-        <v>2683</v>
+        <v>2744</v>
       </c>
       <c r="B938" t="s">
-        <v>2552</v>
+        <v>2769</v>
       </c>
       <c r="C938" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D938" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E938" t="s">
-        <v>2554</v>
+        <v>2951</v>
       </c>
       <c r="F938" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G938" s="1" t="s">
         <v>6</v>
@@ -35473,22 +36546,22 @@
     </row>
     <row r="939" spans="1:9">
       <c r="A939">
-        <v>2592</v>
+        <v>2793</v>
       </c>
       <c r="B939" t="s">
-        <v>2210</v>
+        <v>2770</v>
       </c>
       <c r="C939" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D939" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E939" t="s">
-        <v>2556</v>
+        <v>2952</v>
       </c>
       <c r="F939" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G939" s="1" t="s">
         <v>6</v>
@@ -35502,22 +36575,22 @@
     </row>
     <row r="940" spans="1:9">
       <c r="A940">
-        <v>2797</v>
+        <v>2154</v>
       </c>
       <c r="B940" t="s">
-        <v>2557</v>
+        <v>2771</v>
       </c>
       <c r="C940" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D940" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E940" t="s">
-        <v>2559</v>
+        <v>2953</v>
       </c>
       <c r="F940" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G940" s="1" t="s">
         <v>6</v>
@@ -35531,22 +36604,22 @@
     </row>
     <row r="941" spans="1:9">
       <c r="A941">
-        <v>1703</v>
+        <v>2713</v>
       </c>
       <c r="B941" t="s">
-        <v>2560</v>
+        <v>2772</v>
       </c>
       <c r="C941" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D941" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E941" t="s">
-        <v>2561</v>
+        <v>2954</v>
       </c>
       <c r="F941" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G941" s="1" t="s">
         <v>6</v>
@@ -35560,22 +36633,22 @@
     </row>
     <row r="942" spans="1:9">
       <c r="A942">
-        <v>2086</v>
+        <v>2619</v>
       </c>
       <c r="B942" t="s">
-        <v>2562</v>
+        <v>2773</v>
       </c>
       <c r="C942" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D942" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E942" t="s">
-        <v>2563</v>
+        <v>2955</v>
       </c>
       <c r="F942" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G942" s="1" t="s">
         <v>6</v>
@@ -35589,22 +36662,22 @@
     </row>
     <row r="943" spans="1:9">
       <c r="A943">
-        <v>1621</v>
+        <v>2722</v>
       </c>
       <c r="B943" t="s">
-        <v>2564</v>
+        <v>2774</v>
       </c>
       <c r="C943" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D943" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E943" t="s">
-        <v>2565</v>
+        <v>2956</v>
       </c>
       <c r="F943" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G943" s="1" t="s">
         <v>6</v>
@@ -35618,22 +36691,22 @@
     </row>
     <row r="944" spans="1:9">
       <c r="A944">
-        <v>1768</v>
+        <v>2639</v>
       </c>
       <c r="B944" t="s">
-        <v>2566</v>
+        <v>2661</v>
       </c>
       <c r="C944" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D944" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E944" t="s">
-        <v>2567</v>
+        <v>2842</v>
       </c>
       <c r="F944" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G944" s="1" t="s">
         <v>6</v>
@@ -35647,22 +36720,22 @@
     </row>
     <row r="945" spans="1:9">
       <c r="A945">
-        <v>2302</v>
+        <v>2611</v>
       </c>
       <c r="B945" t="s">
-        <v>2226</v>
+        <v>2775</v>
       </c>
       <c r="C945" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D945" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E945" t="s">
-        <v>2568</v>
+        <v>2957</v>
       </c>
       <c r="F945" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G945" s="1" t="s">
         <v>6</v>
@@ -35676,22 +36749,22 @@
     </row>
     <row r="946" spans="1:9">
       <c r="A946">
-        <v>2329</v>
+        <v>2835</v>
       </c>
       <c r="B946" t="s">
-        <v>2232</v>
+        <v>2776</v>
       </c>
       <c r="C946" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D946" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E946" t="s">
-        <v>2569</v>
+        <v>2958</v>
       </c>
       <c r="F946" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G946" s="1" t="s">
         <v>6</v>
@@ -35705,22 +36778,22 @@
     </row>
     <row r="947" spans="1:9">
       <c r="A947">
-        <v>2805</v>
+        <v>2749</v>
       </c>
       <c r="B947" t="s">
-        <v>2570</v>
+        <v>2777</v>
       </c>
       <c r="C947" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D947" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E947" t="s">
-        <v>2571</v>
+        <v>2959</v>
       </c>
       <c r="F947" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G947" s="1" t="s">
         <v>6</v>
@@ -35734,22 +36807,22 @@
     </row>
     <row r="948" spans="1:9">
       <c r="A948">
-        <v>2841</v>
+        <v>1982</v>
       </c>
       <c r="B948" t="s">
-        <v>2572</v>
+        <v>2778</v>
       </c>
       <c r="C948" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D948" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E948" t="s">
-        <v>2573</v>
+        <v>2960</v>
       </c>
       <c r="F948" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G948" s="1" t="s">
         <v>6</v>
@@ -35763,22 +36836,22 @@
     </row>
     <row r="949" spans="1:9">
       <c r="A949">
-        <v>2772</v>
+        <v>2756</v>
       </c>
       <c r="B949" t="s">
-        <v>2574</v>
+        <v>2779</v>
       </c>
       <c r="C949" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D949" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E949" t="s">
-        <v>2575</v>
+        <v>2961</v>
       </c>
       <c r="F949" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G949" s="1" t="s">
         <v>6</v>
@@ -35792,22 +36865,22 @@
     </row>
     <row r="950" spans="1:9">
       <c r="A950">
-        <v>2851</v>
+        <v>2024</v>
       </c>
       <c r="B950" t="s">
-        <v>2576</v>
+        <v>2780</v>
       </c>
       <c r="C950" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D950" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E950" t="s">
-        <v>2577</v>
+        <v>2962</v>
       </c>
       <c r="F950" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G950" s="1" t="s">
         <v>6</v>
@@ -35821,22 +36894,22 @@
     </row>
     <row r="951" spans="1:9">
       <c r="A951">
-        <v>2598</v>
+        <v>1873</v>
       </c>
       <c r="B951" t="s">
-        <v>2578</v>
+        <v>2781</v>
       </c>
       <c r="C951" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D951" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E951" t="s">
-        <v>2579</v>
+        <v>2963</v>
       </c>
       <c r="F951" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G951" s="1" t="s">
         <v>6</v>
@@ -35850,22 +36923,22 @@
     </row>
     <row r="952" spans="1:9">
       <c r="A952">
-        <v>2771</v>
+        <v>2666</v>
       </c>
       <c r="B952" t="s">
-        <v>2580</v>
+        <v>2240</v>
       </c>
       <c r="C952" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D952" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E952" t="s">
-        <v>2581</v>
+        <v>2587</v>
       </c>
       <c r="F952" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G952" s="1" t="s">
         <v>6</v>
@@ -35879,22 +36952,22 @@
     </row>
     <row r="953" spans="1:9">
       <c r="A953">
-        <v>2423</v>
+        <v>2300</v>
       </c>
       <c r="B953" t="s">
-        <v>2582</v>
+        <v>2782</v>
       </c>
       <c r="C953" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D953" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E953" t="s">
-        <v>2583</v>
+        <v>2964</v>
       </c>
       <c r="F953" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G953" s="1" t="s">
         <v>6</v>
@@ -35908,22 +36981,22 @@
     </row>
     <row r="954" spans="1:9">
       <c r="A954">
-        <v>2929</v>
+        <v>2029</v>
       </c>
       <c r="B954" t="s">
-        <v>2584</v>
+        <v>2783</v>
       </c>
       <c r="C954" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D954" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E954" t="s">
-        <v>2585</v>
+        <v>2965</v>
       </c>
       <c r="F954" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G954" s="1" t="s">
         <v>6</v>
@@ -35937,22 +37010,22 @@
     </row>
     <row r="955" spans="1:9">
       <c r="A955">
-        <v>2803</v>
+        <v>2150</v>
       </c>
       <c r="B955" t="s">
-        <v>2586</v>
+        <v>2784</v>
       </c>
       <c r="C955" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D955" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E955" t="s">
-        <v>2587</v>
+        <v>2966</v>
       </c>
       <c r="F955" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G955" s="1" t="s">
         <v>6</v>
@@ -35966,22 +37039,22 @@
     </row>
     <row r="956" spans="1:9">
       <c r="A956">
-        <v>1716</v>
+        <v>2517</v>
       </c>
       <c r="B956" t="s">
-        <v>2588</v>
+        <v>2785</v>
       </c>
       <c r="C956" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D956" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E956" t="s">
-        <v>2589</v>
+        <v>2967</v>
       </c>
       <c r="F956" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G956" s="1" t="s">
         <v>6</v>
@@ -35994,284 +37067,92 @@
       </c>
     </row>
     <row r="957" spans="1:9">
-      <c r="A957">
-        <v>2666</v>
-      </c>
-      <c r="B957" t="s">
-        <v>2240</v>
-      </c>
-      <c r="C957" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D957" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E957" t="s">
-        <v>2590</v>
-      </c>
-      <c r="F957" t="s">
-        <v>2533</v>
-      </c>
-      <c r="G957" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H957">
-        <v>7</v>
-      </c>
-      <c r="I957" s="1">
-        <v>0</v>
-      </c>
+      <c r="C957" s="1"/>
+      <c r="G957" s="1"/>
+      <c r="I957" s="1"/>
     </row>
     <row r="958" spans="1:9">
-      <c r="A958">
-        <v>2147</v>
-      </c>
-      <c r="B958" t="s">
-        <v>2593</v>
-      </c>
-      <c r="C958" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D958" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E958" t="s">
-        <v>2594</v>
-      </c>
-      <c r="F958" t="s">
-        <v>2533</v>
-      </c>
-      <c r="G958" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H958">
-        <v>7</v>
-      </c>
-      <c r="I958" s="1">
-        <v>0</v>
-      </c>
+      <c r="C958" s="1"/>
+      <c r="G958" s="1"/>
+      <c r="I958" s="1"/>
     </row>
     <row r="959" spans="1:9">
-      <c r="A959">
-        <v>1903</v>
-      </c>
-      <c r="B959" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C959" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D959" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E959" t="s">
-        <v>2596</v>
-      </c>
-      <c r="F959" t="s">
-        <v>2533</v>
-      </c>
-      <c r="G959" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H959">
-        <v>7</v>
-      </c>
-      <c r="I959" s="1">
-        <v>0</v>
-      </c>
+      <c r="C959" s="1"/>
+      <c r="G959" s="1"/>
+      <c r="I959" s="1"/>
     </row>
     <row r="960" spans="1:9">
-      <c r="A960">
-        <v>2143</v>
-      </c>
-      <c r="B960" t="s">
-        <v>2597</v>
-      </c>
-      <c r="C960" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D960" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E960" t="s">
-        <v>2598</v>
-      </c>
-      <c r="F960" t="s">
-        <v>2533</v>
-      </c>
-      <c r="G960" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H960">
-        <v>7</v>
-      </c>
-      <c r="I960" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="961" spans="1:9">
-      <c r="A961">
-        <v>1140</v>
-      </c>
-      <c r="B961" t="s">
-        <v>2599</v>
-      </c>
-      <c r="C961" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D961" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E961" t="s">
-        <v>2600</v>
-      </c>
-      <c r="F961" t="s">
-        <v>2533</v>
-      </c>
-      <c r="G961" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H961">
-        <v>7</v>
-      </c>
-      <c r="I961" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="962" spans="1:9">
-      <c r="A962">
-        <v>1078</v>
-      </c>
-      <c r="B962" t="s">
-        <v>2601</v>
-      </c>
-      <c r="C962" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D962" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E962" t="s">
-        <v>2602</v>
-      </c>
-      <c r="F962" t="s">
-        <v>2533</v>
-      </c>
-      <c r="G962" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H962">
-        <v>7</v>
-      </c>
-      <c r="I962" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="963" spans="1:9">
-      <c r="A963">
-        <v>2763</v>
-      </c>
-      <c r="B963" t="s">
-        <v>2603</v>
-      </c>
-      <c r="C963" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D963" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E963" t="s">
-        <v>2604</v>
-      </c>
-      <c r="F963" t="s">
-        <v>2533</v>
-      </c>
-      <c r="G963" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H963">
-        <v>7</v>
-      </c>
-      <c r="I963" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="964" spans="1:9">
-      <c r="A964">
-        <v>1847</v>
-      </c>
-      <c r="B964" t="s">
-        <v>2605</v>
-      </c>
-      <c r="C964" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D964" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E964" t="s">
-        <v>2606</v>
-      </c>
-      <c r="F964" t="s">
-        <v>2533</v>
-      </c>
-      <c r="G964" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H964">
-        <v>7</v>
-      </c>
-      <c r="I964" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="965" spans="1:9">
+      <c r="C960" s="1"/>
+      <c r="G960" s="1"/>
+      <c r="I960" s="1"/>
+    </row>
+    <row r="961" spans="3:9">
+      <c r="C961" s="1"/>
+      <c r="G961" s="1"/>
+      <c r="I961" s="1"/>
+    </row>
+    <row r="962" spans="3:9">
+      <c r="C962" s="1"/>
+      <c r="G962" s="1"/>
+      <c r="I962" s="1"/>
+    </row>
+    <row r="963" spans="3:9">
+      <c r="C963" s="1"/>
+      <c r="G963" s="1"/>
+      <c r="I963" s="1"/>
+    </row>
+    <row r="964" spans="3:9">
+      <c r="C964" s="1"/>
+      <c r="G964" s="1"/>
+      <c r="I964" s="1"/>
+    </row>
+    <row r="965" spans="3:9">
       <c r="C965" s="1"/>
       <c r="G965" s="1"/>
       <c r="I965" s="1"/>
     </row>
-    <row r="966" spans="1:9">
+    <row r="966" spans="3:9">
       <c r="C966" s="1"/>
       <c r="G966" s="1"/>
       <c r="I966" s="1"/>
     </row>
-    <row r="967" spans="1:9">
+    <row r="967" spans="3:9">
       <c r="C967" s="1"/>
       <c r="G967" s="1"/>
       <c r="I967" s="1"/>
     </row>
-    <row r="968" spans="1:9">
+    <row r="968" spans="3:9">
       <c r="C968" s="1"/>
       <c r="G968" s="1"/>
       <c r="I968" s="1"/>
     </row>
-    <row r="969" spans="1:9">
+    <row r="969" spans="3:9">
       <c r="C969" s="1"/>
       <c r="G969" s="1"/>
       <c r="I969" s="1"/>
     </row>
-    <row r="970" spans="1:9">
+    <row r="970" spans="3:9">
       <c r="C970" s="1"/>
       <c r="G970" s="1"/>
       <c r="I970" s="1"/>
     </row>
-    <row r="971" spans="1:9">
+    <row r="971" spans="3:9">
       <c r="C971" s="1"/>
       <c r="G971" s="1"/>
     </row>
-    <row r="972" spans="1:9">
+    <row r="972" spans="3:9">
       <c r="C972" s="1"/>
     </row>
-    <row r="973" spans="1:9">
+    <row r="973" spans="3:9">
       <c r="C973" s="1"/>
     </row>
-    <row r="974" spans="1:9">
+    <row r="974" spans="3:9">
       <c r="C974" s="1"/>
     </row>
-    <row r="975" spans="1:9">
+    <row r="975" spans="3:9">
       <c r="C975" s="1"/>
     </row>
-    <row r="976" spans="1:9">
+    <row r="976" spans="3:9">
       <c r="C976" s="1"/>
     </row>
     <row r="977" spans="3:3">
@@ -36388,7 +37269,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E726" r:id="rId1" xr:uid="{9803BF20-3FA7-294C-85CB-D3B689754350}"/>
+    <hyperlink ref="E791" r:id="rId1" xr:uid="{96E01D2E-8AA1-564E-BEE4-54B3B2348A87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/public/webtoon-list.xlsx
+++ b/src/public/webtoon-list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/T7/Repository/Webtoon-Moa/src/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758A27A7-918F-BE4A-A2A7-DC6E0E03EA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623129BE-6856-404D-924B-AF8621AB69CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" xr2:uid="{27B2FBE9-60ED-114E-A79F-6B760E1B2EB2}"/>
+    <workbookView xWindow="-51200" yWindow="-3100" windowWidth="25600" windowHeight="19520" xr2:uid="{27B2FBE9-60ED-114E-A79F-6B760E1B2EB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5558" uniqueCount="2608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5738" uniqueCount="2970">
   <si>
     <t>id</t>
   </si>
@@ -7633,240 +7633,1327 @@
     <t>https://kr-a.kakaopagecdn.com/P/C/1781/c2/2x/70170577-d321-4c16-aca9-000c9dc07b50.png</t>
   </si>
   <si>
+    <t>kakaowebtoon</t>
+  </si>
+  <si>
+    <t>무지개다리 파수꾼</t>
+  </si>
+  <si>
+    <t>https://kr-a.kakaopagecdn.com/P/C/2043/c2/2x/58591695-c884-48b4-a46b-57cecb8f6d81.png</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/무지개다리-파수꾼/2043</t>
+  </si>
+  <si>
+    <t>뱀파이어님의 대리식사</t>
+  </si>
+  <si>
+    <t>https://kr-a.kakaopagecdn.com/P/C/1959/c2/2x/86a0bc84-bed3-4ed5-9209-01231d977f32.png</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/뱀파이어님의-대리식사/1959</t>
+  </si>
+  <si>
+    <t>대사형 선유</t>
+  </si>
+  <si>
+    <t>https://kr-a.kakaopagecdn.com/P/C/2589/c2/2x/1ce1458a-ac09-441a-af04-aae97035e71a.png</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/대사형-선유/2589</t>
+  </si>
+  <si>
+    <t>L.A.G</t>
+  </si>
+  <si>
+    <t>https://kr-a.kakaopagecdn.com/P/C/2715/c2/2x/ba083e18-3cf6-40ce-8993-b820621fc39b.png</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/L.A.G/2715</t>
+  </si>
+  <si>
+    <t>우정으로 결혼한 소꿉친구</t>
+  </si>
+  <si>
+    <t>https://kr-a.kakaopagecdn.com/P/C/1437/c2/2x/13e8fb0d-cf3d-4e9c-b086-6f9eecd5c177.png</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/우정으로-결혼한-소꿉친구/1437</t>
+  </si>
+  <si>
+    <t>강호표사</t>
+  </si>
+  <si>
+    <t>https://kr-a.kakaopagecdn.com/P/C/1931/c2/2x/04424488-b2ce-4933-8275-96b5f33c63dc.png</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/강호표사/1931</t>
+  </si>
+  <si>
+    <t>스위치</t>
+  </si>
+  <si>
+    <t>https://kr-a.kakaopagecdn.com/P/C/2683/c2/2x/638a45d1-9568-4f85-b846-35c64f52d841.png</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/스위치/2683</t>
+  </si>
+  <si>
+    <t>https://kr-a.kakaopagecdn.com/P/C/2592/c2/2x/e33a9ab9-a998-4b10-b777-19080ed87059.png</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/사장님의-특별지시/2592</t>
+  </si>
+  <si>
+    <t>나도 있어! 근육</t>
+  </si>
+  <si>
+    <t>https://kr-a.kakaopagecdn.com/P/C/2797/c2/2x/85b4f2cd-0784-4e3e-b207-553faf1231ed.png</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/나도-있어-근육/2797</t>
+  </si>
+  <si>
+    <t>이대로 멈출 순 없다</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/이대로-멈출-순-없다/1703</t>
+  </si>
+  <si>
+    <t>환율이 바뀌었나요?</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/환율이-바뀌었나요/2086</t>
+  </si>
+  <si>
+    <t>그라티아</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/그라티아/1621</t>
+  </si>
+  <si>
+    <t>타원을 그리는 법</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/타원을-그리는-법/1768</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/롱리브더킹/2302</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/환골탈태/2329</t>
+  </si>
+  <si>
+    <t>복마전</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/복마전/2805</t>
+  </si>
+  <si>
+    <t>나의 꼬마 선생님</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/나의-꼬마-선생님/2841</t>
+  </si>
+  <si>
+    <t>이계막차</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/이계막차/2772</t>
+  </si>
+  <si>
+    <t>안젤리카</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/안젤리카/2851</t>
+  </si>
+  <si>
+    <t>가비왕</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/가비왕/2598</t>
+  </si>
+  <si>
+    <t>연애 ㄴㄴ</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/연애-ㄴㄴ/2771</t>
+  </si>
+  <si>
+    <t>천인의 신부</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/천인의-신부/2423</t>
+  </si>
+  <si>
+    <t>취접냉월</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/취접냉월/2803</t>
+  </si>
+  <si>
+    <t>조류공포증</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/조류공포증/1716</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/뒤끝작렬/2666</t>
+  </si>
+  <si>
+    <t>오무라이스 잼잼</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/오무라이스-잼잼/198</t>
+  </si>
+  <si>
+    <t>액괴</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/액괴/2147</t>
+  </si>
+  <si>
+    <t>쓰레기 머학생</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/쓰레기-머학생/1903</t>
+  </si>
+  <si>
+    <t>그 책에 마음을 주지 마세요</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/그-책에-마음을-주지-마세요/2143</t>
+  </si>
+  <si>
+    <t>일단 질러! 질렐루야</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/일단-질러-질렐루야/1140</t>
+  </si>
+  <si>
+    <t>유부녀의 탄생</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/유부녀의-탄생/1078</t>
+  </si>
+  <si>
+    <t>종말 후 라이브</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/종말-후-라이브/2763</t>
+  </si>
+  <si>
+    <t>아싸가 알아버렸다</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/아싸가-알아버렸다/1847</t>
+  </si>
+  <si>
     <t>https://webtoon.kakao.com/content/바니와-오빠들/1781</t>
+  </si>
+  <si>
+    <t>img_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관계지침</t>
+  </si>
+  <si>
+    <t>아비무쌍</t>
+  </si>
+  <si>
+    <t>비밀 사이</t>
+  </si>
+  <si>
+    <t>화폐개혁</t>
+  </si>
+  <si>
+    <t>사랑하는 존재</t>
+  </si>
+  <si>
+    <t>너를 만나다</t>
+  </si>
+  <si>
+    <t>우리집이거든요!</t>
+  </si>
+  <si>
+    <t>트레이스</t>
+  </si>
+  <si>
+    <t>기프트</t>
+  </si>
+  <si>
+    <t>골드핸즈</t>
+  </si>
+  <si>
+    <t>용궁에서 온 손님</t>
+  </si>
+  <si>
+    <t>싸움귀</t>
+  </si>
+  <si>
+    <t>여름엔 비</t>
+  </si>
+  <si>
+    <t>불멸의 투귀</t>
+  </si>
+  <si>
+    <t>트리거</t>
+  </si>
+  <si>
+    <t>개목걸이</t>
+  </si>
+  <si>
+    <t>엑스텐</t>
+  </si>
+  <si>
+    <t>하드오피스</t>
+  </si>
+  <si>
+    <t>타락도시</t>
+  </si>
+  <si>
+    <t>우주를 삼킨 별</t>
+  </si>
+  <si>
+    <t>홈런의 공식</t>
+  </si>
+  <si>
+    <t>환상의 아이들</t>
+  </si>
+  <si>
+    <t>팬더댄스</t>
+  </si>
+  <si>
+    <t>집으로 돌려보내 주세요</t>
+  </si>
+  <si>
+    <t>네 곁에도 어쩌면</t>
+  </si>
+  <si>
+    <t>대선비쇼에 어서오세요!</t>
+  </si>
+  <si>
+    <t>단두 (斷頭)</t>
+  </si>
+  <si>
+    <t>신랑이 사라졌다</t>
+  </si>
+  <si>
+    <t>가어도</t>
+  </si>
+  <si>
+    <t>딩스뚱스</t>
+  </si>
+  <si>
+    <t>바다의 그림자</t>
+  </si>
+  <si>
+    <t>그녀의 앵무새</t>
+  </si>
+  <si>
+    <t>닥터 파인의 하루</t>
+  </si>
+  <si>
+    <t>2D 남친과 엔딩을 보는 법</t>
+  </si>
+  <si>
+    <t>수린당 -비늘 고치는 집-</t>
+  </si>
+  <si>
+    <t>천광명월</t>
+  </si>
+  <si>
+    <t>옆집 이방인</t>
+  </si>
+  <si>
+    <t>교환 남녀</t>
+  </si>
+  <si>
+    <t>안녕은하세요</t>
+  </si>
+  <si>
+    <t>도토리 문화센터</t>
+  </si>
+  <si>
+    <t>후크</t>
+  </si>
+  <si>
+    <t>곤</t>
+  </si>
+  <si>
+    <t>블랙 베히모스</t>
+  </si>
+  <si>
+    <t>금수친구들</t>
+  </si>
+  <si>
+    <t>아씨의 법정</t>
+  </si>
+  <si>
+    <t>버니 로즈</t>
+  </si>
+  <si>
+    <t>구원</t>
+  </si>
+  <si>
+    <t>지금부터 속편이 시작됩니다</t>
+  </si>
+  <si>
+    <t>악녀의 데뷔작</t>
+  </si>
+  <si>
+    <t>배신 주의 로맨스</t>
+  </si>
+  <si>
+    <t>뉴비 매니지먼트</t>
+  </si>
+  <si>
+    <t>동솔동 아이들</t>
+  </si>
+  <si>
+    <t>4명 중 1명은 죽는다</t>
+  </si>
+  <si>
+    <t>오적도</t>
+  </si>
+  <si>
+    <t>죽어도! 치우</t>
+  </si>
+  <si>
+    <t>나에게 온 달</t>
+  </si>
+  <si>
+    <t>뇌명의 하라</t>
+  </si>
+  <si>
+    <t>저승사자 온라인</t>
+  </si>
+  <si>
+    <t>이 소원은 취소</t>
+  </si>
+  <si>
+    <t>보지 마, 안 괜찮아, 불법이야!</t>
+  </si>
+  <si>
+    <t>유부녀 킬러</t>
+  </si>
+  <si>
+    <t>방구석 여포</t>
+  </si>
+  <si>
+    <t>칼집의 아이</t>
+  </si>
+  <si>
+    <t>러브샷</t>
+  </si>
+  <si>
+    <t>우리가 사랑하는 방법</t>
+  </si>
+  <si>
+    <t>남주와 그리는 로맨스</t>
+  </si>
+  <si>
+    <t>최강왕따</t>
+  </si>
+  <si>
+    <t>길동</t>
+  </si>
+  <si>
+    <t>관존 이강진</t>
+  </si>
+  <si>
+    <t>프레너미</t>
+  </si>
+  <si>
+    <t>매화꽃그늘</t>
+  </si>
+  <si>
+    <t>시간이 머문 집</t>
+  </si>
+  <si>
+    <t>재벌과의 인터뷰</t>
+  </si>
+  <si>
+    <t>살어리랏다</t>
+  </si>
+  <si>
+    <t>아오링 도쿄</t>
+  </si>
+  <si>
+    <t>우리 동네 삐-</t>
+  </si>
+  <si>
+    <t>내가 죄인이오</t>
+  </si>
+  <si>
+    <t>초상화</t>
+  </si>
+  <si>
+    <t>모텔 오아시스</t>
+  </si>
+  <si>
+    <t>당신과는 절대</t>
+  </si>
+  <si>
+    <t>나를 지켜줘</t>
+  </si>
+  <si>
+    <t>어쩌다 햄스터</t>
+  </si>
+  <si>
+    <t>눈이 나려 꽃</t>
+  </si>
+  <si>
+    <t>오! 나의 퀸</t>
+  </si>
+  <si>
+    <t>쑥</t>
+  </si>
+  <si>
+    <t>청소하는 대학동기</t>
+  </si>
+  <si>
+    <t>죽고 싶지만 떡볶이는 먹고 싶어</t>
+  </si>
+  <si>
+    <t>그리고 소녀가 검을 든다</t>
+  </si>
+  <si>
+    <t>업데이터</t>
+  </si>
+  <si>
+    <t>샤먼 트리트먼트</t>
+  </si>
+  <si>
+    <t>용병학교</t>
+  </si>
+  <si>
+    <t>Dr.브레인</t>
+  </si>
+  <si>
+    <t>사람이라호</t>
+  </si>
+  <si>
+    <t>도깨비언덕에 왜 왔니?</t>
+  </si>
+  <si>
+    <t>26번째 살인</t>
+  </si>
+  <si>
+    <t>24분의 1 로맨스</t>
+  </si>
+  <si>
+    <t>뽀짜툰</t>
+  </si>
+  <si>
+    <t>백로식당</t>
+  </si>
+  <si>
+    <t>늑대 대공의 반려인간</t>
+  </si>
+  <si>
+    <t>백의사자</t>
+  </si>
+  <si>
+    <t>이염移染</t>
+  </si>
+  <si>
+    <t>내게 볕이 닿지 않아도</t>
+  </si>
+  <si>
+    <t>바리공주</t>
+  </si>
+  <si>
+    <t>퀴퀴한 일기</t>
+  </si>
+  <si>
+    <t>열무와 알타리</t>
+  </si>
+  <si>
+    <t>적당한 온도</t>
+  </si>
+  <si>
+    <t>양아치의 스피치</t>
+  </si>
+  <si>
+    <t>더 챌린저</t>
+  </si>
+  <si>
+    <t>우리가 헤어진 사이에</t>
+  </si>
+  <si>
+    <t>우리 청춘의 사랑은</t>
+  </si>
+  <si>
+    <t>김탐정 사용설명서</t>
+  </si>
+  <si>
+    <t>키몽의 호구로운 생활</t>
+  </si>
+  <si>
+    <t>고스트 터미널</t>
+  </si>
+  <si>
+    <t>닭은 의외로 위대하다</t>
+  </si>
+  <si>
+    <t>로엘린은 미래를 걷는다</t>
+  </si>
+  <si>
+    <t>귀의하나이다</t>
+  </si>
+  <si>
+    <t>네가 죽은 세계의 나</t>
+  </si>
+  <si>
+    <t>파륜아이</t>
+  </si>
+  <si>
+    <t>금강야차</t>
+  </si>
+  <si>
+    <t>취향의 문제</t>
+  </si>
+  <si>
+    <t>케어시트</t>
+  </si>
+  <si>
+    <t>최경민 단편집</t>
+  </si>
+  <si>
+    <t>미스터리 록앤 시트러스</t>
+  </si>
+  <si>
+    <t>천 개의 달이 뜨면</t>
+  </si>
+  <si>
+    <t>드라코런</t>
+  </si>
+  <si>
+    <t>봄을 그린 화원</t>
+  </si>
+  <si>
+    <t>이별로 와요</t>
+  </si>
+  <si>
+    <t>크레센도</t>
+  </si>
+  <si>
+    <t>미완결</t>
+  </si>
+  <si>
+    <t>너를 죽이는 방법</t>
+  </si>
+  <si>
+    <t>통 속의 브레인</t>
+  </si>
+  <si>
+    <t>그때 우리가 조아한</t>
+  </si>
+  <si>
+    <t>백작가의 불청객들</t>
+  </si>
+  <si>
+    <t>허약선생</t>
+  </si>
+  <si>
+    <t>이토록 보통의</t>
+  </si>
+  <si>
+    <t>후궁공략</t>
+  </si>
+  <si>
+    <t>귀싸대기</t>
+  </si>
+  <si>
+    <t>반지하셋방</t>
+  </si>
+  <si>
+    <t>왕관 없는 여왕</t>
+  </si>
+  <si>
+    <t>며느라기</t>
+  </si>
+  <si>
+    <t>랑데부</t>
+  </si>
+  <si>
+    <t>이봐요, 아기 공작님 누나만 믿어!</t>
+  </si>
+  <si>
+    <t>샤크</t>
+  </si>
+  <si>
+    <t>한따까리</t>
+  </si>
+  <si>
+    <t>이렇게 바보일리 없어</t>
+  </si>
+  <si>
+    <t>풍검</t>
+  </si>
+  <si>
+    <t>레드라인</t>
+  </si>
+  <si>
+    <t>극락왕생</t>
+  </si>
+  <si>
+    <t>선택은 하나</t>
+  </si>
+  <si>
+    <t>번아웃쇼크</t>
+  </si>
+  <si>
+    <t>부기영화</t>
+  </si>
+  <si>
+    <t>나의 추락이 찬란하도록</t>
+  </si>
+  <si>
+    <t>순정 히포크라테스</t>
+  </si>
+  <si>
+    <t>우리반 숙경이</t>
+  </si>
+  <si>
+    <t>별똥별이 떨어지는 그 곳에서 기다려</t>
+  </si>
+  <si>
+    <t>샤먼</t>
+  </si>
+  <si>
+    <t>만년 소녀</t>
+  </si>
+  <si>
+    <t>슬프게도 이게 내 인생</t>
+  </si>
+  <si>
+    <t>하렘생존기</t>
+  </si>
+  <si>
+    <t>배고픈 킬러</t>
+  </si>
+  <si>
+    <t>계시록</t>
+  </si>
+  <si>
+    <t>퍼펙트 마인</t>
+  </si>
+  <si>
+    <t>그 아해</t>
+  </si>
+  <si>
+    <t>사랑의 순간</t>
+  </si>
+  <si>
+    <t>효정의 발화점</t>
+  </si>
+  <si>
+    <t>이상징후</t>
+  </si>
+  <si>
+    <t>계단</t>
+  </si>
+  <si>
+    <t>간지몬스터</t>
+  </si>
+  <si>
+    <t>D-30</t>
+  </si>
+  <si>
+    <t>복원가의 집</t>
+  </si>
+  <si>
+    <t>남산도서관 환생 북클럽</t>
+  </si>
+  <si>
+    <t>주문을 말해, 로즈!</t>
+  </si>
+  <si>
+    <t>미래의 사진</t>
+  </si>
+  <si>
+    <t>짝과 적</t>
+  </si>
+  <si>
+    <t>질투유발자들</t>
+  </si>
+  <si>
+    <t>내일도 출근!</t>
+  </si>
+  <si>
+    <t>언데드킹</t>
+  </si>
+  <si>
+    <t>크라우드</t>
+  </si>
+  <si>
+    <t>백의조각</t>
+  </si>
+  <si>
+    <t>무법대학</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/관계지침/2924</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/아비무쌍/1395</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/비밀-사이/1943</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/화폐개혁/1877</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/사랑하는-존재/1998</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/너를-만나다/1891</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/우리집이거든요/1673</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/트레이스/1047</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/기프트/2140</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/골드핸즈/2117</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/용궁에서-온-손님/2908</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/싸움귀/2849</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/여름엔-비/2868</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/불멸의-투귀/2796</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/트리거/2364</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/개목걸이/2046</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/엑스텐/2599</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/하드오피스/2623</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/타락도시/2915</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/106/2837</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/우주를-삼킨-별/2516</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/홈런의-공식/2794</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/환상의-아이들/2144</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/팬더댄스/93</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/집으로-돌려보내-주세요/2774</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/네-곁에도-어쩌면/2544</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/대선비쇼에-어서오세요/2017</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/단두-斷頭/1825</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/신랑이-사라졌다/2034</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/가어도/2773</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/딩스뚱스/760</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>kakaowebtoon</t>
-  </si>
-  <si>
-    <t>무지개다리 파수꾼</t>
-  </si>
-  <si>
-    <t>https://kr-a.kakaopagecdn.com/P/C/2043/c2/2x/58591695-c884-48b4-a46b-57cecb8f6d81.png</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/무지개다리-파수꾼/2043</t>
-  </si>
-  <si>
-    <t>뱀파이어님의 대리식사</t>
-  </si>
-  <si>
-    <t>https://kr-a.kakaopagecdn.com/P/C/1959/c2/2x/86a0bc84-bed3-4ed5-9209-01231d977f32.png</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/뱀파이어님의-대리식사/1959</t>
-  </si>
-  <si>
-    <t>대사형 선유</t>
-  </si>
-  <si>
-    <t>https://kr-a.kakaopagecdn.com/P/C/2589/c2/2x/1ce1458a-ac09-441a-af04-aae97035e71a.png</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/대사형-선유/2589</t>
-  </si>
-  <si>
-    <t>L.A.G</t>
-  </si>
-  <si>
-    <t>https://kr-a.kakaopagecdn.com/P/C/2715/c2/2x/ba083e18-3cf6-40ce-8993-b820621fc39b.png</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/L.A.G/2715</t>
-  </si>
-  <si>
-    <t>우정으로 결혼한 소꿉친구</t>
-  </si>
-  <si>
-    <t>https://kr-a.kakaopagecdn.com/P/C/1437/c2/2x/13e8fb0d-cf3d-4e9c-b086-6f9eecd5c177.png</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/우정으로-결혼한-소꿉친구/1437</t>
-  </si>
-  <si>
-    <t>강호표사</t>
-  </si>
-  <si>
-    <t>https://kr-a.kakaopagecdn.com/P/C/1931/c2/2x/04424488-b2ce-4933-8275-96b5f33c63dc.png</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/강호표사/1931</t>
-  </si>
-  <si>
-    <t>스위치</t>
-  </si>
-  <si>
-    <t>https://kr-a.kakaopagecdn.com/P/C/2683/c2/2x/638a45d1-9568-4f85-b846-35c64f52d841.png</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/스위치/2683</t>
-  </si>
-  <si>
-    <t>https://kr-a.kakaopagecdn.com/P/C/2592/c2/2x/e33a9ab9-a998-4b10-b777-19080ed87059.png</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/사장님의-특별지시/2592</t>
-  </si>
-  <si>
-    <t>나도 있어! 근육</t>
-  </si>
-  <si>
-    <t>https://kr-a.kakaopagecdn.com/P/C/2797/c2/2x/85b4f2cd-0784-4e3e-b207-553faf1231ed.png</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/나도-있어-근육/2797</t>
-  </si>
-  <si>
-    <t>이대로 멈출 순 없다</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/이대로-멈출-순-없다/1703</t>
-  </si>
-  <si>
-    <t>환율이 바뀌었나요?</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/환율이-바뀌었나요/2086</t>
-  </si>
-  <si>
-    <t>그라티아</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/그라티아/1621</t>
-  </si>
-  <si>
-    <t>타원을 그리는 법</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/타원을-그리는-법/1768</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/롱리브더킹/2302</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/환골탈태/2329</t>
-  </si>
-  <si>
-    <t>복마전</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/복마전/2805</t>
-  </si>
-  <si>
-    <t>나의 꼬마 선생님</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/나의-꼬마-선생님/2841</t>
-  </si>
-  <si>
-    <t>이계막차</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/이계막차/2772</t>
-  </si>
-  <si>
-    <t>안젤리카</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/안젤리카/2851</t>
-  </si>
-  <si>
-    <t>가비왕</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/가비왕/2598</t>
-  </si>
-  <si>
-    <t>연애 ㄴㄴ</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/연애-ㄴㄴ/2771</t>
-  </si>
-  <si>
-    <t>천인의 신부</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/천인의-신부/2423</t>
-  </si>
-  <si>
-    <t>월요일이 사라졌다</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/월요일이-사라졌다/2929</t>
-  </si>
-  <si>
-    <t>취접냉월</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/취접냉월/2803</t>
-  </si>
-  <si>
-    <t>조류공포증</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/조류공포증/1716</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/뒤끝작렬/2666</t>
-  </si>
-  <si>
-    <t>오무라이스 잼잼</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/오무라이스-잼잼/198</t>
-  </si>
-  <si>
-    <t>액괴</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/액괴/2147</t>
-  </si>
-  <si>
-    <t>쓰레기 머학생</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/쓰레기-머학생/1903</t>
-  </si>
-  <si>
-    <t>그 책에 마음을 주지 마세요</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/그-책에-마음을-주지-마세요/2143</t>
-  </si>
-  <si>
-    <t>일단 질러! 질렐루야</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/일단-질러-질렐루야/1140</t>
-  </si>
-  <si>
-    <t>유부녀의 탄생</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/유부녀의-탄생/1078</t>
-  </si>
-  <si>
-    <t>종말 후 라이브</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/종말-후-라이브/2763</t>
-  </si>
-  <si>
-    <t>아싸가 알아버렸다</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/아싸가-알아버렸다/1847</t>
-  </si>
-  <si>
-    <t>https://webtoon.kakao.com/content/바니와-오빠들/1781</t>
+    <t>https://webtoon.kakao.com/content/바다의-그림자/2560</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/그녀의-앵무새/1863</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/닥터-파인의-하루/1827</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/2D-남친과-엔딩을-보는-법/2921</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/수린당-비늘-고치는-집/2074</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/천광명월/2153</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/옆집-이방인/2601</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/교환-남녀/2764</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/안녕은하세요/2819</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/도토리-문화센터/2557</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/후크/1381</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/곤/2843</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/블랙-베히모스/792</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/금수친구들/1909</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/아씨의-법정/2897</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/버니-로즈/2842</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/구원/2130</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/지금부터-속편이-시작됩니다/2856</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/악녀의-데뷔작/2588</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/배신-주의-로맨스/2889</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/뉴비-매니지먼트/2869</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/동솔동-아이들/2687</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/4명-중-1명은-죽는다/2815</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/오적도/2733</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/죽어도-치우/1923</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/나에게-온-달/2639</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/뇌명의-하라/2836</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/저승사자-온라인/2022</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/이-소원은-취소/2696</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/보지-마-안-괜찮아-불법이야/2820</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/유부녀-킬러/1963</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/방구석-여포/2118</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/칼집의-아이/2368</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/러브샷/2759</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/우리가-사랑하는-방법/1468</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/남주와-그리는-로맨스/2741</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/최강왕따/2942</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/길동/2934</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/관존-이강진/2155</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/프레너미/1361</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/매화꽃그늘/2789</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/징크스의-연인/1339</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/시간이-머문-집/2020</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/재벌과의-인터뷰/1861</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/살어리랏다/1939</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/아오링-도쿄/2720</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/우리-동네-삐-/2681</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/내가-죄인이오/2691</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/초상화/1456</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/모텔-오아시스/2597</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/당신과는-절대/2831</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/나를-지켜줘/2100</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/어쩌다-햄스터/2724</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/눈이-나려-꽃/2631</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/오-나의-퀸/2750</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/쑥/2119</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/청소하는-대학동기/2919</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/죽고-싶지만-떡볶이는-먹고-싶어/2792</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/그리고-소녀가-검을-든다/2874</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/업데이터/2742</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/샤먼-트리트먼트/1743</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/용병학교/2875</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/Dr.브레인/1315</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/사람이라호/2814</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/도깨비언덕에-왜-왔니/982</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/26번째-살인/2510</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/24분의-1-로맨스/2650</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/뽀짜툰/933</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/백로식당/2075</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/늑대-대공의-반려인간/2778</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/백의사자/2042</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/이염移染/2938</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/내게-볕이-닿지-않아도/2928</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/바리공주/1405</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/퀴퀴한-일기/1295</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/열무와-알타리/1855</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/적당한-온도/2112</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/양아치의-스피치/2788</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/더-챌린저/2536</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/우리가-헤어진-사이에/2004</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/우리-청춘의-사랑은/2600</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/김탐정-사용설명서/1298</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/키몽의-호구로운-생활/1577</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/고스트-터미널/2898</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/닭은-의외로-위대하다/1816</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/로엘린은-미래를-걷는다/2522</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/귀의하나이다/2712</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/네가-죽은-세계의-나/2920</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/파륜아이/1999</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/금강야차/2936</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/취향의-문제/2781</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/케어시트/2559</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/최경민-단편집/2882</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/미스터리-록앤-시트러스/2808</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/천-개의-달이-뜨면/2643</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/드라코런/2595</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/봄을-그린-화원/2855</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/이별로-와요/2887</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/크레센도/2097</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/미완결/1882</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/너를-죽이는-방법/2663</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/통-속의-브레인/2775</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/그때-우리가-조아한/2690</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/백작가의-불청객들/2141</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/허약선생/2080</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/이토록-보통의/1351</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/후궁공략/1986</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/귀싸대기/2626</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/반지하셋방/1347</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/왕관-없는-여왕/2753</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/며느라기/2714</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/랑데부/1836</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/이봐요-아기-공작님-누나만-믿어/2878</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/샤크/2308</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/한따까리/2806</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/이렇게-바보일리-없어/2534</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/풍검/1545</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/레드라인/2614</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/극락왕생/2680</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/선택은-하나/2131</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/번아웃쇼크/2743</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/부기영화/2343</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/나의-추락이-찬란하도록/2726</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/순정-히포크라테스/1689</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/우리반-숙경이/2068</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/별똥별이-떨어지는-그-곳에서-기다려/1531</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/샤먼/2703</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/만년-소녀/2777</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/슬프게도-이게-내-인생/1575</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/하렘생존기/1776</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/배고픈-킬러/2707</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/계시록/2838</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/퍼펙트-마인/2015</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/그-아해/2133</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/사랑의-순간/2744</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/효정의-발화점/2793</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/이상징후/2154</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/계단/2713</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/간지몬스터/2619</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/D-30/2722</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/복원가의-집/2611</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/남산도서관-환생-북클럽/2835</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/주문을-말해-로즈/2749</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/미래의-사진/1982</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/짝과-적/2756</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/질투유발자들/2024</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/내일도-출근/1873</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/언데드킹/2300</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/크라우드/2029</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/백의조각/2150</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/무법대학/2517</t>
+  </si>
+  <si>
+    <t>1이 사라졌다</t>
+  </si>
+  <si>
+    <t>https://webtoon.kakao.com/content/1이-사라졌다/2929</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7897,13 +8984,6 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="돋움"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7930,16 +9010,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8259,8 +9336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288D9886-854C-CE4C-9662-F1FEE0402E1E}">
   <dimension ref="A1:I1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A925" workbookViewId="0">
+      <selection activeCell="J955" sqref="J955"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -29303,16 +30380,16 @@
       <c r="D726" t="s">
         <v>2531</v>
       </c>
-      <c r="E726" s="3" t="s">
+      <c r="E726" t="s">
+        <v>2604</v>
+      </c>
+      <c r="F726" t="s">
         <v>2532</v>
       </c>
-      <c r="F726" t="s">
-        <v>2533</v>
-      </c>
       <c r="G726" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H726" s="4">
+      <c r="H726">
         <v>1</v>
       </c>
       <c r="I726" s="1">
@@ -29324,19 +30401,19 @@
         <v>2043</v>
       </c>
       <c r="B727" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C727" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D727" t="s">
         <v>2534</v>
       </c>
-      <c r="C727" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D727" t="s">
+      <c r="E727" t="s">
         <v>2535</v>
       </c>
-      <c r="E727" t="s">
-        <v>2536</v>
-      </c>
       <c r="F727" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G727" s="1" t="s">
         <v>6</v>
@@ -29353,19 +30430,19 @@
         <v>1959</v>
       </c>
       <c r="B728" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C728" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D728" t="s">
         <v>2537</v>
       </c>
-      <c r="C728" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D728" t="s">
+      <c r="E728" t="s">
         <v>2538</v>
       </c>
-      <c r="E728" t="s">
-        <v>2539</v>
-      </c>
       <c r="F728" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G728" s="1" t="s">
         <v>6</v>
@@ -29382,19 +30459,19 @@
         <v>2589</v>
       </c>
       <c r="B729" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C729" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D729" t="s">
         <v>2540</v>
       </c>
-      <c r="C729" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D729" t="s">
+      <c r="E729" t="s">
         <v>2541</v>
       </c>
-      <c r="E729" t="s">
-        <v>2542</v>
-      </c>
       <c r="F729" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G729" s="1" t="s">
         <v>6</v>
@@ -29411,19 +30488,19 @@
         <v>2715</v>
       </c>
       <c r="B730" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C730" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D730" t="s">
         <v>2543</v>
       </c>
-      <c r="C730" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D730" t="s">
+      <c r="E730" t="s">
         <v>2544</v>
       </c>
-      <c r="E730" t="s">
-        <v>2545</v>
-      </c>
       <c r="F730" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G730" s="1" t="s">
         <v>6</v>
@@ -29440,19 +30517,19 @@
         <v>1437</v>
       </c>
       <c r="B731" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C731" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D731" t="s">
         <v>2546</v>
       </c>
-      <c r="C731" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D731" t="s">
+      <c r="E731" t="s">
         <v>2547</v>
       </c>
-      <c r="E731" t="s">
-        <v>2548</v>
-      </c>
       <c r="F731" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G731" s="1" t="s">
         <v>6</v>
@@ -29469,19 +30546,19 @@
         <v>1931</v>
       </c>
       <c r="B732" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D732" t="s">
         <v>2549</v>
       </c>
-      <c r="C732" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D732" t="s">
+      <c r="E732" t="s">
         <v>2550</v>
       </c>
-      <c r="E732" t="s">
-        <v>2551</v>
-      </c>
       <c r="F732" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G732" s="1" t="s">
         <v>6</v>
@@ -29498,19 +30575,19 @@
         <v>2683</v>
       </c>
       <c r="B733" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C733" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D733" t="s">
         <v>2552</v>
       </c>
-      <c r="C733" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D733" t="s">
+      <c r="E733" t="s">
         <v>2553</v>
       </c>
-      <c r="E733" t="s">
-        <v>2554</v>
-      </c>
       <c r="F733" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G733" s="1" t="s">
         <v>6</v>
@@ -29533,13 +30610,13 @@
         <v>2</v>
       </c>
       <c r="D734" t="s">
+        <v>2554</v>
+      </c>
+      <c r="E734" t="s">
         <v>2555</v>
       </c>
-      <c r="E734" t="s">
-        <v>2556</v>
-      </c>
       <c r="F734" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G734" s="1" t="s">
         <v>6</v>
@@ -29556,19 +30633,19 @@
         <v>2797</v>
       </c>
       <c r="B735" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C735" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D735" t="s">
         <v>2557</v>
       </c>
-      <c r="C735" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D735" t="s">
+      <c r="E735" t="s">
         <v>2558</v>
       </c>
-      <c r="E735" t="s">
-        <v>2559</v>
-      </c>
       <c r="F735" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G735" s="1" t="s">
         <v>6</v>
@@ -29585,16 +30662,19 @@
         <v>1703</v>
       </c>
       <c r="B736" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C736" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D736" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E736" t="s">
         <v>2560</v>
       </c>
-      <c r="C736" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E736" t="s">
-        <v>2561</v>
-      </c>
       <c r="F736" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G736" s="1" t="s">
         <v>6</v>
@@ -29611,16 +30691,19 @@
         <v>2086</v>
       </c>
       <c r="B737" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C737" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D737" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E737" t="s">
         <v>2562</v>
       </c>
-      <c r="C737" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E737" t="s">
-        <v>2563</v>
-      </c>
       <c r="F737" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G737" s="1" t="s">
         <v>6</v>
@@ -29637,16 +30720,19 @@
         <v>1621</v>
       </c>
       <c r="B738" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C738" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D738" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E738" t="s">
         <v>2564</v>
       </c>
-      <c r="C738" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E738" t="s">
-        <v>2565</v>
-      </c>
       <c r="F738" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G738" s="1" t="s">
         <v>6</v>
@@ -29663,16 +30749,19 @@
         <v>1768</v>
       </c>
       <c r="B739" t="s">
+        <v>2565</v>
+      </c>
+      <c r="C739" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D739" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E739" t="s">
         <v>2566</v>
       </c>
-      <c r="C739" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E739" t="s">
-        <v>2567</v>
-      </c>
       <c r="F739" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G739" s="1" t="s">
         <v>6</v>
@@ -29694,11 +30783,14 @@
       <c r="C740" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D740" t="s">
+        <v>2605</v>
+      </c>
       <c r="E740" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="F740" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G740" s="1" t="s">
         <v>6</v>
@@ -29720,11 +30812,14 @@
       <c r="C741" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D741" t="s">
+        <v>2605</v>
+      </c>
       <c r="E741" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="F741" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G741" s="1" t="s">
         <v>6</v>
@@ -29741,16 +30836,19 @@
         <v>2805</v>
       </c>
       <c r="B742" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C742" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D742" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E742" t="s">
         <v>2570</v>
       </c>
-      <c r="C742" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E742" t="s">
-        <v>2571</v>
-      </c>
       <c r="F742" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G742" s="1" t="s">
         <v>6</v>
@@ -29767,16 +30865,19 @@
         <v>2841</v>
       </c>
       <c r="B743" t="s">
+        <v>2571</v>
+      </c>
+      <c r="C743" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D743" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E743" t="s">
         <v>2572</v>
       </c>
-      <c r="C743" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E743" t="s">
-        <v>2573</v>
-      </c>
       <c r="F743" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G743" s="1" t="s">
         <v>6</v>
@@ -29793,16 +30894,19 @@
         <v>2772</v>
       </c>
       <c r="B744" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C744" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D744" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E744" t="s">
         <v>2574</v>
       </c>
-      <c r="C744" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E744" t="s">
-        <v>2575</v>
-      </c>
       <c r="F744" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G744" s="1" t="s">
         <v>6</v>
@@ -29819,16 +30923,19 @@
         <v>2851</v>
       </c>
       <c r="B745" t="s">
+        <v>2575</v>
+      </c>
+      <c r="C745" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D745" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E745" t="s">
         <v>2576</v>
       </c>
-      <c r="C745" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E745" t="s">
-        <v>2577</v>
-      </c>
       <c r="F745" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G745" s="1" t="s">
         <v>6</v>
@@ -29845,16 +30952,19 @@
         <v>2598</v>
       </c>
       <c r="B746" t="s">
+        <v>2577</v>
+      </c>
+      <c r="C746" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D746" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E746" t="s">
         <v>2578</v>
       </c>
-      <c r="C746" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E746" t="s">
-        <v>2579</v>
-      </c>
       <c r="F746" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G746" s="1" t="s">
         <v>6</v>
@@ -29871,16 +30981,19 @@
         <v>2771</v>
       </c>
       <c r="B747" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C747" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D747" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E747" t="s">
         <v>2580</v>
       </c>
-      <c r="C747" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E747" t="s">
-        <v>2581</v>
-      </c>
       <c r="F747" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G747" s="1" t="s">
         <v>6</v>
@@ -29897,16 +31010,19 @@
         <v>2423</v>
       </c>
       <c r="B748" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C748" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D748" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E748" t="s">
         <v>2582</v>
       </c>
-      <c r="C748" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E748" t="s">
-        <v>2583</v>
-      </c>
       <c r="F748" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G748" s="1" t="s">
         <v>6</v>
@@ -29923,16 +31039,19 @@
         <v>2929</v>
       </c>
       <c r="B749" t="s">
-        <v>2584</v>
+        <v>2968</v>
       </c>
       <c r="C749" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D749" t="s">
+        <v>2605</v>
+      </c>
       <c r="E749" t="s">
-        <v>2585</v>
+        <v>2969</v>
       </c>
       <c r="F749" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G749" s="1" t="s">
         <v>6</v>
@@ -29949,16 +31068,19 @@
         <v>2803</v>
       </c>
       <c r="B750" t="s">
-        <v>2586</v>
+        <v>2583</v>
       </c>
       <c r="C750" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D750" t="s">
+        <v>2605</v>
+      </c>
       <c r="E750" t="s">
-        <v>2587</v>
+        <v>2584</v>
       </c>
       <c r="F750" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G750" s="1" t="s">
         <v>6</v>
@@ -29975,16 +31097,19 @@
         <v>1716</v>
       </c>
       <c r="B751" t="s">
-        <v>2588</v>
+        <v>2585</v>
       </c>
       <c r="C751" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D751" t="s">
+        <v>2605</v>
+      </c>
       <c r="E751" t="s">
-        <v>2589</v>
+        <v>2586</v>
       </c>
       <c r="F751" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G751" s="1" t="s">
         <v>6</v>
@@ -30006,11 +31131,14 @@
       <c r="C752" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D752" t="s">
+        <v>2605</v>
+      </c>
       <c r="E752" t="s">
-        <v>2590</v>
+        <v>2587</v>
       </c>
       <c r="F752" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G752" s="1" t="s">
         <v>6</v>
@@ -30027,16 +31155,19 @@
         <v>198</v>
       </c>
       <c r="B753" t="s">
-        <v>2591</v>
+        <v>2588</v>
       </c>
       <c r="C753" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D753" t="s">
+        <v>2605</v>
+      </c>
       <c r="E753" t="s">
-        <v>2592</v>
+        <v>2589</v>
       </c>
       <c r="F753" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G753" s="1" t="s">
         <v>6</v>
@@ -30053,16 +31184,19 @@
         <v>2147</v>
       </c>
       <c r="B754" t="s">
-        <v>2593</v>
+        <v>2590</v>
       </c>
       <c r="C754" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D754" t="s">
+        <v>2605</v>
+      </c>
       <c r="E754" t="s">
-        <v>2594</v>
+        <v>2591</v>
       </c>
       <c r="F754" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G754" s="1" t="s">
         <v>6</v>
@@ -30079,16 +31213,19 @@
         <v>1903</v>
       </c>
       <c r="B755" t="s">
-        <v>2595</v>
+        <v>2592</v>
       </c>
       <c r="C755" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D755" t="s">
+        <v>2605</v>
+      </c>
       <c r="E755" t="s">
-        <v>2596</v>
+        <v>2593</v>
       </c>
       <c r="F755" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G755" s="1" t="s">
         <v>6</v>
@@ -30105,16 +31242,19 @@
         <v>2143</v>
       </c>
       <c r="B756" t="s">
-        <v>2597</v>
+        <v>2594</v>
       </c>
       <c r="C756" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D756" t="s">
+        <v>2605</v>
+      </c>
       <c r="E756" t="s">
-        <v>2598</v>
+        <v>2595</v>
       </c>
       <c r="F756" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G756" s="1" t="s">
         <v>6</v>
@@ -30131,16 +31271,19 @@
         <v>1140</v>
       </c>
       <c r="B757" t="s">
-        <v>2599</v>
+        <v>2596</v>
       </c>
       <c r="C757" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D757" t="s">
+        <v>2605</v>
+      </c>
       <c r="E757" t="s">
-        <v>2600</v>
+        <v>2597</v>
       </c>
       <c r="F757" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G757" s="1" t="s">
         <v>6</v>
@@ -30157,16 +31300,19 @@
         <v>1078</v>
       </c>
       <c r="B758" t="s">
-        <v>2601</v>
+        <v>2598</v>
       </c>
       <c r="C758" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D758" t="s">
+        <v>2605</v>
+      </c>
       <c r="E758" t="s">
-        <v>2602</v>
+        <v>2599</v>
       </c>
       <c r="F758" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G758" s="1" t="s">
         <v>6</v>
@@ -30183,16 +31329,19 @@
         <v>2763</v>
       </c>
       <c r="B759" t="s">
-        <v>2603</v>
+        <v>2600</v>
       </c>
       <c r="C759" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D759" t="s">
+        <v>2605</v>
+      </c>
       <c r="E759" t="s">
-        <v>2604</v>
+        <v>2601</v>
       </c>
       <c r="F759" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G759" s="1" t="s">
         <v>6</v>
@@ -30209,16 +31358,19 @@
         <v>1847</v>
       </c>
       <c r="B760" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C760" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D760" t="s">
         <v>2605</v>
       </c>
-      <c r="C760" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E760" t="s">
-        <v>2606</v>
+        <v>2603</v>
       </c>
       <c r="F760" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G760" s="1" t="s">
         <v>6</v>
@@ -30232,19 +31384,22 @@
     </row>
     <row r="761" spans="1:9">
       <c r="A761">
-        <v>1781</v>
+        <v>2924</v>
       </c>
       <c r="B761" t="s">
-        <v>2530</v>
+        <v>2606</v>
       </c>
       <c r="C761" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D761" t="s">
+        <v>2605</v>
+      </c>
       <c r="E761" t="s">
-        <v>2607</v>
+        <v>2786</v>
       </c>
       <c r="F761" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G761" s="1" t="s">
         <v>6</v>
@@ -30258,19 +31413,22 @@
     </row>
     <row r="762" spans="1:9">
       <c r="A762">
-        <v>2043</v>
+        <v>1395</v>
       </c>
       <c r="B762" t="s">
-        <v>2534</v>
+        <v>2607</v>
       </c>
       <c r="C762" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D762" t="s">
+        <v>2605</v>
+      </c>
       <c r="E762" t="s">
-        <v>2536</v>
+        <v>2787</v>
       </c>
       <c r="F762" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G762" s="1" t="s">
         <v>6</v>
@@ -30284,19 +31442,22 @@
     </row>
     <row r="763" spans="1:9">
       <c r="A763">
-        <v>1959</v>
+        <v>1943</v>
       </c>
       <c r="B763" t="s">
-        <v>2537</v>
+        <v>2608</v>
       </c>
       <c r="C763" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D763" t="s">
+        <v>2605</v>
+      </c>
       <c r="E763" t="s">
-        <v>2539</v>
+        <v>2788</v>
       </c>
       <c r="F763" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G763" s="1" t="s">
         <v>6</v>
@@ -30310,19 +31471,22 @@
     </row>
     <row r="764" spans="1:9">
       <c r="A764">
-        <v>2589</v>
+        <v>1877</v>
       </c>
       <c r="B764" t="s">
-        <v>2540</v>
+        <v>2609</v>
       </c>
       <c r="C764" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D764" t="s">
+        <v>2605</v>
+      </c>
       <c r="E764" t="s">
-        <v>2542</v>
+        <v>2789</v>
       </c>
       <c r="F764" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G764" s="1" t="s">
         <v>6</v>
@@ -30336,19 +31500,22 @@
     </row>
     <row r="765" spans="1:9">
       <c r="A765">
-        <v>2715</v>
+        <v>1998</v>
       </c>
       <c r="B765" t="s">
-        <v>2543</v>
+        <v>2610</v>
       </c>
       <c r="C765" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D765" t="s">
+        <v>2605</v>
+      </c>
       <c r="E765" t="s">
-        <v>2545</v>
+        <v>2790</v>
       </c>
       <c r="F765" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G765" s="1" t="s">
         <v>6</v>
@@ -30362,19 +31529,22 @@
     </row>
     <row r="766" spans="1:9">
       <c r="A766">
-        <v>1437</v>
+        <v>1891</v>
       </c>
       <c r="B766" t="s">
-        <v>2546</v>
+        <v>2611</v>
       </c>
       <c r="C766" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D766" t="s">
+        <v>2605</v>
+      </c>
       <c r="E766" t="s">
-        <v>2548</v>
+        <v>2791</v>
       </c>
       <c r="F766" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G766" s="1" t="s">
         <v>6</v>
@@ -30388,19 +31558,22 @@
     </row>
     <row r="767" spans="1:9">
       <c r="A767">
-        <v>1931</v>
+        <v>1673</v>
       </c>
       <c r="B767" t="s">
-        <v>2549</v>
+        <v>2612</v>
       </c>
       <c r="C767" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D767" t="s">
+        <v>2605</v>
+      </c>
       <c r="E767" t="s">
-        <v>2551</v>
+        <v>2792</v>
       </c>
       <c r="F767" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G767" s="1" t="s">
         <v>6</v>
@@ -30414,19 +31587,22 @@
     </row>
     <row r="768" spans="1:9">
       <c r="A768">
-        <v>2683</v>
+        <v>1047</v>
       </c>
       <c r="B768" t="s">
-        <v>2552</v>
+        <v>2613</v>
       </c>
       <c r="C768" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D768" t="s">
+        <v>2605</v>
+      </c>
       <c r="E768" t="s">
-        <v>2554</v>
+        <v>2793</v>
       </c>
       <c r="F768" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G768" s="1" t="s">
         <v>6</v>
@@ -30440,19 +31616,22 @@
     </row>
     <row r="769" spans="1:9">
       <c r="A769">
-        <v>2592</v>
+        <v>2140</v>
       </c>
       <c r="B769" t="s">
-        <v>2210</v>
+        <v>2614</v>
       </c>
       <c r="C769" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D769" t="s">
+        <v>2605</v>
+      </c>
       <c r="E769" t="s">
-        <v>2556</v>
+        <v>2794</v>
       </c>
       <c r="F769" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G769" s="1" t="s">
         <v>6</v>
@@ -30466,19 +31645,22 @@
     </row>
     <row r="770" spans="1:9">
       <c r="A770">
-        <v>2797</v>
+        <v>2117</v>
       </c>
       <c r="B770" t="s">
-        <v>2557</v>
+        <v>2615</v>
       </c>
       <c r="C770" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D770" t="s">
+        <v>2605</v>
+      </c>
       <c r="E770" t="s">
-        <v>2559</v>
+        <v>2795</v>
       </c>
       <c r="F770" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G770" s="1" t="s">
         <v>6</v>
@@ -30492,19 +31674,22 @@
     </row>
     <row r="771" spans="1:9">
       <c r="A771">
-        <v>1703</v>
+        <v>2908</v>
       </c>
       <c r="B771" t="s">
-        <v>2560</v>
+        <v>2616</v>
       </c>
       <c r="C771" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D771" t="s">
+        <v>2605</v>
+      </c>
       <c r="E771" t="s">
-        <v>2561</v>
+        <v>2796</v>
       </c>
       <c r="F771" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G771" s="1" t="s">
         <v>6</v>
@@ -30518,19 +31703,22 @@
     </row>
     <row r="772" spans="1:9">
       <c r="A772">
-        <v>2086</v>
+        <v>2849</v>
       </c>
       <c r="B772" t="s">
-        <v>2562</v>
+        <v>2617</v>
       </c>
       <c r="C772" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D772" t="s">
+        <v>2605</v>
+      </c>
       <c r="E772" t="s">
-        <v>2563</v>
+        <v>2797</v>
       </c>
       <c r="F772" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G772" s="1" t="s">
         <v>6</v>
@@ -30544,19 +31732,22 @@
     </row>
     <row r="773" spans="1:9">
       <c r="A773">
-        <v>1621</v>
+        <v>2868</v>
       </c>
       <c r="B773" t="s">
-        <v>2564</v>
+        <v>2618</v>
       </c>
       <c r="C773" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D773" t="s">
+        <v>2605</v>
+      </c>
       <c r="E773" t="s">
-        <v>2565</v>
+        <v>2798</v>
       </c>
       <c r="F773" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G773" s="1" t="s">
         <v>6</v>
@@ -30570,19 +31761,22 @@
     </row>
     <row r="774" spans="1:9">
       <c r="A774">
-        <v>1768</v>
+        <v>2796</v>
       </c>
       <c r="B774" t="s">
-        <v>2566</v>
+        <v>2619</v>
       </c>
       <c r="C774" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D774" t="s">
+        <v>2605</v>
+      </c>
       <c r="E774" t="s">
-        <v>2567</v>
+        <v>2799</v>
       </c>
       <c r="F774" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G774" s="1" t="s">
         <v>6</v>
@@ -30596,19 +31790,22 @@
     </row>
     <row r="775" spans="1:9">
       <c r="A775">
-        <v>2302</v>
+        <v>2364</v>
       </c>
       <c r="B775" t="s">
-        <v>2226</v>
+        <v>2620</v>
       </c>
       <c r="C775" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D775" t="s">
+        <v>2605</v>
+      </c>
       <c r="E775" t="s">
-        <v>2568</v>
+        <v>2800</v>
       </c>
       <c r="F775" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G775" s="1" t="s">
         <v>6</v>
@@ -30622,19 +31819,22 @@
     </row>
     <row r="776" spans="1:9">
       <c r="A776">
-        <v>2329</v>
+        <v>2046</v>
       </c>
       <c r="B776" t="s">
-        <v>2232</v>
+        <v>2621</v>
       </c>
       <c r="C776" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D776" t="s">
+        <v>2605</v>
+      </c>
       <c r="E776" t="s">
-        <v>2569</v>
+        <v>2801</v>
       </c>
       <c r="F776" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G776" s="1" t="s">
         <v>6</v>
@@ -30648,19 +31848,22 @@
     </row>
     <row r="777" spans="1:9">
       <c r="A777">
-        <v>2805</v>
+        <v>2599</v>
       </c>
       <c r="B777" t="s">
-        <v>2570</v>
+        <v>2622</v>
       </c>
       <c r="C777" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D777" t="s">
+        <v>2605</v>
+      </c>
       <c r="E777" t="s">
-        <v>2571</v>
+        <v>2802</v>
       </c>
       <c r="F777" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G777" s="1" t="s">
         <v>6</v>
@@ -30674,19 +31877,22 @@
     </row>
     <row r="778" spans="1:9">
       <c r="A778">
-        <v>2841</v>
+        <v>2623</v>
       </c>
       <c r="B778" t="s">
-        <v>2572</v>
+        <v>2623</v>
       </c>
       <c r="C778" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D778" t="s">
+        <v>2605</v>
+      </c>
       <c r="E778" t="s">
-        <v>2573</v>
+        <v>2803</v>
       </c>
       <c r="F778" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G778" s="1" t="s">
         <v>6</v>
@@ -30700,19 +31906,22 @@
     </row>
     <row r="779" spans="1:9">
       <c r="A779">
-        <v>2772</v>
+        <v>2915</v>
       </c>
       <c r="B779" t="s">
-        <v>2574</v>
+        <v>2624</v>
       </c>
       <c r="C779" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D779" t="s">
+        <v>2605</v>
+      </c>
       <c r="E779" t="s">
-        <v>2575</v>
+        <v>2804</v>
       </c>
       <c r="F779" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G779" s="1" t="s">
         <v>6</v>
@@ -30726,19 +31935,22 @@
     </row>
     <row r="780" spans="1:9">
       <c r="A780">
-        <v>2851</v>
-      </c>
-      <c r="B780" t="s">
-        <v>2576</v>
+        <v>2837</v>
+      </c>
+      <c r="B780">
+        <v>106</v>
       </c>
       <c r="C780" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D780" t="s">
+        <v>2605</v>
+      </c>
       <c r="E780" t="s">
-        <v>2577</v>
+        <v>2805</v>
       </c>
       <c r="F780" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G780" s="1" t="s">
         <v>6</v>
@@ -30752,19 +31964,22 @@
     </row>
     <row r="781" spans="1:9">
       <c r="A781">
-        <v>2598</v>
+        <v>2516</v>
       </c>
       <c r="B781" t="s">
-        <v>2578</v>
+        <v>2625</v>
       </c>
       <c r="C781" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D781" t="s">
+        <v>2605</v>
+      </c>
       <c r="E781" t="s">
-        <v>2579</v>
+        <v>2806</v>
       </c>
       <c r="F781" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G781" s="1" t="s">
         <v>6</v>
@@ -30778,19 +31993,22 @@
     </row>
     <row r="782" spans="1:9">
       <c r="A782">
-        <v>2771</v>
+        <v>2794</v>
       </c>
       <c r="B782" t="s">
-        <v>2580</v>
+        <v>2626</v>
       </c>
       <c r="C782" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D782" t="s">
+        <v>2605</v>
+      </c>
       <c r="E782" t="s">
-        <v>2581</v>
+        <v>2807</v>
       </c>
       <c r="F782" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G782" s="1" t="s">
         <v>6</v>
@@ -30804,19 +32022,22 @@
     </row>
     <row r="783" spans="1:9">
       <c r="A783">
-        <v>2423</v>
+        <v>2144</v>
       </c>
       <c r="B783" t="s">
-        <v>2582</v>
+        <v>2627</v>
       </c>
       <c r="C783" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D783" t="s">
+        <v>2605</v>
+      </c>
       <c r="E783" t="s">
-        <v>2583</v>
+        <v>2808</v>
       </c>
       <c r="F783" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G783" s="1" t="s">
         <v>6</v>
@@ -30830,19 +32051,22 @@
     </row>
     <row r="784" spans="1:9">
       <c r="A784">
-        <v>2929</v>
+        <v>93</v>
       </c>
       <c r="B784" t="s">
-        <v>2584</v>
+        <v>2628</v>
       </c>
       <c r="C784" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D784" t="s">
+        <v>2605</v>
+      </c>
       <c r="E784" t="s">
-        <v>2585</v>
+        <v>2809</v>
       </c>
       <c r="F784" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G784" s="1" t="s">
         <v>6</v>
@@ -30856,19 +32080,22 @@
     </row>
     <row r="785" spans="1:9">
       <c r="A785">
-        <v>2803</v>
+        <v>2774</v>
       </c>
       <c r="B785" t="s">
-        <v>2586</v>
+        <v>2629</v>
       </c>
       <c r="C785" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D785" t="s">
+        <v>2605</v>
+      </c>
       <c r="E785" t="s">
-        <v>2587</v>
+        <v>2810</v>
       </c>
       <c r="F785" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G785" s="1" t="s">
         <v>6</v>
@@ -30882,19 +32109,22 @@
     </row>
     <row r="786" spans="1:9">
       <c r="A786">
-        <v>1716</v>
+        <v>2544</v>
       </c>
       <c r="B786" t="s">
-        <v>2588</v>
+        <v>2630</v>
       </c>
       <c r="C786" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D786" t="s">
+        <v>2605</v>
+      </c>
       <c r="E786" t="s">
-        <v>2589</v>
+        <v>2811</v>
       </c>
       <c r="F786" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G786" s="1" t="s">
         <v>6</v>
@@ -30908,19 +32138,22 @@
     </row>
     <row r="787" spans="1:9">
       <c r="A787">
-        <v>2666</v>
+        <v>2017</v>
       </c>
       <c r="B787" t="s">
-        <v>2240</v>
+        <v>2631</v>
       </c>
       <c r="C787" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D787" t="s">
+        <v>2605</v>
+      </c>
       <c r="E787" t="s">
-        <v>2590</v>
+        <v>2812</v>
       </c>
       <c r="F787" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G787" s="1" t="s">
         <v>6</v>
@@ -30934,19 +32167,22 @@
     </row>
     <row r="788" spans="1:9">
       <c r="A788">
-        <v>2147</v>
+        <v>1825</v>
       </c>
       <c r="B788" t="s">
-        <v>2593</v>
+        <v>2632</v>
       </c>
       <c r="C788" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D788" t="s">
+        <v>2605</v>
+      </c>
       <c r="E788" t="s">
-        <v>2594</v>
+        <v>2813</v>
       </c>
       <c r="F788" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G788" s="1" t="s">
         <v>6</v>
@@ -30960,19 +32196,22 @@
     </row>
     <row r="789" spans="1:9">
       <c r="A789">
-        <v>1903</v>
+        <v>2034</v>
       </c>
       <c r="B789" t="s">
-        <v>2595</v>
+        <v>2633</v>
       </c>
       <c r="C789" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D789" t="s">
+        <v>2605</v>
+      </c>
       <c r="E789" t="s">
-        <v>2596</v>
+        <v>2814</v>
       </c>
       <c r="F789" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G789" s="1" t="s">
         <v>6</v>
@@ -30986,19 +32225,22 @@
     </row>
     <row r="790" spans="1:9">
       <c r="A790">
-        <v>2143</v>
+        <v>2773</v>
       </c>
       <c r="B790" t="s">
-        <v>2597</v>
+        <v>2634</v>
       </c>
       <c r="C790" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D790" t="s">
+        <v>2605</v>
+      </c>
       <c r="E790" t="s">
-        <v>2598</v>
+        <v>2815</v>
       </c>
       <c r="F790" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G790" s="1" t="s">
         <v>6</v>
@@ -31012,19 +32254,22 @@
     </row>
     <row r="791" spans="1:9">
       <c r="A791">
-        <v>1140</v>
+        <v>760</v>
       </c>
       <c r="B791" t="s">
-        <v>2599</v>
+        <v>2635</v>
       </c>
       <c r="C791" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E791" t="s">
-        <v>2600</v>
+      <c r="D791" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E791" s="3" t="s">
+        <v>2816</v>
       </c>
       <c r="F791" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G791" s="1" t="s">
         <v>6</v>
@@ -31038,19 +32283,22 @@
     </row>
     <row r="792" spans="1:9">
       <c r="A792">
-        <v>1078</v>
+        <v>2560</v>
       </c>
       <c r="B792" t="s">
-        <v>2601</v>
+        <v>2636</v>
       </c>
       <c r="C792" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D792" t="s">
+        <v>2605</v>
+      </c>
       <c r="E792" t="s">
-        <v>2602</v>
+        <v>2817</v>
       </c>
       <c r="F792" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G792" s="1" t="s">
         <v>6</v>
@@ -31064,19 +32312,22 @@
     </row>
     <row r="793" spans="1:9">
       <c r="A793">
-        <v>2763</v>
+        <v>1863</v>
       </c>
       <c r="B793" t="s">
-        <v>2603</v>
+        <v>2637</v>
       </c>
       <c r="C793" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D793" t="s">
+        <v>2605</v>
+      </c>
       <c r="E793" t="s">
-        <v>2604</v>
+        <v>2818</v>
       </c>
       <c r="F793" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G793" s="1" t="s">
         <v>6</v>
@@ -31090,19 +32341,22 @@
     </row>
     <row r="794" spans="1:9">
       <c r="A794">
-        <v>1847</v>
+        <v>1827</v>
       </c>
       <c r="B794" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C794" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D794" t="s">
         <v>2605</v>
       </c>
-      <c r="C794" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E794" t="s">
-        <v>2606</v>
+        <v>2819</v>
       </c>
       <c r="F794" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G794" s="1" t="s">
         <v>6</v>
@@ -31116,19 +32370,22 @@
     </row>
     <row r="795" spans="1:9">
       <c r="A795">
-        <v>1781</v>
+        <v>2921</v>
       </c>
       <c r="B795" t="s">
-        <v>2530</v>
+        <v>2639</v>
       </c>
       <c r="C795" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D795" t="s">
+        <v>2605</v>
+      </c>
       <c r="E795" t="s">
-        <v>2607</v>
+        <v>2820</v>
       </c>
       <c r="F795" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G795" s="1" t="s">
         <v>6</v>
@@ -31142,19 +32399,22 @@
     </row>
     <row r="796" spans="1:9">
       <c r="A796">
-        <v>2043</v>
+        <v>2074</v>
       </c>
       <c r="B796" t="s">
-        <v>2534</v>
+        <v>2640</v>
       </c>
       <c r="C796" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D796" t="s">
+        <v>2605</v>
+      </c>
       <c r="E796" t="s">
-        <v>2536</v>
+        <v>2821</v>
       </c>
       <c r="F796" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G796" s="1" t="s">
         <v>6</v>
@@ -31168,19 +32428,22 @@
     </row>
     <row r="797" spans="1:9">
       <c r="A797">
-        <v>1959</v>
+        <v>2153</v>
       </c>
       <c r="B797" t="s">
-        <v>2537</v>
+        <v>2641</v>
       </c>
       <c r="C797" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D797" t="s">
+        <v>2605</v>
+      </c>
       <c r="E797" t="s">
-        <v>2539</v>
+        <v>2822</v>
       </c>
       <c r="F797" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G797" s="1" t="s">
         <v>6</v>
@@ -31194,19 +32457,22 @@
     </row>
     <row r="798" spans="1:9">
       <c r="A798">
-        <v>2589</v>
+        <v>2601</v>
       </c>
       <c r="B798" t="s">
-        <v>2540</v>
+        <v>2642</v>
       </c>
       <c r="C798" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D798" t="s">
+        <v>2605</v>
+      </c>
       <c r="E798" t="s">
-        <v>2542</v>
+        <v>2823</v>
       </c>
       <c r="F798" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G798" s="1" t="s">
         <v>6</v>
@@ -31220,19 +32486,22 @@
     </row>
     <row r="799" spans="1:9">
       <c r="A799">
-        <v>2715</v>
+        <v>2764</v>
       </c>
       <c r="B799" t="s">
-        <v>2543</v>
+        <v>2643</v>
       </c>
       <c r="C799" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D799" t="s">
+        <v>2605</v>
+      </c>
       <c r="E799" t="s">
-        <v>2545</v>
+        <v>2824</v>
       </c>
       <c r="F799" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G799" s="1" t="s">
         <v>6</v>
@@ -31246,19 +32515,22 @@
     </row>
     <row r="800" spans="1:9">
       <c r="A800">
-        <v>1437</v>
+        <v>2819</v>
       </c>
       <c r="B800" t="s">
-        <v>2546</v>
+        <v>2644</v>
       </c>
       <c r="C800" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D800" t="s">
+        <v>2605</v>
+      </c>
       <c r="E800" t="s">
-        <v>2548</v>
+        <v>2825</v>
       </c>
       <c r="F800" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G800" s="1" t="s">
         <v>6</v>
@@ -31272,19 +32544,22 @@
     </row>
     <row r="801" spans="1:9">
       <c r="A801">
-        <v>1931</v>
+        <v>2557</v>
       </c>
       <c r="B801" t="s">
-        <v>2549</v>
+        <v>2645</v>
       </c>
       <c r="C801" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D801" t="s">
+        <v>2605</v>
+      </c>
       <c r="E801" t="s">
-        <v>2551</v>
+        <v>2826</v>
       </c>
       <c r="F801" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G801" s="1" t="s">
         <v>6</v>
@@ -31298,19 +32573,22 @@
     </row>
     <row r="802" spans="1:9">
       <c r="A802">
-        <v>2683</v>
+        <v>1381</v>
       </c>
       <c r="B802" t="s">
-        <v>2552</v>
+        <v>2646</v>
       </c>
       <c r="C802" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D802" t="s">
+        <v>2605</v>
+      </c>
       <c r="E802" t="s">
-        <v>2554</v>
+        <v>2827</v>
       </c>
       <c r="F802" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G802" s="1" t="s">
         <v>6</v>
@@ -31324,19 +32602,22 @@
     </row>
     <row r="803" spans="1:9">
       <c r="A803">
-        <v>2592</v>
+        <v>2843</v>
       </c>
       <c r="B803" t="s">
-        <v>2210</v>
+        <v>2647</v>
       </c>
       <c r="C803" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D803" t="s">
+        <v>2605</v>
+      </c>
       <c r="E803" t="s">
-        <v>2556</v>
+        <v>2828</v>
       </c>
       <c r="F803" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G803" s="1" t="s">
         <v>6</v>
@@ -31350,19 +32631,22 @@
     </row>
     <row r="804" spans="1:9">
       <c r="A804">
-        <v>2797</v>
+        <v>792</v>
       </c>
       <c r="B804" t="s">
-        <v>2557</v>
+        <v>2648</v>
       </c>
       <c r="C804" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D804" t="s">
+        <v>2605</v>
+      </c>
       <c r="E804" t="s">
-        <v>2559</v>
+        <v>2829</v>
       </c>
       <c r="F804" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G804" s="1" t="s">
         <v>6</v>
@@ -31376,19 +32660,22 @@
     </row>
     <row r="805" spans="1:9">
       <c r="A805">
-        <v>1703</v>
+        <v>1909</v>
       </c>
       <c r="B805" t="s">
-        <v>2560</v>
+        <v>2649</v>
       </c>
       <c r="C805" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D805" t="s">
+        <v>2605</v>
+      </c>
       <c r="E805" t="s">
-        <v>2561</v>
+        <v>2830</v>
       </c>
       <c r="F805" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G805" s="1" t="s">
         <v>6</v>
@@ -31402,19 +32689,22 @@
     </row>
     <row r="806" spans="1:9">
       <c r="A806">
-        <v>2086</v>
+        <v>2897</v>
       </c>
       <c r="B806" t="s">
-        <v>2562</v>
+        <v>2650</v>
       </c>
       <c r="C806" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D806" t="s">
+        <v>2605</v>
+      </c>
       <c r="E806" t="s">
-        <v>2563</v>
+        <v>2831</v>
       </c>
       <c r="F806" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G806" s="1" t="s">
         <v>6</v>
@@ -31428,19 +32718,22 @@
     </row>
     <row r="807" spans="1:9">
       <c r="A807">
-        <v>1621</v>
+        <v>2842</v>
       </c>
       <c r="B807" t="s">
-        <v>2564</v>
+        <v>2651</v>
       </c>
       <c r="C807" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D807" t="s">
+        <v>2605</v>
+      </c>
       <c r="E807" t="s">
-        <v>2565</v>
+        <v>2832</v>
       </c>
       <c r="F807" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G807" s="1" t="s">
         <v>6</v>
@@ -31454,19 +32747,22 @@
     </row>
     <row r="808" spans="1:9">
       <c r="A808">
-        <v>1768</v>
+        <v>2130</v>
       </c>
       <c r="B808" t="s">
-        <v>2566</v>
+        <v>2652</v>
       </c>
       <c r="C808" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D808" t="s">
+        <v>2605</v>
+      </c>
       <c r="E808" t="s">
-        <v>2567</v>
+        <v>2833</v>
       </c>
       <c r="F808" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G808" s="1" t="s">
         <v>6</v>
@@ -31480,19 +32776,22 @@
     </row>
     <row r="809" spans="1:9">
       <c r="A809">
-        <v>2302</v>
+        <v>2856</v>
       </c>
       <c r="B809" t="s">
-        <v>2226</v>
+        <v>2653</v>
       </c>
       <c r="C809" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D809" t="s">
+        <v>2605</v>
+      </c>
       <c r="E809" t="s">
-        <v>2568</v>
+        <v>2834</v>
       </c>
       <c r="F809" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G809" s="1" t="s">
         <v>6</v>
@@ -31506,19 +32805,22 @@
     </row>
     <row r="810" spans="1:9">
       <c r="A810">
-        <v>2329</v>
+        <v>2588</v>
       </c>
       <c r="B810" t="s">
-        <v>2232</v>
+        <v>2654</v>
       </c>
       <c r="C810" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D810" t="s">
+        <v>2605</v>
+      </c>
       <c r="E810" t="s">
-        <v>2569</v>
+        <v>2835</v>
       </c>
       <c r="F810" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G810" s="1" t="s">
         <v>6</v>
@@ -31532,19 +32834,22 @@
     </row>
     <row r="811" spans="1:9">
       <c r="A811">
-        <v>2805</v>
+        <v>2889</v>
       </c>
       <c r="B811" t="s">
-        <v>2570</v>
+        <v>2655</v>
       </c>
       <c r="C811" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D811" t="s">
+        <v>2605</v>
+      </c>
       <c r="E811" t="s">
-        <v>2571</v>
+        <v>2836</v>
       </c>
       <c r="F811" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G811" s="1" t="s">
         <v>6</v>
@@ -31558,19 +32863,22 @@
     </row>
     <row r="812" spans="1:9">
       <c r="A812">
-        <v>2841</v>
+        <v>2869</v>
       </c>
       <c r="B812" t="s">
-        <v>2572</v>
+        <v>2656</v>
       </c>
       <c r="C812" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D812" t="s">
+        <v>2605</v>
+      </c>
       <c r="E812" t="s">
-        <v>2573</v>
+        <v>2837</v>
       </c>
       <c r="F812" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G812" s="1" t="s">
         <v>6</v>
@@ -31584,19 +32892,22 @@
     </row>
     <row r="813" spans="1:9">
       <c r="A813">
-        <v>2772</v>
+        <v>2687</v>
       </c>
       <c r="B813" t="s">
-        <v>2574</v>
+        <v>2657</v>
       </c>
       <c r="C813" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D813" t="s">
+        <v>2605</v>
+      </c>
       <c r="E813" t="s">
-        <v>2575</v>
+        <v>2838</v>
       </c>
       <c r="F813" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G813" s="1" t="s">
         <v>6</v>
@@ -31610,19 +32921,22 @@
     </row>
     <row r="814" spans="1:9">
       <c r="A814">
-        <v>2851</v>
+        <v>2815</v>
       </c>
       <c r="B814" t="s">
-        <v>2576</v>
+        <v>2658</v>
       </c>
       <c r="C814" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D814" t="s">
+        <v>2605</v>
+      </c>
       <c r="E814" t="s">
-        <v>2577</v>
+        <v>2839</v>
       </c>
       <c r="F814" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G814" s="1" t="s">
         <v>6</v>
@@ -31636,19 +32950,22 @@
     </row>
     <row r="815" spans="1:9">
       <c r="A815">
-        <v>2598</v>
+        <v>2733</v>
       </c>
       <c r="B815" t="s">
-        <v>2578</v>
+        <v>2659</v>
       </c>
       <c r="C815" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D815" t="s">
+        <v>2605</v>
+      </c>
       <c r="E815" t="s">
-        <v>2579</v>
+        <v>2840</v>
       </c>
       <c r="F815" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G815" s="1" t="s">
         <v>6</v>
@@ -31662,19 +32979,22 @@
     </row>
     <row r="816" spans="1:9">
       <c r="A816">
-        <v>2771</v>
+        <v>1923</v>
       </c>
       <c r="B816" t="s">
-        <v>2580</v>
+        <v>2660</v>
       </c>
       <c r="C816" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D816" t="s">
+        <v>2605</v>
+      </c>
       <c r="E816" t="s">
-        <v>2581</v>
+        <v>2841</v>
       </c>
       <c r="F816" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G816" s="1" t="s">
         <v>6</v>
@@ -31688,19 +33008,22 @@
     </row>
     <row r="817" spans="1:9">
       <c r="A817">
-        <v>2423</v>
+        <v>2598</v>
       </c>
       <c r="B817" t="s">
-        <v>2582</v>
+        <v>2577</v>
       </c>
       <c r="C817" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D817" t="s">
+        <v>2605</v>
+      </c>
       <c r="E817" t="s">
-        <v>2583</v>
+        <v>2578</v>
       </c>
       <c r="F817" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G817" s="1" t="s">
         <v>6</v>
@@ -31714,19 +33037,22 @@
     </row>
     <row r="818" spans="1:9">
       <c r="A818">
-        <v>2929</v>
+        <v>2639</v>
       </c>
       <c r="B818" t="s">
-        <v>2584</v>
+        <v>2661</v>
       </c>
       <c r="C818" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D818" t="s">
+        <v>2605</v>
+      </c>
       <c r="E818" t="s">
-        <v>2585</v>
+        <v>2842</v>
       </c>
       <c r="F818" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G818" s="1" t="s">
         <v>6</v>
@@ -31740,19 +33066,22 @@
     </row>
     <row r="819" spans="1:9">
       <c r="A819">
-        <v>2803</v>
+        <v>2836</v>
       </c>
       <c r="B819" t="s">
-        <v>2586</v>
+        <v>2662</v>
       </c>
       <c r="C819" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D819" t="s">
+        <v>2605</v>
+      </c>
       <c r="E819" t="s">
-        <v>2587</v>
+        <v>2843</v>
       </c>
       <c r="F819" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G819" s="1" t="s">
         <v>6</v>
@@ -31766,19 +33095,22 @@
     </row>
     <row r="820" spans="1:9">
       <c r="A820">
-        <v>1716</v>
+        <v>2022</v>
       </c>
       <c r="B820" t="s">
-        <v>2588</v>
+        <v>2663</v>
       </c>
       <c r="C820" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D820" t="s">
+        <v>2605</v>
+      </c>
       <c r="E820" t="s">
-        <v>2589</v>
+        <v>2844</v>
       </c>
       <c r="F820" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G820" s="1" t="s">
         <v>6</v>
@@ -31792,19 +33124,22 @@
     </row>
     <row r="821" spans="1:9">
       <c r="A821">
-        <v>2666</v>
+        <v>2696</v>
       </c>
       <c r="B821" t="s">
-        <v>2240</v>
+        <v>2664</v>
       </c>
       <c r="C821" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D821" t="s">
+        <v>2605</v>
+      </c>
       <c r="E821" t="s">
-        <v>2590</v>
+        <v>2845</v>
       </c>
       <c r="F821" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G821" s="1" t="s">
         <v>6</v>
@@ -31818,19 +33153,22 @@
     </row>
     <row r="822" spans="1:9">
       <c r="A822">
-        <v>2147</v>
+        <v>2820</v>
       </c>
       <c r="B822" t="s">
-        <v>2593</v>
+        <v>2665</v>
       </c>
       <c r="C822" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D822" t="s">
+        <v>2605</v>
+      </c>
       <c r="E822" t="s">
-        <v>2594</v>
+        <v>2846</v>
       </c>
       <c r="F822" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G822" s="1" t="s">
         <v>6</v>
@@ -31844,19 +33182,22 @@
     </row>
     <row r="823" spans="1:9">
       <c r="A823">
-        <v>1903</v>
+        <v>1963</v>
       </c>
       <c r="B823" t="s">
-        <v>2595</v>
+        <v>2666</v>
       </c>
       <c r="C823" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D823" t="s">
+        <v>2605</v>
+      </c>
       <c r="E823" t="s">
-        <v>2596</v>
+        <v>2847</v>
       </c>
       <c r="F823" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G823" s="1" t="s">
         <v>6</v>
@@ -31870,19 +33211,22 @@
     </row>
     <row r="824" spans="1:9">
       <c r="A824">
-        <v>2143</v>
+        <v>2118</v>
       </c>
       <c r="B824" t="s">
-        <v>2597</v>
+        <v>2667</v>
       </c>
       <c r="C824" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D824" t="s">
+        <v>2605</v>
+      </c>
       <c r="E824" t="s">
-        <v>2598</v>
+        <v>2848</v>
       </c>
       <c r="F824" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G824" s="1" t="s">
         <v>6</v>
@@ -31896,19 +33240,22 @@
     </row>
     <row r="825" spans="1:9">
       <c r="A825">
-        <v>1140</v>
+        <v>2368</v>
       </c>
       <c r="B825" t="s">
-        <v>2599</v>
+        <v>2668</v>
       </c>
       <c r="C825" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D825" t="s">
+        <v>2605</v>
+      </c>
       <c r="E825" t="s">
-        <v>2600</v>
+        <v>2849</v>
       </c>
       <c r="F825" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G825" s="1" t="s">
         <v>6</v>
@@ -31922,19 +33269,22 @@
     </row>
     <row r="826" spans="1:9">
       <c r="A826">
-        <v>1078</v>
+        <v>2759</v>
       </c>
       <c r="B826" t="s">
-        <v>2601</v>
+        <v>2669</v>
       </c>
       <c r="C826" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D826" t="s">
+        <v>2605</v>
+      </c>
       <c r="E826" t="s">
-        <v>2602</v>
+        <v>2850</v>
       </c>
       <c r="F826" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G826" s="1" t="s">
         <v>6</v>
@@ -31948,19 +33298,22 @@
     </row>
     <row r="827" spans="1:9">
       <c r="A827">
-        <v>2763</v>
+        <v>1468</v>
       </c>
       <c r="B827" t="s">
-        <v>2603</v>
+        <v>2670</v>
       </c>
       <c r="C827" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D827" t="s">
+        <v>2605</v>
+      </c>
       <c r="E827" t="s">
-        <v>2604</v>
+        <v>2851</v>
       </c>
       <c r="F827" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G827" s="1" t="s">
         <v>6</v>
@@ -31974,19 +33327,22 @@
     </row>
     <row r="828" spans="1:9">
       <c r="A828">
-        <v>1847</v>
+        <v>2741</v>
       </c>
       <c r="B828" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C828" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D828" t="s">
         <v>2605</v>
       </c>
-      <c r="C828" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E828" t="s">
-        <v>2606</v>
+        <v>2852</v>
       </c>
       <c r="F828" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G828" s="1" t="s">
         <v>6</v>
@@ -32000,19 +33356,22 @@
     </row>
     <row r="829" spans="1:9">
       <c r="A829">
-        <v>1781</v>
+        <v>2942</v>
       </c>
       <c r="B829" t="s">
-        <v>2530</v>
+        <v>2672</v>
       </c>
       <c r="C829" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D829" t="s">
+        <v>2605</v>
+      </c>
       <c r="E829" t="s">
-        <v>2607</v>
+        <v>2853</v>
       </c>
       <c r="F829" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G829" s="1" t="s">
         <v>6</v>
@@ -32026,19 +33385,22 @@
     </row>
     <row r="830" spans="1:9">
       <c r="A830">
-        <v>2043</v>
+        <v>2934</v>
       </c>
       <c r="B830" t="s">
-        <v>2534</v>
+        <v>2673</v>
       </c>
       <c r="C830" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D830" t="s">
+        <v>2605</v>
+      </c>
       <c r="E830" t="s">
-        <v>2536</v>
+        <v>2854</v>
       </c>
       <c r="F830" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G830" s="1" t="s">
         <v>6</v>
@@ -32052,19 +33414,22 @@
     </row>
     <row r="831" spans="1:9">
       <c r="A831">
-        <v>1959</v>
+        <v>2155</v>
       </c>
       <c r="B831" t="s">
-        <v>2537</v>
+        <v>2674</v>
       </c>
       <c r="C831" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D831" t="s">
+        <v>2605</v>
+      </c>
       <c r="E831" t="s">
-        <v>2539</v>
+        <v>2855</v>
       </c>
       <c r="F831" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G831" s="1" t="s">
         <v>6</v>
@@ -32078,19 +33443,22 @@
     </row>
     <row r="832" spans="1:9">
       <c r="A832">
-        <v>2589</v>
+        <v>1361</v>
       </c>
       <c r="B832" t="s">
-        <v>2540</v>
+        <v>2675</v>
       </c>
       <c r="C832" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D832" t="s">
+        <v>2605</v>
+      </c>
       <c r="E832" t="s">
-        <v>2542</v>
+        <v>2856</v>
       </c>
       <c r="F832" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G832" s="1" t="s">
         <v>6</v>
@@ -32104,19 +33472,22 @@
     </row>
     <row r="833" spans="1:9">
       <c r="A833">
-        <v>2715</v>
+        <v>2789</v>
       </c>
       <c r="B833" t="s">
-        <v>2543</v>
+        <v>2676</v>
       </c>
       <c r="C833" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D833" t="s">
+        <v>2605</v>
+      </c>
       <c r="E833" t="s">
-        <v>2545</v>
+        <v>2857</v>
       </c>
       <c r="F833" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G833" s="1" t="s">
         <v>6</v>
@@ -32130,19 +33501,22 @@
     </row>
     <row r="834" spans="1:9">
       <c r="A834">
-        <v>1437</v>
+        <v>1339</v>
       </c>
       <c r="B834" t="s">
-        <v>2546</v>
+        <v>2362</v>
       </c>
       <c r="C834" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D834" t="s">
+        <v>2605</v>
+      </c>
       <c r="E834" t="s">
-        <v>2548</v>
+        <v>2858</v>
       </c>
       <c r="F834" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G834" s="1" t="s">
         <v>6</v>
@@ -32156,19 +33530,22 @@
     </row>
     <row r="835" spans="1:9">
       <c r="A835">
-        <v>1931</v>
+        <v>2020</v>
       </c>
       <c r="B835" t="s">
-        <v>2549</v>
+        <v>2677</v>
       </c>
       <c r="C835" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D835" t="s">
+        <v>2605</v>
+      </c>
       <c r="E835" t="s">
-        <v>2551</v>
+        <v>2859</v>
       </c>
       <c r="F835" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G835" s="1" t="s">
         <v>6</v>
@@ -32182,19 +33559,22 @@
     </row>
     <row r="836" spans="1:9">
       <c r="A836">
-        <v>2683</v>
+        <v>1861</v>
       </c>
       <c r="B836" t="s">
-        <v>2552</v>
+        <v>2678</v>
       </c>
       <c r="C836" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D836" t="s">
+        <v>2605</v>
+      </c>
       <c r="E836" t="s">
-        <v>2554</v>
+        <v>2860</v>
       </c>
       <c r="F836" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G836" s="1" t="s">
         <v>6</v>
@@ -32208,19 +33588,22 @@
     </row>
     <row r="837" spans="1:9">
       <c r="A837">
-        <v>2592</v>
+        <v>1939</v>
       </c>
       <c r="B837" t="s">
-        <v>2210</v>
+        <v>2679</v>
       </c>
       <c r="C837" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D837" t="s">
+        <v>2605</v>
+      </c>
       <c r="E837" t="s">
-        <v>2556</v>
+        <v>2861</v>
       </c>
       <c r="F837" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G837" s="1" t="s">
         <v>6</v>
@@ -32234,19 +33617,22 @@
     </row>
     <row r="838" spans="1:9">
       <c r="A838">
-        <v>2797</v>
+        <v>2720</v>
       </c>
       <c r="B838" t="s">
-        <v>2557</v>
+        <v>2680</v>
       </c>
       <c r="C838" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D838" t="s">
+        <v>2605</v>
+      </c>
       <c r="E838" t="s">
-        <v>2559</v>
+        <v>2862</v>
       </c>
       <c r="F838" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G838" s="1" t="s">
         <v>6</v>
@@ -32260,19 +33646,22 @@
     </row>
     <row r="839" spans="1:9">
       <c r="A839">
-        <v>1703</v>
+        <v>2681</v>
       </c>
       <c r="B839" t="s">
-        <v>2560</v>
+        <v>2681</v>
       </c>
       <c r="C839" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D839" t="s">
+        <v>2605</v>
+      </c>
       <c r="E839" t="s">
-        <v>2561</v>
+        <v>2863</v>
       </c>
       <c r="F839" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G839" s="1" t="s">
         <v>6</v>
@@ -32286,19 +33675,22 @@
     </row>
     <row r="840" spans="1:9">
       <c r="A840">
-        <v>2086</v>
+        <v>2691</v>
       </c>
       <c r="B840" t="s">
-        <v>2562</v>
+        <v>2682</v>
       </c>
       <c r="C840" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D840" t="s">
+        <v>2605</v>
+      </c>
       <c r="E840" t="s">
-        <v>2563</v>
+        <v>2864</v>
       </c>
       <c r="F840" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G840" s="1" t="s">
         <v>6</v>
@@ -32312,19 +33704,22 @@
     </row>
     <row r="841" spans="1:9">
       <c r="A841">
-        <v>1621</v>
+        <v>1456</v>
       </c>
       <c r="B841" t="s">
-        <v>2564</v>
+        <v>2683</v>
       </c>
       <c r="C841" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D841" t="s">
+        <v>2605</v>
+      </c>
       <c r="E841" t="s">
-        <v>2565</v>
+        <v>2865</v>
       </c>
       <c r="F841" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G841" s="1" t="s">
         <v>6</v>
@@ -32338,19 +33733,22 @@
     </row>
     <row r="842" spans="1:9">
       <c r="A842">
-        <v>1768</v>
+        <v>2597</v>
       </c>
       <c r="B842" t="s">
-        <v>2566</v>
+        <v>2684</v>
       </c>
       <c r="C842" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D842" t="s">
+        <v>2605</v>
+      </c>
       <c r="E842" t="s">
-        <v>2567</v>
+        <v>2866</v>
       </c>
       <c r="F842" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G842" s="1" t="s">
         <v>6</v>
@@ -32364,19 +33762,22 @@
     </row>
     <row r="843" spans="1:9">
       <c r="A843">
-        <v>2302</v>
+        <v>2831</v>
       </c>
       <c r="B843" t="s">
-        <v>2226</v>
+        <v>2685</v>
       </c>
       <c r="C843" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D843" t="s">
+        <v>2605</v>
+      </c>
       <c r="E843" t="s">
-        <v>2568</v>
+        <v>2867</v>
       </c>
       <c r="F843" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G843" s="1" t="s">
         <v>6</v>
@@ -32390,19 +33791,22 @@
     </row>
     <row r="844" spans="1:9">
       <c r="A844">
-        <v>2329</v>
+        <v>2100</v>
       </c>
       <c r="B844" t="s">
-        <v>2232</v>
+        <v>2686</v>
       </c>
       <c r="C844" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D844" t="s">
+        <v>2605</v>
+      </c>
       <c r="E844" t="s">
-        <v>2569</v>
+        <v>2868</v>
       </c>
       <c r="F844" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G844" s="1" t="s">
         <v>6</v>
@@ -32416,19 +33820,22 @@
     </row>
     <row r="845" spans="1:9">
       <c r="A845">
-        <v>2805</v>
+        <v>2724</v>
       </c>
       <c r="B845" t="s">
-        <v>2570</v>
+        <v>2687</v>
       </c>
       <c r="C845" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D845" t="s">
+        <v>2605</v>
+      </c>
       <c r="E845" t="s">
-        <v>2571</v>
+        <v>2869</v>
       </c>
       <c r="F845" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G845" s="1" t="s">
         <v>6</v>
@@ -32442,19 +33849,22 @@
     </row>
     <row r="846" spans="1:9">
       <c r="A846">
-        <v>2841</v>
+        <v>2631</v>
       </c>
       <c r="B846" t="s">
-        <v>2572</v>
+        <v>2688</v>
       </c>
       <c r="C846" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D846" t="s">
+        <v>2605</v>
+      </c>
       <c r="E846" t="s">
-        <v>2573</v>
+        <v>2870</v>
       </c>
       <c r="F846" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G846" s="1" t="s">
         <v>6</v>
@@ -32468,19 +33878,22 @@
     </row>
     <row r="847" spans="1:9">
       <c r="A847">
-        <v>2772</v>
+        <v>2750</v>
       </c>
       <c r="B847" t="s">
-        <v>2574</v>
+        <v>2689</v>
       </c>
       <c r="C847" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D847" t="s">
+        <v>2605</v>
+      </c>
       <c r="E847" t="s">
-        <v>2575</v>
+        <v>2871</v>
       </c>
       <c r="F847" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G847" s="1" t="s">
         <v>6</v>
@@ -32494,19 +33907,22 @@
     </row>
     <row r="848" spans="1:9">
       <c r="A848">
-        <v>2851</v>
+        <v>2119</v>
       </c>
       <c r="B848" t="s">
-        <v>2576</v>
+        <v>2690</v>
       </c>
       <c r="C848" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D848" t="s">
+        <v>2605</v>
+      </c>
       <c r="E848" t="s">
-        <v>2577</v>
+        <v>2872</v>
       </c>
       <c r="F848" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G848" s="1" t="s">
         <v>6</v>
@@ -32520,19 +33936,22 @@
     </row>
     <row r="849" spans="1:9">
       <c r="A849">
-        <v>2598</v>
+        <v>2919</v>
       </c>
       <c r="B849" t="s">
-        <v>2578</v>
+        <v>2691</v>
       </c>
       <c r="C849" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D849" t="s">
+        <v>2605</v>
+      </c>
       <c r="E849" t="s">
-        <v>2579</v>
+        <v>2873</v>
       </c>
       <c r="F849" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G849" s="1" t="s">
         <v>6</v>
@@ -32546,19 +33965,22 @@
     </row>
     <row r="850" spans="1:9">
       <c r="A850">
-        <v>2771</v>
+        <v>2792</v>
       </c>
       <c r="B850" t="s">
-        <v>2580</v>
+        <v>2692</v>
       </c>
       <c r="C850" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D850" t="s">
+        <v>2605</v>
+      </c>
       <c r="E850" t="s">
-        <v>2581</v>
+        <v>2874</v>
       </c>
       <c r="F850" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G850" s="1" t="s">
         <v>6</v>
@@ -32572,19 +33994,22 @@
     </row>
     <row r="851" spans="1:9">
       <c r="A851">
-        <v>2423</v>
+        <v>2874</v>
       </c>
       <c r="B851" t="s">
-        <v>2582</v>
+        <v>2693</v>
       </c>
       <c r="C851" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D851" t="s">
+        <v>2605</v>
+      </c>
       <c r="E851" t="s">
-        <v>2583</v>
+        <v>2875</v>
       </c>
       <c r="F851" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G851" s="1" t="s">
         <v>6</v>
@@ -32598,19 +34023,22 @@
     </row>
     <row r="852" spans="1:9">
       <c r="A852">
-        <v>2929</v>
+        <v>2742</v>
       </c>
       <c r="B852" t="s">
-        <v>2584</v>
+        <v>2694</v>
       </c>
       <c r="C852" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D852" t="s">
+        <v>2605</v>
+      </c>
       <c r="E852" t="s">
-        <v>2585</v>
+        <v>2876</v>
       </c>
       <c r="F852" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G852" s="1" t="s">
         <v>6</v>
@@ -32624,19 +34052,22 @@
     </row>
     <row r="853" spans="1:9">
       <c r="A853">
-        <v>2803</v>
+        <v>1743</v>
       </c>
       <c r="B853" t="s">
-        <v>2586</v>
+        <v>2695</v>
       </c>
       <c r="C853" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D853" t="s">
+        <v>2605</v>
+      </c>
       <c r="E853" t="s">
-        <v>2587</v>
+        <v>2877</v>
       </c>
       <c r="F853" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G853" s="1" t="s">
         <v>6</v>
@@ -32650,19 +34081,22 @@
     </row>
     <row r="854" spans="1:9">
       <c r="A854">
-        <v>1716</v>
+        <v>2875</v>
       </c>
       <c r="B854" t="s">
-        <v>2588</v>
+        <v>2696</v>
       </c>
       <c r="C854" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D854" t="s">
+        <v>2605</v>
+      </c>
       <c r="E854" t="s">
-        <v>2589</v>
+        <v>2878</v>
       </c>
       <c r="F854" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G854" s="1" t="s">
         <v>6</v>
@@ -32676,19 +34110,22 @@
     </row>
     <row r="855" spans="1:9">
       <c r="A855">
-        <v>2666</v>
+        <v>1315</v>
       </c>
       <c r="B855" t="s">
-        <v>2240</v>
+        <v>2697</v>
       </c>
       <c r="C855" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D855" t="s">
+        <v>2605</v>
+      </c>
       <c r="E855" t="s">
-        <v>2590</v>
+        <v>2879</v>
       </c>
       <c r="F855" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G855" s="1" t="s">
         <v>6</v>
@@ -32702,19 +34139,22 @@
     </row>
     <row r="856" spans="1:9">
       <c r="A856">
-        <v>2147</v>
+        <v>2814</v>
       </c>
       <c r="B856" t="s">
-        <v>2593</v>
+        <v>2698</v>
       </c>
       <c r="C856" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D856" t="s">
+        <v>2605</v>
+      </c>
       <c r="E856" t="s">
-        <v>2594</v>
+        <v>2880</v>
       </c>
       <c r="F856" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G856" s="1" t="s">
         <v>6</v>
@@ -32728,19 +34168,22 @@
     </row>
     <row r="857" spans="1:9">
       <c r="A857">
-        <v>1903</v>
+        <v>982</v>
       </c>
       <c r="B857" t="s">
-        <v>2595</v>
+        <v>2699</v>
       </c>
       <c r="C857" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D857" t="s">
+        <v>2605</v>
+      </c>
       <c r="E857" t="s">
-        <v>2596</v>
+        <v>2881</v>
       </c>
       <c r="F857" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G857" s="1" t="s">
         <v>6</v>
@@ -32754,19 +34197,22 @@
     </row>
     <row r="858" spans="1:9">
       <c r="A858">
-        <v>2143</v>
+        <v>2510</v>
       </c>
       <c r="B858" t="s">
-        <v>2597</v>
+        <v>2700</v>
       </c>
       <c r="C858" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D858" t="s">
+        <v>2605</v>
+      </c>
       <c r="E858" t="s">
-        <v>2598</v>
+        <v>2882</v>
       </c>
       <c r="F858" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G858" s="1" t="s">
         <v>6</v>
@@ -32780,19 +34226,22 @@
     </row>
     <row r="859" spans="1:9">
       <c r="A859">
-        <v>1140</v>
+        <v>2650</v>
       </c>
       <c r="B859" t="s">
-        <v>2599</v>
+        <v>2701</v>
       </c>
       <c r="C859" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D859" t="s">
+        <v>2605</v>
+      </c>
       <c r="E859" t="s">
-        <v>2600</v>
+        <v>2883</v>
       </c>
       <c r="F859" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G859" s="1" t="s">
         <v>6</v>
@@ -32806,19 +34255,22 @@
     </row>
     <row r="860" spans="1:9">
       <c r="A860">
-        <v>1078</v>
+        <v>933</v>
       </c>
       <c r="B860" t="s">
-        <v>2601</v>
+        <v>2702</v>
       </c>
       <c r="C860" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D860" t="s">
+        <v>2605</v>
+      </c>
       <c r="E860" t="s">
-        <v>2602</v>
+        <v>2884</v>
       </c>
       <c r="F860" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G860" s="1" t="s">
         <v>6</v>
@@ -32832,19 +34284,22 @@
     </row>
     <row r="861" spans="1:9">
       <c r="A861">
-        <v>2763</v>
+        <v>2075</v>
       </c>
       <c r="B861" t="s">
-        <v>2603</v>
+        <v>2703</v>
       </c>
       <c r="C861" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D861" t="s">
+        <v>2605</v>
+      </c>
       <c r="E861" t="s">
-        <v>2604</v>
+        <v>2885</v>
       </c>
       <c r="F861" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G861" s="1" t="s">
         <v>6</v>
@@ -32858,19 +34313,22 @@
     </row>
     <row r="862" spans="1:9">
       <c r="A862">
-        <v>1847</v>
+        <v>2778</v>
       </c>
       <c r="B862" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C862" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D862" t="s">
         <v>2605</v>
       </c>
-      <c r="C862" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E862" t="s">
-        <v>2606</v>
+        <v>2886</v>
       </c>
       <c r="F862" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G862" s="1" t="s">
         <v>6</v>
@@ -32884,25 +34342,28 @@
     </row>
     <row r="863" spans="1:9">
       <c r="A863">
-        <v>1781</v>
+        <v>2042</v>
       </c>
       <c r="B863" t="s">
-        <v>2530</v>
+        <v>2705</v>
       </c>
       <c r="C863" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D863" t="s">
+        <v>2605</v>
+      </c>
       <c r="E863" t="s">
-        <v>2607</v>
+        <v>2887</v>
       </c>
       <c r="F863" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G863" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H863">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I863" s="1">
         <v>0</v>
@@ -32910,19 +34371,22 @@
     </row>
     <row r="864" spans="1:9">
       <c r="A864">
-        <v>2043</v>
+        <v>2938</v>
       </c>
       <c r="B864" t="s">
-        <v>2534</v>
+        <v>2706</v>
       </c>
       <c r="C864" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D864" t="s">
+        <v>2605</v>
+      </c>
       <c r="E864" t="s">
-        <v>2536</v>
+        <v>2888</v>
       </c>
       <c r="F864" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G864" s="1" t="s">
         <v>6</v>
@@ -32936,19 +34400,22 @@
     </row>
     <row r="865" spans="1:9">
       <c r="A865">
-        <v>1959</v>
+        <v>2928</v>
       </c>
       <c r="B865" t="s">
-        <v>2537</v>
+        <v>2707</v>
       </c>
       <c r="C865" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D865" t="s">
+        <v>2605</v>
+      </c>
       <c r="E865" t="s">
-        <v>2539</v>
+        <v>2889</v>
       </c>
       <c r="F865" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G865" s="1" t="s">
         <v>6</v>
@@ -32962,19 +34429,22 @@
     </row>
     <row r="866" spans="1:9">
       <c r="A866">
-        <v>2589</v>
+        <v>1405</v>
       </c>
       <c r="B866" t="s">
-        <v>2540</v>
+        <v>2708</v>
       </c>
       <c r="C866" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D866" t="s">
+        <v>2605</v>
+      </c>
       <c r="E866" t="s">
-        <v>2542</v>
+        <v>2890</v>
       </c>
       <c r="F866" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G866" s="1" t="s">
         <v>6</v>
@@ -32988,19 +34458,22 @@
     </row>
     <row r="867" spans="1:9">
       <c r="A867">
-        <v>2715</v>
+        <v>1295</v>
       </c>
       <c r="B867" t="s">
-        <v>2543</v>
+        <v>2709</v>
       </c>
       <c r="C867" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D867" t="s">
+        <v>2605</v>
+      </c>
       <c r="E867" t="s">
-        <v>2545</v>
+        <v>2891</v>
       </c>
       <c r="F867" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G867" s="1" t="s">
         <v>6</v>
@@ -33014,19 +34487,22 @@
     </row>
     <row r="868" spans="1:9">
       <c r="A868">
-        <v>1437</v>
+        <v>1855</v>
       </c>
       <c r="B868" t="s">
-        <v>2546</v>
+        <v>2710</v>
       </c>
       <c r="C868" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D868" t="s">
+        <v>2605</v>
+      </c>
       <c r="E868" t="s">
-        <v>2548</v>
+        <v>2892</v>
       </c>
       <c r="F868" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G868" s="1" t="s">
         <v>6</v>
@@ -33040,19 +34516,22 @@
     </row>
     <row r="869" spans="1:9">
       <c r="A869">
-        <v>1931</v>
+        <v>2112</v>
       </c>
       <c r="B869" t="s">
-        <v>2549</v>
+        <v>2711</v>
       </c>
       <c r="C869" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D869" t="s">
+        <v>2605</v>
+      </c>
       <c r="E869" t="s">
-        <v>2551</v>
+        <v>2893</v>
       </c>
       <c r="F869" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G869" s="1" t="s">
         <v>6</v>
@@ -33066,19 +34545,22 @@
     </row>
     <row r="870" spans="1:9">
       <c r="A870">
-        <v>2683</v>
+        <v>2788</v>
       </c>
       <c r="B870" t="s">
-        <v>2552</v>
+        <v>2712</v>
       </c>
       <c r="C870" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D870" t="s">
+        <v>2605</v>
+      </c>
       <c r="E870" t="s">
-        <v>2554</v>
+        <v>2894</v>
       </c>
       <c r="F870" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G870" s="1" t="s">
         <v>6</v>
@@ -33092,19 +34574,22 @@
     </row>
     <row r="871" spans="1:9">
       <c r="A871">
-        <v>2592</v>
+        <v>2536</v>
       </c>
       <c r="B871" t="s">
-        <v>2210</v>
+        <v>2713</v>
       </c>
       <c r="C871" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D871" t="s">
+        <v>2605</v>
+      </c>
       <c r="E871" t="s">
-        <v>2556</v>
+        <v>2895</v>
       </c>
       <c r="F871" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G871" s="1" t="s">
         <v>6</v>
@@ -33118,19 +34603,22 @@
     </row>
     <row r="872" spans="1:9">
       <c r="A872">
-        <v>2797</v>
+        <v>2004</v>
       </c>
       <c r="B872" t="s">
-        <v>2557</v>
+        <v>2714</v>
       </c>
       <c r="C872" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D872" t="s">
+        <v>2605</v>
+      </c>
       <c r="E872" t="s">
-        <v>2559</v>
+        <v>2896</v>
       </c>
       <c r="F872" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G872" s="1" t="s">
         <v>6</v>
@@ -33144,19 +34632,22 @@
     </row>
     <row r="873" spans="1:9">
       <c r="A873">
-        <v>1703</v>
+        <v>2849</v>
       </c>
       <c r="B873" t="s">
-        <v>2560</v>
+        <v>2617</v>
       </c>
       <c r="C873" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D873" t="s">
+        <v>2605</v>
+      </c>
       <c r="E873" t="s">
-        <v>2561</v>
+        <v>2797</v>
       </c>
       <c r="F873" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G873" s="1" t="s">
         <v>6</v>
@@ -33170,19 +34661,22 @@
     </row>
     <row r="874" spans="1:9">
       <c r="A874">
-        <v>2086</v>
+        <v>2924</v>
       </c>
       <c r="B874" t="s">
-        <v>2562</v>
+        <v>2606</v>
       </c>
       <c r="C874" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D874" t="s">
+        <v>2605</v>
+      </c>
       <c r="E874" t="s">
-        <v>2563</v>
+        <v>2786</v>
       </c>
       <c r="F874" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G874" s="1" t="s">
         <v>6</v>
@@ -33196,19 +34690,22 @@
     </row>
     <row r="875" spans="1:9">
       <c r="A875">
-        <v>1621</v>
+        <v>2600</v>
       </c>
       <c r="B875" t="s">
-        <v>2564</v>
+        <v>2715</v>
       </c>
       <c r="C875" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D875" t="s">
+        <v>2605</v>
+      </c>
       <c r="E875" t="s">
-        <v>2565</v>
+        <v>2897</v>
       </c>
       <c r="F875" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G875" s="1" t="s">
         <v>6</v>
@@ -33222,19 +34719,22 @@
     </row>
     <row r="876" spans="1:9">
       <c r="A876">
-        <v>1768</v>
+        <v>1298</v>
       </c>
       <c r="B876" t="s">
-        <v>2566</v>
+        <v>2716</v>
       </c>
       <c r="C876" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D876" t="s">
+        <v>2605</v>
+      </c>
       <c r="E876" t="s">
-        <v>2567</v>
+        <v>2898</v>
       </c>
       <c r="F876" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G876" s="1" t="s">
         <v>6</v>
@@ -33248,19 +34748,22 @@
     </row>
     <row r="877" spans="1:9">
       <c r="A877">
-        <v>2302</v>
+        <v>1577</v>
       </c>
       <c r="B877" t="s">
-        <v>2226</v>
+        <v>2717</v>
       </c>
       <c r="C877" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D877" t="s">
+        <v>2605</v>
+      </c>
       <c r="E877" t="s">
-        <v>2568</v>
+        <v>2899</v>
       </c>
       <c r="F877" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G877" s="1" t="s">
         <v>6</v>
@@ -33274,19 +34777,22 @@
     </row>
     <row r="878" spans="1:9">
       <c r="A878">
-        <v>2329</v>
+        <v>2898</v>
       </c>
       <c r="B878" t="s">
-        <v>2232</v>
+        <v>2718</v>
       </c>
       <c r="C878" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D878" t="s">
+        <v>2605</v>
+      </c>
       <c r="E878" t="s">
-        <v>2569</v>
+        <v>2900</v>
       </c>
       <c r="F878" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G878" s="1" t="s">
         <v>6</v>
@@ -33300,19 +34806,22 @@
     </row>
     <row r="879" spans="1:9">
       <c r="A879">
-        <v>2805</v>
+        <v>2842</v>
       </c>
       <c r="B879" t="s">
-        <v>2570</v>
+        <v>2651</v>
       </c>
       <c r="C879" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D879" t="s">
+        <v>2605</v>
+      </c>
       <c r="E879" t="s">
-        <v>2571</v>
+        <v>2832</v>
       </c>
       <c r="F879" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G879" s="1" t="s">
         <v>6</v>
@@ -33326,19 +34835,22 @@
     </row>
     <row r="880" spans="1:9">
       <c r="A880">
-        <v>2841</v>
+        <v>1816</v>
       </c>
       <c r="B880" t="s">
-        <v>2572</v>
+        <v>2719</v>
       </c>
       <c r="C880" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D880" t="s">
+        <v>2605</v>
+      </c>
       <c r="E880" t="s">
-        <v>2573</v>
+        <v>2901</v>
       </c>
       <c r="F880" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G880" s="1" t="s">
         <v>6</v>
@@ -33352,19 +34864,22 @@
     </row>
     <row r="881" spans="1:9">
       <c r="A881">
-        <v>2772</v>
+        <v>2522</v>
       </c>
       <c r="B881" t="s">
-        <v>2574</v>
+        <v>2720</v>
       </c>
       <c r="C881" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D881" t="s">
+        <v>2605</v>
+      </c>
       <c r="E881" t="s">
-        <v>2575</v>
+        <v>2902</v>
       </c>
       <c r="F881" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G881" s="1" t="s">
         <v>6</v>
@@ -33378,19 +34893,22 @@
     </row>
     <row r="882" spans="1:9">
       <c r="A882">
-        <v>2851</v>
+        <v>2712</v>
       </c>
       <c r="B882" t="s">
-        <v>2576</v>
+        <v>2721</v>
       </c>
       <c r="C882" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D882" t="s">
+        <v>2605</v>
+      </c>
       <c r="E882" t="s">
-        <v>2577</v>
+        <v>2903</v>
       </c>
       <c r="F882" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G882" s="1" t="s">
         <v>6</v>
@@ -33404,19 +34922,22 @@
     </row>
     <row r="883" spans="1:9">
       <c r="A883">
-        <v>2598</v>
+        <v>2920</v>
       </c>
       <c r="B883" t="s">
-        <v>2578</v>
+        <v>2722</v>
       </c>
       <c r="C883" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D883" t="s">
+        <v>2605</v>
+      </c>
       <c r="E883" t="s">
-        <v>2579</v>
+        <v>2904</v>
       </c>
       <c r="F883" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G883" s="1" t="s">
         <v>6</v>
@@ -33430,19 +34951,22 @@
     </row>
     <row r="884" spans="1:9">
       <c r="A884">
-        <v>2771</v>
+        <v>1999</v>
       </c>
       <c r="B884" t="s">
-        <v>2580</v>
+        <v>2723</v>
       </c>
       <c r="C884" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D884" t="s">
+        <v>2605</v>
+      </c>
       <c r="E884" t="s">
-        <v>2581</v>
+        <v>2905</v>
       </c>
       <c r="F884" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G884" s="1" t="s">
         <v>6</v>
@@ -33456,19 +34980,22 @@
     </row>
     <row r="885" spans="1:9">
       <c r="A885">
-        <v>2423</v>
+        <v>2936</v>
       </c>
       <c r="B885" t="s">
-        <v>2582</v>
+        <v>2724</v>
       </c>
       <c r="C885" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D885" t="s">
+        <v>2605</v>
+      </c>
       <c r="E885" t="s">
-        <v>2583</v>
+        <v>2906</v>
       </c>
       <c r="F885" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G885" s="1" t="s">
         <v>6</v>
@@ -33482,19 +35009,22 @@
     </row>
     <row r="886" spans="1:9">
       <c r="A886">
-        <v>2929</v>
+        <v>2781</v>
       </c>
       <c r="B886" t="s">
-        <v>2584</v>
+        <v>2725</v>
       </c>
       <c r="C886" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D886" t="s">
+        <v>2605</v>
+      </c>
       <c r="E886" t="s">
-        <v>2585</v>
+        <v>2907</v>
       </c>
       <c r="F886" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G886" s="1" t="s">
         <v>6</v>
@@ -33508,19 +35038,22 @@
     </row>
     <row r="887" spans="1:9">
       <c r="A887">
-        <v>2803</v>
+        <v>2559</v>
       </c>
       <c r="B887" t="s">
-        <v>2586</v>
+        <v>2726</v>
       </c>
       <c r="C887" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D887" t="s">
+        <v>2605</v>
+      </c>
       <c r="E887" t="s">
-        <v>2587</v>
+        <v>2908</v>
       </c>
       <c r="F887" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G887" s="1" t="s">
         <v>6</v>
@@ -33534,19 +35067,22 @@
     </row>
     <row r="888" spans="1:9">
       <c r="A888">
-        <v>1716</v>
+        <v>2882</v>
       </c>
       <c r="B888" t="s">
-        <v>2588</v>
+        <v>2727</v>
       </c>
       <c r="C888" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D888" t="s">
+        <v>2605</v>
+      </c>
       <c r="E888" t="s">
-        <v>2589</v>
+        <v>2909</v>
       </c>
       <c r="F888" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G888" s="1" t="s">
         <v>6</v>
@@ -33560,19 +35096,22 @@
     </row>
     <row r="889" spans="1:9">
       <c r="A889">
-        <v>2666</v>
+        <v>2808</v>
       </c>
       <c r="B889" t="s">
-        <v>2240</v>
+        <v>2728</v>
       </c>
       <c r="C889" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D889" t="s">
+        <v>2605</v>
+      </c>
       <c r="E889" t="s">
-        <v>2590</v>
+        <v>2910</v>
       </c>
       <c r="F889" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G889" s="1" t="s">
         <v>6</v>
@@ -33586,19 +35125,22 @@
     </row>
     <row r="890" spans="1:9">
       <c r="A890">
-        <v>2147</v>
+        <v>2643</v>
       </c>
       <c r="B890" t="s">
-        <v>2593</v>
+        <v>2729</v>
       </c>
       <c r="C890" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D890" t="s">
+        <v>2605</v>
+      </c>
       <c r="E890" t="s">
-        <v>2594</v>
+        <v>2911</v>
       </c>
       <c r="F890" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G890" s="1" t="s">
         <v>6</v>
@@ -33612,19 +35154,22 @@
     </row>
     <row r="891" spans="1:9">
       <c r="A891">
-        <v>1903</v>
+        <v>2595</v>
       </c>
       <c r="B891" t="s">
-        <v>2595</v>
+        <v>2730</v>
       </c>
       <c r="C891" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D891" t="s">
+        <v>2605</v>
+      </c>
       <c r="E891" t="s">
-        <v>2596</v>
+        <v>2912</v>
       </c>
       <c r="F891" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G891" s="1" t="s">
         <v>6</v>
@@ -33638,19 +35183,22 @@
     </row>
     <row r="892" spans="1:9">
       <c r="A892">
-        <v>2143</v>
+        <v>2855</v>
       </c>
       <c r="B892" t="s">
-        <v>2597</v>
+        <v>2731</v>
       </c>
       <c r="C892" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D892" t="s">
+        <v>2605</v>
+      </c>
       <c r="E892" t="s">
-        <v>2598</v>
+        <v>2913</v>
       </c>
       <c r="F892" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G892" s="1" t="s">
         <v>6</v>
@@ -33664,19 +35212,22 @@
     </row>
     <row r="893" spans="1:9">
       <c r="A893">
-        <v>1140</v>
+        <v>2887</v>
       </c>
       <c r="B893" t="s">
-        <v>2599</v>
+        <v>2732</v>
       </c>
       <c r="C893" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D893" t="s">
+        <v>2605</v>
+      </c>
       <c r="E893" t="s">
-        <v>2600</v>
+        <v>2914</v>
       </c>
       <c r="F893" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G893" s="1" t="s">
         <v>6</v>
@@ -33690,19 +35241,22 @@
     </row>
     <row r="894" spans="1:9">
       <c r="A894">
-        <v>1078</v>
+        <v>2097</v>
       </c>
       <c r="B894" t="s">
-        <v>2601</v>
+        <v>2733</v>
       </c>
       <c r="C894" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D894" t="s">
+        <v>2605</v>
+      </c>
       <c r="E894" t="s">
-        <v>2602</v>
+        <v>2915</v>
       </c>
       <c r="F894" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G894" s="1" t="s">
         <v>6</v>
@@ -33716,19 +35270,22 @@
     </row>
     <row r="895" spans="1:9">
       <c r="A895">
-        <v>2763</v>
+        <v>1882</v>
       </c>
       <c r="B895" t="s">
-        <v>2603</v>
+        <v>2734</v>
       </c>
       <c r="C895" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D895" t="s">
+        <v>2605</v>
+      </c>
       <c r="E895" t="s">
-        <v>2604</v>
+        <v>2916</v>
       </c>
       <c r="F895" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G895" s="1" t="s">
         <v>6</v>
@@ -33742,19 +35299,22 @@
     </row>
     <row r="896" spans="1:9">
       <c r="A896">
-        <v>1847</v>
+        <v>2663</v>
       </c>
       <c r="B896" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C896" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D896" t="s">
         <v>2605</v>
       </c>
-      <c r="C896" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E896" t="s">
-        <v>2606</v>
+        <v>2917</v>
       </c>
       <c r="F896" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G896" s="1" t="s">
         <v>6</v>
@@ -33768,25 +35328,28 @@
     </row>
     <row r="897" spans="1:9">
       <c r="A897">
-        <v>1781</v>
+        <v>2775</v>
       </c>
       <c r="B897" t="s">
-        <v>2530</v>
+        <v>2736</v>
       </c>
       <c r="C897" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D897" t="s">
+        <v>2605</v>
+      </c>
       <c r="E897" t="s">
-        <v>2607</v>
+        <v>2918</v>
       </c>
       <c r="F897" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G897" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H897">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I897" s="1">
         <v>0</v>
@@ -33794,19 +35357,22 @@
     </row>
     <row r="898" spans="1:9">
       <c r="A898">
-        <v>2043</v>
+        <v>2690</v>
       </c>
       <c r="B898" t="s">
-        <v>2534</v>
+        <v>2737</v>
       </c>
       <c r="C898" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D898" t="s">
+        <v>2605</v>
+      </c>
       <c r="E898" t="s">
-        <v>2536</v>
+        <v>2919</v>
       </c>
       <c r="F898" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G898" s="1" t="s">
         <v>6</v>
@@ -33820,19 +35386,22 @@
     </row>
     <row r="899" spans="1:9">
       <c r="A899">
-        <v>1959</v>
+        <v>2141</v>
       </c>
       <c r="B899" t="s">
-        <v>2537</v>
+        <v>2738</v>
       </c>
       <c r="C899" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D899" t="s">
+        <v>2605</v>
+      </c>
       <c r="E899" t="s">
-        <v>2539</v>
+        <v>2920</v>
       </c>
       <c r="F899" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G899" s="1" t="s">
         <v>6</v>
@@ -33846,19 +35415,22 @@
     </row>
     <row r="900" spans="1:9">
       <c r="A900">
-        <v>2589</v>
+        <v>2080</v>
       </c>
       <c r="B900" t="s">
-        <v>2540</v>
+        <v>2739</v>
       </c>
       <c r="C900" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D900" t="s">
+        <v>2605</v>
+      </c>
       <c r="E900" t="s">
-        <v>2542</v>
+        <v>2921</v>
       </c>
       <c r="F900" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G900" s="1" t="s">
         <v>6</v>
@@ -33872,19 +35444,22 @@
     </row>
     <row r="901" spans="1:9">
       <c r="A901">
-        <v>2715</v>
+        <v>1351</v>
       </c>
       <c r="B901" t="s">
-        <v>2543</v>
+        <v>2740</v>
       </c>
       <c r="C901" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D901" t="s">
+        <v>2605</v>
+      </c>
       <c r="E901" t="s">
-        <v>2545</v>
+        <v>2922</v>
       </c>
       <c r="F901" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G901" s="1" t="s">
         <v>6</v>
@@ -33898,19 +35473,22 @@
     </row>
     <row r="902" spans="1:9">
       <c r="A902">
-        <v>1437</v>
+        <v>1986</v>
       </c>
       <c r="B902" t="s">
-        <v>2546</v>
+        <v>2741</v>
       </c>
       <c r="C902" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D902" t="s">
+        <v>2605</v>
+      </c>
       <c r="E902" t="s">
-        <v>2548</v>
+        <v>2923</v>
       </c>
       <c r="F902" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G902" s="1" t="s">
         <v>6</v>
@@ -33924,19 +35502,22 @@
     </row>
     <row r="903" spans="1:9">
       <c r="A903">
-        <v>1931</v>
+        <v>2626</v>
       </c>
       <c r="B903" t="s">
-        <v>2549</v>
+        <v>2742</v>
       </c>
       <c r="C903" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D903" t="s">
+        <v>2605</v>
+      </c>
       <c r="E903" t="s">
-        <v>2551</v>
+        <v>2924</v>
       </c>
       <c r="F903" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G903" s="1" t="s">
         <v>6</v>
@@ -33950,19 +35531,22 @@
     </row>
     <row r="904" spans="1:9">
       <c r="A904">
-        <v>2683</v>
+        <v>1347</v>
       </c>
       <c r="B904" t="s">
-        <v>2552</v>
+        <v>2743</v>
       </c>
       <c r="C904" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D904" t="s">
+        <v>2605</v>
+      </c>
       <c r="E904" t="s">
-        <v>2554</v>
+        <v>2925</v>
       </c>
       <c r="F904" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G904" s="1" t="s">
         <v>6</v>
@@ -33976,19 +35560,22 @@
     </row>
     <row r="905" spans="1:9">
       <c r="A905">
-        <v>2592</v>
+        <v>2753</v>
       </c>
       <c r="B905" t="s">
-        <v>2210</v>
+        <v>2744</v>
       </c>
       <c r="C905" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D905" t="s">
+        <v>2605</v>
+      </c>
       <c r="E905" t="s">
-        <v>2556</v>
+        <v>2926</v>
       </c>
       <c r="F905" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G905" s="1" t="s">
         <v>6</v>
@@ -34002,19 +35589,22 @@
     </row>
     <row r="906" spans="1:9">
       <c r="A906">
-        <v>2797</v>
+        <v>2714</v>
       </c>
       <c r="B906" t="s">
-        <v>2557</v>
+        <v>2745</v>
       </c>
       <c r="C906" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D906" t="s">
+        <v>2605</v>
+      </c>
       <c r="E906" t="s">
-        <v>2559</v>
+        <v>2927</v>
       </c>
       <c r="F906" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G906" s="1" t="s">
         <v>6</v>
@@ -34028,19 +35618,22 @@
     </row>
     <row r="907" spans="1:9">
       <c r="A907">
-        <v>1703</v>
+        <v>1836</v>
       </c>
       <c r="B907" t="s">
-        <v>2560</v>
+        <v>2746</v>
       </c>
       <c r="C907" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D907" t="s">
+        <v>2605</v>
+      </c>
       <c r="E907" t="s">
-        <v>2561</v>
+        <v>2928</v>
       </c>
       <c r="F907" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G907" s="1" t="s">
         <v>6</v>
@@ -34054,19 +35647,22 @@
     </row>
     <row r="908" spans="1:9">
       <c r="A908">
-        <v>2086</v>
+        <v>2942</v>
       </c>
       <c r="B908" t="s">
-        <v>2562</v>
+        <v>2672</v>
       </c>
       <c r="C908" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D908" t="s">
+        <v>2605</v>
+      </c>
       <c r="E908" t="s">
-        <v>2563</v>
+        <v>2853</v>
       </c>
       <c r="F908" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G908" s="1" t="s">
         <v>6</v>
@@ -34080,19 +35676,22 @@
     </row>
     <row r="909" spans="1:9">
       <c r="A909">
-        <v>1621</v>
+        <v>2878</v>
       </c>
       <c r="B909" t="s">
-        <v>2564</v>
+        <v>2747</v>
       </c>
       <c r="C909" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D909" t="s">
+        <v>2605</v>
+      </c>
       <c r="E909" t="s">
-        <v>2565</v>
+        <v>2929</v>
       </c>
       <c r="F909" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G909" s="1" t="s">
         <v>6</v>
@@ -34106,19 +35705,22 @@
     </row>
     <row r="910" spans="1:9">
       <c r="A910">
-        <v>1768</v>
+        <v>2308</v>
       </c>
       <c r="B910" t="s">
-        <v>2566</v>
+        <v>2748</v>
       </c>
       <c r="C910" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D910" t="s">
+        <v>2605</v>
+      </c>
       <c r="E910" t="s">
-        <v>2567</v>
+        <v>2930</v>
       </c>
       <c r="F910" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G910" s="1" t="s">
         <v>6</v>
@@ -34132,19 +35734,22 @@
     </row>
     <row r="911" spans="1:9">
       <c r="A911">
-        <v>2302</v>
+        <v>2806</v>
       </c>
       <c r="B911" t="s">
-        <v>2226</v>
+        <v>2749</v>
       </c>
       <c r="C911" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D911" t="s">
+        <v>2605</v>
+      </c>
       <c r="E911" t="s">
-        <v>2568</v>
+        <v>2931</v>
       </c>
       <c r="F911" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G911" s="1" t="s">
         <v>6</v>
@@ -34158,19 +35763,22 @@
     </row>
     <row r="912" spans="1:9">
       <c r="A912">
-        <v>2329</v>
+        <v>2534</v>
       </c>
       <c r="B912" t="s">
-        <v>2232</v>
+        <v>2750</v>
       </c>
       <c r="C912" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D912" t="s">
+        <v>2605</v>
+      </c>
       <c r="E912" t="s">
-        <v>2569</v>
+        <v>2932</v>
       </c>
       <c r="F912" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G912" s="1" t="s">
         <v>6</v>
@@ -34184,19 +35792,22 @@
     </row>
     <row r="913" spans="1:9">
       <c r="A913">
-        <v>2805</v>
+        <v>1545</v>
       </c>
       <c r="B913" t="s">
-        <v>2570</v>
+        <v>2751</v>
       </c>
       <c r="C913" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D913" t="s">
+        <v>2605</v>
+      </c>
       <c r="E913" t="s">
-        <v>2571</v>
+        <v>2933</v>
       </c>
       <c r="F913" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G913" s="1" t="s">
         <v>6</v>
@@ -34210,19 +35821,22 @@
     </row>
     <row r="914" spans="1:9">
       <c r="A914">
-        <v>2841</v>
+        <v>1743</v>
       </c>
       <c r="B914" t="s">
-        <v>2572</v>
+        <v>2695</v>
       </c>
       <c r="C914" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D914" t="s">
+        <v>2605</v>
+      </c>
       <c r="E914" t="s">
-        <v>2573</v>
+        <v>2877</v>
       </c>
       <c r="F914" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G914" s="1" t="s">
         <v>6</v>
@@ -34236,19 +35850,22 @@
     </row>
     <row r="915" spans="1:9">
       <c r="A915">
-        <v>2772</v>
+        <v>2614</v>
       </c>
       <c r="B915" t="s">
-        <v>2574</v>
+        <v>2752</v>
       </c>
       <c r="C915" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D915" t="s">
+        <v>2605</v>
+      </c>
       <c r="E915" t="s">
-        <v>2575</v>
+        <v>2934</v>
       </c>
       <c r="F915" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G915" s="1" t="s">
         <v>6</v>
@@ -34262,19 +35879,22 @@
     </row>
     <row r="916" spans="1:9">
       <c r="A916">
-        <v>2851</v>
+        <v>2680</v>
       </c>
       <c r="B916" t="s">
-        <v>2576</v>
+        <v>2753</v>
       </c>
       <c r="C916" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D916" t="s">
+        <v>2605</v>
+      </c>
       <c r="E916" t="s">
-        <v>2577</v>
+        <v>2935</v>
       </c>
       <c r="F916" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G916" s="1" t="s">
         <v>6</v>
@@ -34288,19 +35908,22 @@
     </row>
     <row r="917" spans="1:9">
       <c r="A917">
-        <v>2598</v>
+        <v>2131</v>
       </c>
       <c r="B917" t="s">
-        <v>2578</v>
+        <v>2754</v>
       </c>
       <c r="C917" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D917" t="s">
+        <v>2605</v>
+      </c>
       <c r="E917" t="s">
-        <v>2579</v>
+        <v>2936</v>
       </c>
       <c r="F917" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G917" s="1" t="s">
         <v>6</v>
@@ -34314,19 +35937,22 @@
     </row>
     <row r="918" spans="1:9">
       <c r="A918">
-        <v>2771</v>
+        <v>2743</v>
       </c>
       <c r="B918" t="s">
-        <v>2580</v>
+        <v>2755</v>
       </c>
       <c r="C918" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D918" t="s">
+        <v>2605</v>
+      </c>
       <c r="E918" t="s">
-        <v>2581</v>
+        <v>2937</v>
       </c>
       <c r="F918" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G918" s="1" t="s">
         <v>6</v>
@@ -34340,19 +35966,22 @@
     </row>
     <row r="919" spans="1:9">
       <c r="A919">
-        <v>2423</v>
+        <v>2343</v>
       </c>
       <c r="B919" t="s">
-        <v>2582</v>
+        <v>2756</v>
       </c>
       <c r="C919" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D919" t="s">
+        <v>2605</v>
+      </c>
       <c r="E919" t="s">
-        <v>2583</v>
+        <v>2938</v>
       </c>
       <c r="F919" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G919" s="1" t="s">
         <v>6</v>
@@ -34366,19 +35995,22 @@
     </row>
     <row r="920" spans="1:9">
       <c r="A920">
-        <v>2929</v>
+        <v>2726</v>
       </c>
       <c r="B920" t="s">
-        <v>2584</v>
+        <v>2757</v>
       </c>
       <c r="C920" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D920" t="s">
+        <v>2605</v>
+      </c>
       <c r="E920" t="s">
-        <v>2585</v>
+        <v>2939</v>
       </c>
       <c r="F920" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G920" s="1" t="s">
         <v>6</v>
@@ -34392,19 +36024,22 @@
     </row>
     <row r="921" spans="1:9">
       <c r="A921">
-        <v>2803</v>
+        <v>1689</v>
       </c>
       <c r="B921" t="s">
-        <v>2586</v>
+        <v>2758</v>
       </c>
       <c r="C921" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D921" t="s">
+        <v>2605</v>
+      </c>
       <c r="E921" t="s">
-        <v>2587</v>
+        <v>2940</v>
       </c>
       <c r="F921" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G921" s="1" t="s">
         <v>6</v>
@@ -34418,19 +36053,22 @@
     </row>
     <row r="922" spans="1:9">
       <c r="A922">
-        <v>1716</v>
+        <v>2068</v>
       </c>
       <c r="B922" t="s">
-        <v>2588</v>
+        <v>2759</v>
       </c>
       <c r="C922" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D922" t="s">
+        <v>2605</v>
+      </c>
       <c r="E922" t="s">
-        <v>2589</v>
+        <v>2941</v>
       </c>
       <c r="F922" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G922" s="1" t="s">
         <v>6</v>
@@ -34444,19 +36082,22 @@
     </row>
     <row r="923" spans="1:9">
       <c r="A923">
-        <v>2666</v>
+        <v>1531</v>
       </c>
       <c r="B923" t="s">
-        <v>2240</v>
+        <v>2760</v>
       </c>
       <c r="C923" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D923" t="s">
+        <v>2605</v>
+      </c>
       <c r="E923" t="s">
-        <v>2590</v>
+        <v>2942</v>
       </c>
       <c r="F923" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G923" s="1" t="s">
         <v>6</v>
@@ -34470,19 +36111,22 @@
     </row>
     <row r="924" spans="1:9">
       <c r="A924">
-        <v>2147</v>
+        <v>2703</v>
       </c>
       <c r="B924" t="s">
-        <v>2593</v>
+        <v>2761</v>
       </c>
       <c r="C924" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D924" t="s">
+        <v>2605</v>
+      </c>
       <c r="E924" t="s">
-        <v>2594</v>
+        <v>2943</v>
       </c>
       <c r="F924" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G924" s="1" t="s">
         <v>6</v>
@@ -34496,19 +36140,22 @@
     </row>
     <row r="925" spans="1:9">
       <c r="A925">
-        <v>1903</v>
+        <v>2777</v>
       </c>
       <c r="B925" t="s">
-        <v>2595</v>
+        <v>2762</v>
       </c>
       <c r="C925" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D925" t="s">
+        <v>2605</v>
+      </c>
       <c r="E925" t="s">
-        <v>2596</v>
+        <v>2944</v>
       </c>
       <c r="F925" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G925" s="1" t="s">
         <v>6</v>
@@ -34522,25 +36169,28 @@
     </row>
     <row r="926" spans="1:9">
       <c r="A926">
-        <v>2143</v>
+        <v>1575</v>
       </c>
       <c r="B926" t="s">
-        <v>2597</v>
+        <v>2763</v>
       </c>
       <c r="C926" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D926" t="s">
+        <v>2605</v>
+      </c>
       <c r="E926" t="s">
-        <v>2598</v>
+        <v>2945</v>
       </c>
       <c r="F926" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G926" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H926">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I926" s="1">
         <v>0</v>
@@ -34548,25 +36198,28 @@
     </row>
     <row r="927" spans="1:9">
       <c r="A927">
-        <v>1140</v>
+        <v>1776</v>
       </c>
       <c r="B927" t="s">
-        <v>2599</v>
+        <v>2764</v>
       </c>
       <c r="C927" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D927" t="s">
+        <v>2605</v>
+      </c>
       <c r="E927" t="s">
-        <v>2600</v>
+        <v>2946</v>
       </c>
       <c r="F927" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G927" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H927">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I927" s="1">
         <v>0</v>
@@ -34574,25 +36227,28 @@
     </row>
     <row r="928" spans="1:9">
       <c r="A928">
-        <v>1078</v>
+        <v>2707</v>
       </c>
       <c r="B928" t="s">
-        <v>2601</v>
+        <v>2765</v>
       </c>
       <c r="C928" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D928" t="s">
+        <v>2605</v>
+      </c>
       <c r="E928" t="s">
-        <v>2602</v>
+        <v>2947</v>
       </c>
       <c r="F928" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G928" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H928">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I928" s="1">
         <v>0</v>
@@ -34600,25 +36256,28 @@
     </row>
     <row r="929" spans="1:9">
       <c r="A929">
-        <v>2763</v>
+        <v>2838</v>
       </c>
       <c r="B929" t="s">
-        <v>2603</v>
+        <v>2766</v>
       </c>
       <c r="C929" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D929" t="s">
+        <v>2605</v>
+      </c>
       <c r="E929" t="s">
-        <v>2604</v>
+        <v>2948</v>
       </c>
       <c r="F929" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G929" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H929">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I929" s="1">
         <v>0</v>
@@ -34626,25 +36285,28 @@
     </row>
     <row r="930" spans="1:9">
       <c r="A930">
-        <v>1847</v>
+        <v>1295</v>
       </c>
       <c r="B930" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C930" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D930" t="s">
         <v>2605</v>
       </c>
-      <c r="C930" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E930" t="s">
-        <v>2606</v>
+        <v>2891</v>
       </c>
       <c r="F930" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G930" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H930">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I930" s="1">
         <v>0</v>
@@ -34652,19 +36314,22 @@
     </row>
     <row r="931" spans="1:9">
       <c r="A931">
-        <v>1781</v>
+        <v>1351</v>
       </c>
       <c r="B931" t="s">
-        <v>2530</v>
+        <v>2740</v>
       </c>
       <c r="C931" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D931" t="s">
+        <v>2605</v>
+      </c>
       <c r="E931" t="s">
-        <v>2607</v>
+        <v>2922</v>
       </c>
       <c r="F931" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G931" s="1" t="s">
         <v>6</v>
@@ -34678,19 +36343,22 @@
     </row>
     <row r="932" spans="1:9">
       <c r="A932">
-        <v>2043</v>
+        <v>1456</v>
       </c>
       <c r="B932" t="s">
-        <v>2534</v>
+        <v>2683</v>
       </c>
       <c r="C932" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D932" t="s">
+        <v>2605</v>
+      </c>
       <c r="E932" t="s">
-        <v>2536</v>
+        <v>2865</v>
       </c>
       <c r="F932" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G932" s="1" t="s">
         <v>6</v>
@@ -34704,19 +36372,22 @@
     </row>
     <row r="933" spans="1:9">
       <c r="A933">
-        <v>1959</v>
+        <v>2600</v>
       </c>
       <c r="B933" t="s">
-        <v>2537</v>
+        <v>2715</v>
       </c>
       <c r="C933" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D933" t="s">
+        <v>2605</v>
+      </c>
       <c r="E933" t="s">
-        <v>2539</v>
+        <v>2897</v>
       </c>
       <c r="F933" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G933" s="1" t="s">
         <v>6</v>
@@ -34730,19 +36401,22 @@
     </row>
     <row r="934" spans="1:9">
       <c r="A934">
-        <v>2589</v>
+        <v>2819</v>
       </c>
       <c r="B934" t="s">
-        <v>2540</v>
+        <v>2644</v>
       </c>
       <c r="C934" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D934" t="s">
+        <v>2605</v>
+      </c>
       <c r="E934" t="s">
-        <v>2542</v>
+        <v>2825</v>
       </c>
       <c r="F934" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G934" s="1" t="s">
         <v>6</v>
@@ -34756,19 +36430,22 @@
     </row>
     <row r="935" spans="1:9">
       <c r="A935">
-        <v>2715</v>
+        <v>2724</v>
       </c>
       <c r="B935" t="s">
-        <v>2543</v>
+        <v>2687</v>
       </c>
       <c r="C935" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D935" t="s">
+        <v>2605</v>
+      </c>
       <c r="E935" t="s">
-        <v>2545</v>
+        <v>2869</v>
       </c>
       <c r="F935" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G935" s="1" t="s">
         <v>6</v>
@@ -34782,19 +36459,22 @@
     </row>
     <row r="936" spans="1:9">
       <c r="A936">
-        <v>1437</v>
+        <v>2015</v>
       </c>
       <c r="B936" t="s">
-        <v>2546</v>
+        <v>2767</v>
       </c>
       <c r="C936" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D936" t="s">
+        <v>2605</v>
+      </c>
       <c r="E936" t="s">
-        <v>2548</v>
+        <v>2949</v>
       </c>
       <c r="F936" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G936" s="1" t="s">
         <v>6</v>
@@ -34808,19 +36488,22 @@
     </row>
     <row r="937" spans="1:9">
       <c r="A937">
-        <v>1931</v>
+        <v>2133</v>
       </c>
       <c r="B937" t="s">
-        <v>2549</v>
+        <v>2768</v>
       </c>
       <c r="C937" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D937" t="s">
+        <v>2605</v>
+      </c>
       <c r="E937" t="s">
-        <v>2551</v>
+        <v>2950</v>
       </c>
       <c r="F937" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G937" s="1" t="s">
         <v>6</v>
@@ -34834,19 +36517,22 @@
     </row>
     <row r="938" spans="1:9">
       <c r="A938">
-        <v>2683</v>
+        <v>2744</v>
       </c>
       <c r="B938" t="s">
-        <v>2552</v>
+        <v>2769</v>
       </c>
       <c r="C938" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D938" t="s">
+        <v>2605</v>
+      </c>
       <c r="E938" t="s">
-        <v>2554</v>
+        <v>2951</v>
       </c>
       <c r="F938" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G938" s="1" t="s">
         <v>6</v>
@@ -34860,19 +36546,22 @@
     </row>
     <row r="939" spans="1:9">
       <c r="A939">
-        <v>2592</v>
+        <v>2793</v>
       </c>
       <c r="B939" t="s">
-        <v>2210</v>
+        <v>2770</v>
       </c>
       <c r="C939" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D939" t="s">
+        <v>2605</v>
+      </c>
       <c r="E939" t="s">
-        <v>2556</v>
+        <v>2952</v>
       </c>
       <c r="F939" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G939" s="1" t="s">
         <v>6</v>
@@ -34886,19 +36575,22 @@
     </row>
     <row r="940" spans="1:9">
       <c r="A940">
-        <v>2797</v>
+        <v>2154</v>
       </c>
       <c r="B940" t="s">
-        <v>2557</v>
+        <v>2771</v>
       </c>
       <c r="C940" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D940" t="s">
+        <v>2605</v>
+      </c>
       <c r="E940" t="s">
-        <v>2559</v>
+        <v>2953</v>
       </c>
       <c r="F940" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G940" s="1" t="s">
         <v>6</v>
@@ -34912,19 +36604,22 @@
     </row>
     <row r="941" spans="1:9">
       <c r="A941">
-        <v>1703</v>
+        <v>2713</v>
       </c>
       <c r="B941" t="s">
-        <v>2560</v>
+        <v>2772</v>
       </c>
       <c r="C941" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D941" t="s">
+        <v>2605</v>
+      </c>
       <c r="E941" t="s">
-        <v>2561</v>
+        <v>2954</v>
       </c>
       <c r="F941" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G941" s="1" t="s">
         <v>6</v>
@@ -34938,19 +36633,22 @@
     </row>
     <row r="942" spans="1:9">
       <c r="A942">
-        <v>2086</v>
+        <v>2619</v>
       </c>
       <c r="B942" t="s">
-        <v>2562</v>
+        <v>2773</v>
       </c>
       <c r="C942" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D942" t="s">
+        <v>2605</v>
+      </c>
       <c r="E942" t="s">
-        <v>2563</v>
+        <v>2955</v>
       </c>
       <c r="F942" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G942" s="1" t="s">
         <v>6</v>
@@ -34964,19 +36662,22 @@
     </row>
     <row r="943" spans="1:9">
       <c r="A943">
-        <v>1621</v>
+        <v>2722</v>
       </c>
       <c r="B943" t="s">
-        <v>2564</v>
+        <v>2774</v>
       </c>
       <c r="C943" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D943" t="s">
+        <v>2605</v>
+      </c>
       <c r="E943" t="s">
-        <v>2565</v>
+        <v>2956</v>
       </c>
       <c r="F943" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G943" s="1" t="s">
         <v>6</v>
@@ -34990,19 +36691,22 @@
     </row>
     <row r="944" spans="1:9">
       <c r="A944">
-        <v>1768</v>
+        <v>2639</v>
       </c>
       <c r="B944" t="s">
-        <v>2566</v>
+        <v>2661</v>
       </c>
       <c r="C944" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D944" t="s">
+        <v>2605</v>
+      </c>
       <c r="E944" t="s">
-        <v>2567</v>
+        <v>2842</v>
       </c>
       <c r="F944" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G944" s="1" t="s">
         <v>6</v>
@@ -35016,19 +36720,22 @@
     </row>
     <row r="945" spans="1:9">
       <c r="A945">
-        <v>2302</v>
+        <v>2611</v>
       </c>
       <c r="B945" t="s">
-        <v>2226</v>
+        <v>2775</v>
       </c>
       <c r="C945" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D945" t="s">
+        <v>2605</v>
+      </c>
       <c r="E945" t="s">
-        <v>2568</v>
+        <v>2957</v>
       </c>
       <c r="F945" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G945" s="1" t="s">
         <v>6</v>
@@ -35042,19 +36749,22 @@
     </row>
     <row r="946" spans="1:9">
       <c r="A946">
-        <v>2329</v>
+        <v>2835</v>
       </c>
       <c r="B946" t="s">
-        <v>2232</v>
+        <v>2776</v>
       </c>
       <c r="C946" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D946" t="s">
+        <v>2605</v>
+      </c>
       <c r="E946" t="s">
-        <v>2569</v>
+        <v>2958</v>
       </c>
       <c r="F946" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G946" s="1" t="s">
         <v>6</v>
@@ -35068,19 +36778,22 @@
     </row>
     <row r="947" spans="1:9">
       <c r="A947">
-        <v>2805</v>
+        <v>2749</v>
       </c>
       <c r="B947" t="s">
-        <v>2570</v>
+        <v>2777</v>
       </c>
       <c r="C947" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D947" t="s">
+        <v>2605</v>
+      </c>
       <c r="E947" t="s">
-        <v>2571</v>
+        <v>2959</v>
       </c>
       <c r="F947" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G947" s="1" t="s">
         <v>6</v>
@@ -35094,19 +36807,22 @@
     </row>
     <row r="948" spans="1:9">
       <c r="A948">
-        <v>2841</v>
+        <v>1982</v>
       </c>
       <c r="B948" t="s">
-        <v>2572</v>
+        <v>2778</v>
       </c>
       <c r="C948" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D948" t="s">
+        <v>2605</v>
+      </c>
       <c r="E948" t="s">
-        <v>2573</v>
+        <v>2960</v>
       </c>
       <c r="F948" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G948" s="1" t="s">
         <v>6</v>
@@ -35120,19 +36836,22 @@
     </row>
     <row r="949" spans="1:9">
       <c r="A949">
-        <v>2772</v>
+        <v>2756</v>
       </c>
       <c r="B949" t="s">
-        <v>2574</v>
+        <v>2779</v>
       </c>
       <c r="C949" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D949" t="s">
+        <v>2605</v>
+      </c>
       <c r="E949" t="s">
-        <v>2575</v>
+        <v>2961</v>
       </c>
       <c r="F949" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G949" s="1" t="s">
         <v>6</v>
@@ -35146,19 +36865,22 @@
     </row>
     <row r="950" spans="1:9">
       <c r="A950">
-        <v>2851</v>
+        <v>2024</v>
       </c>
       <c r="B950" t="s">
-        <v>2576</v>
+        <v>2780</v>
       </c>
       <c r="C950" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D950" t="s">
+        <v>2605</v>
+      </c>
       <c r="E950" t="s">
-        <v>2577</v>
+        <v>2962</v>
       </c>
       <c r="F950" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G950" s="1" t="s">
         <v>6</v>
@@ -35172,19 +36894,22 @@
     </row>
     <row r="951" spans="1:9">
       <c r="A951">
-        <v>2598</v>
+        <v>1873</v>
       </c>
       <c r="B951" t="s">
-        <v>2578</v>
+        <v>2781</v>
       </c>
       <c r="C951" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D951" t="s">
+        <v>2605</v>
+      </c>
       <c r="E951" t="s">
-        <v>2579</v>
+        <v>2963</v>
       </c>
       <c r="F951" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G951" s="1" t="s">
         <v>6</v>
@@ -35198,19 +36923,22 @@
     </row>
     <row r="952" spans="1:9">
       <c r="A952">
-        <v>2771</v>
+        <v>2666</v>
       </c>
       <c r="B952" t="s">
-        <v>2580</v>
+        <v>2240</v>
       </c>
       <c r="C952" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D952" t="s">
+        <v>2605</v>
+      </c>
       <c r="E952" t="s">
-        <v>2581</v>
+        <v>2587</v>
       </c>
       <c r="F952" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G952" s="1" t="s">
         <v>6</v>
@@ -35224,19 +36952,22 @@
     </row>
     <row r="953" spans="1:9">
       <c r="A953">
-        <v>2423</v>
+        <v>2300</v>
       </c>
       <c r="B953" t="s">
-        <v>2582</v>
+        <v>2782</v>
       </c>
       <c r="C953" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D953" t="s">
+        <v>2605</v>
+      </c>
       <c r="E953" t="s">
-        <v>2583</v>
+        <v>2964</v>
       </c>
       <c r="F953" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G953" s="1" t="s">
         <v>6</v>
@@ -35250,19 +36981,22 @@
     </row>
     <row r="954" spans="1:9">
       <c r="A954">
-        <v>2929</v>
+        <v>2029</v>
       </c>
       <c r="B954" t="s">
-        <v>2584</v>
+        <v>2783</v>
       </c>
       <c r="C954" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D954" t="s">
+        <v>2605</v>
+      </c>
       <c r="E954" t="s">
-        <v>2585</v>
+        <v>2965</v>
       </c>
       <c r="F954" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G954" s="1" t="s">
         <v>6</v>
@@ -35276,19 +37010,22 @@
     </row>
     <row r="955" spans="1:9">
       <c r="A955">
-        <v>2803</v>
+        <v>2150</v>
       </c>
       <c r="B955" t="s">
-        <v>2586</v>
+        <v>2784</v>
       </c>
       <c r="C955" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D955" t="s">
+        <v>2605</v>
+      </c>
       <c r="E955" t="s">
-        <v>2587</v>
+        <v>2966</v>
       </c>
       <c r="F955" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G955" s="1" t="s">
         <v>6</v>
@@ -35302,19 +37039,22 @@
     </row>
     <row r="956" spans="1:9">
       <c r="A956">
-        <v>1716</v>
+        <v>2517</v>
       </c>
       <c r="B956" t="s">
-        <v>2588</v>
+        <v>2785</v>
       </c>
       <c r="C956" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D956" t="s">
+        <v>2605</v>
+      </c>
       <c r="E956" t="s">
-        <v>2589</v>
+        <v>2967</v>
       </c>
       <c r="F956" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="G956" s="1" t="s">
         <v>6</v>
@@ -35327,260 +37067,92 @@
       </c>
     </row>
     <row r="957" spans="1:9">
-      <c r="A957">
-        <v>2666</v>
-      </c>
-      <c r="B957" t="s">
-        <v>2240</v>
-      </c>
-      <c r="C957" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E957" t="s">
-        <v>2590</v>
-      </c>
-      <c r="F957" t="s">
-        <v>2533</v>
-      </c>
-      <c r="G957" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H957">
-        <v>7</v>
-      </c>
-      <c r="I957" s="1">
-        <v>0</v>
-      </c>
+      <c r="C957" s="1"/>
+      <c r="G957" s="1"/>
+      <c r="I957" s="1"/>
     </row>
     <row r="958" spans="1:9">
-      <c r="A958">
-        <v>2147</v>
-      </c>
-      <c r="B958" t="s">
-        <v>2593</v>
-      </c>
-      <c r="C958" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E958" t="s">
-        <v>2594</v>
-      </c>
-      <c r="F958" t="s">
-        <v>2533</v>
-      </c>
-      <c r="G958" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H958">
-        <v>7</v>
-      </c>
-      <c r="I958" s="1">
-        <v>0</v>
-      </c>
+      <c r="C958" s="1"/>
+      <c r="G958" s="1"/>
+      <c r="I958" s="1"/>
     </row>
     <row r="959" spans="1:9">
-      <c r="A959">
-        <v>1903</v>
-      </c>
-      <c r="B959" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C959" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E959" t="s">
-        <v>2596</v>
-      </c>
-      <c r="F959" t="s">
-        <v>2533</v>
-      </c>
-      <c r="G959" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H959">
-        <v>7</v>
-      </c>
-      <c r="I959" s="1">
-        <v>0</v>
-      </c>
+      <c r="C959" s="1"/>
+      <c r="G959" s="1"/>
+      <c r="I959" s="1"/>
     </row>
     <row r="960" spans="1:9">
-      <c r="A960">
-        <v>2143</v>
-      </c>
-      <c r="B960" t="s">
-        <v>2597</v>
-      </c>
-      <c r="C960" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E960" t="s">
-        <v>2598</v>
-      </c>
-      <c r="F960" t="s">
-        <v>2533</v>
-      </c>
-      <c r="G960" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H960">
-        <v>7</v>
-      </c>
-      <c r="I960" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="961" spans="1:9">
-      <c r="A961">
-        <v>1140</v>
-      </c>
-      <c r="B961" t="s">
-        <v>2599</v>
-      </c>
-      <c r="C961" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E961" t="s">
-        <v>2600</v>
-      </c>
-      <c r="F961" t="s">
-        <v>2533</v>
-      </c>
-      <c r="G961" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H961">
-        <v>7</v>
-      </c>
-      <c r="I961" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="962" spans="1:9">
-      <c r="A962">
-        <v>1078</v>
-      </c>
-      <c r="B962" t="s">
-        <v>2601</v>
-      </c>
-      <c r="C962" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E962" t="s">
-        <v>2602</v>
-      </c>
-      <c r="F962" t="s">
-        <v>2533</v>
-      </c>
-      <c r="G962" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H962">
-        <v>7</v>
-      </c>
-      <c r="I962" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="963" spans="1:9">
-      <c r="A963">
-        <v>2763</v>
-      </c>
-      <c r="B963" t="s">
-        <v>2603</v>
-      </c>
-      <c r="C963" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E963" t="s">
-        <v>2604</v>
-      </c>
-      <c r="F963" t="s">
-        <v>2533</v>
-      </c>
-      <c r="G963" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H963">
-        <v>7</v>
-      </c>
-      <c r="I963" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="964" spans="1:9">
-      <c r="A964">
-        <v>1847</v>
-      </c>
-      <c r="B964" t="s">
-        <v>2605</v>
-      </c>
-      <c r="C964" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E964" t="s">
-        <v>2606</v>
-      </c>
-      <c r="F964" t="s">
-        <v>2533</v>
-      </c>
-      <c r="G964" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H964">
-        <v>7</v>
-      </c>
-      <c r="I964" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="965" spans="1:9">
+      <c r="C960" s="1"/>
+      <c r="G960" s="1"/>
+      <c r="I960" s="1"/>
+    </row>
+    <row r="961" spans="3:9">
+      <c r="C961" s="1"/>
+      <c r="G961" s="1"/>
+      <c r="I961" s="1"/>
+    </row>
+    <row r="962" spans="3:9">
+      <c r="C962" s="1"/>
+      <c r="G962" s="1"/>
+      <c r="I962" s="1"/>
+    </row>
+    <row r="963" spans="3:9">
+      <c r="C963" s="1"/>
+      <c r="G963" s="1"/>
+      <c r="I963" s="1"/>
+    </row>
+    <row r="964" spans="3:9">
+      <c r="C964" s="1"/>
+      <c r="G964" s="1"/>
+      <c r="I964" s="1"/>
+    </row>
+    <row r="965" spans="3:9">
       <c r="C965" s="1"/>
       <c r="G965" s="1"/>
       <c r="I965" s="1"/>
     </row>
-    <row r="966" spans="1:9">
+    <row r="966" spans="3:9">
       <c r="C966" s="1"/>
       <c r="G966" s="1"/>
       <c r="I966" s="1"/>
     </row>
-    <row r="967" spans="1:9">
+    <row r="967" spans="3:9">
       <c r="C967" s="1"/>
       <c r="G967" s="1"/>
       <c r="I967" s="1"/>
     </row>
-    <row r="968" spans="1:9">
+    <row r="968" spans="3:9">
       <c r="C968" s="1"/>
       <c r="G968" s="1"/>
       <c r="I968" s="1"/>
     </row>
-    <row r="969" spans="1:9">
+    <row r="969" spans="3:9">
       <c r="C969" s="1"/>
       <c r="G969" s="1"/>
       <c r="I969" s="1"/>
     </row>
-    <row r="970" spans="1:9">
+    <row r="970" spans="3:9">
       <c r="C970" s="1"/>
       <c r="G970" s="1"/>
       <c r="I970" s="1"/>
     </row>
-    <row r="971" spans="1:9">
+    <row r="971" spans="3:9">
       <c r="C971" s="1"/>
       <c r="G971" s="1"/>
     </row>
-    <row r="972" spans="1:9">
+    <row r="972" spans="3:9">
       <c r="C972" s="1"/>
     </row>
-    <row r="973" spans="1:9">
+    <row r="973" spans="3:9">
       <c r="C973" s="1"/>
     </row>
-    <row r="974" spans="1:9">
+    <row r="974" spans="3:9">
       <c r="C974" s="1"/>
     </row>
-    <row r="975" spans="1:9">
+    <row r="975" spans="3:9">
       <c r="C975" s="1"/>
     </row>
-    <row r="976" spans="1:9">
+    <row r="976" spans="3:9">
       <c r="C976" s="1"/>
     </row>
     <row r="977" spans="3:3">
@@ -35697,7 +37269,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E726" r:id="rId1" xr:uid="{9803BF20-3FA7-294C-85CB-D3B689754350}"/>
+    <hyperlink ref="E791" r:id="rId1" xr:uid="{96E01D2E-8AA1-564E-BEE4-54B3B2348A87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
